--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="515">
   <si>
     <t>TestCases</t>
   </si>
@@ -864,6 +864,732 @@
   </si>
   <si>
     <t>4215434</t>
+  </si>
+  <si>
+    <t>6525869402</t>
+  </si>
+  <si>
+    <t>Padama</t>
+  </si>
+  <si>
+    <t>MalikSrinivas95033@example.net</t>
+  </si>
+  <si>
+    <t>1981-01-28</t>
+  </si>
+  <si>
+    <t>041885818856051</t>
+  </si>
+  <si>
+    <t>9d518e30642c853b</t>
+  </si>
+  <si>
+    <t>685168115208800</t>
+  </si>
+  <si>
+    <t>IDEP67211465211586AL</t>
+  </si>
+  <si>
+    <t>4215444.0</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>59999724270</t>
+  </si>
+  <si>
+    <t>JFRSMC</t>
+  </si>
+  <si>
+    <t>9610924171</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>BijoyBrar71712@example.net</t>
+  </si>
+  <si>
+    <t>1995-09-18</t>
+  </si>
+  <si>
+    <t>528651140984785</t>
+  </si>
+  <si>
+    <t>93be441de6ccaf18</t>
+  </si>
+  <si>
+    <t>153859432945701</t>
+  </si>
+  <si>
+    <t>IDEP271616273838F5XY</t>
+  </si>
+  <si>
+    <t>4215566.0</t>
+  </si>
+  <si>
+    <t>9151319207</t>
+  </si>
+  <si>
+    <t>Kajol</t>
+  </si>
+  <si>
+    <t>RickyGobin49722@example.net</t>
+  </si>
+  <si>
+    <t>1982-09-20</t>
+  </si>
+  <si>
+    <t>832590294941152</t>
+  </si>
+  <si>
+    <t>91b0ca1a141bb8b7</t>
+  </si>
+  <si>
+    <t>110205076321860</t>
+  </si>
+  <si>
+    <t>IDEP716217835871BAHY</t>
+  </si>
+  <si>
+    <t>4215585.0</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>59999402472</t>
+  </si>
+  <si>
+    <t>IEDISH</t>
+  </si>
+  <si>
+    <t>BNPL6217183837127845</t>
+  </si>
+  <si>
+    <t>59999551789</t>
+  </si>
+  <si>
+    <t>CBCJCR</t>
+  </si>
+  <si>
+    <t>59999835857</t>
+  </si>
+  <si>
+    <t>IJFDTU</t>
+  </si>
+  <si>
+    <t>59999711067</t>
+  </si>
+  <si>
+    <t>SRCNDK</t>
+  </si>
+  <si>
+    <t>59999034264</t>
+  </si>
+  <si>
+    <t>EGMCHG</t>
+  </si>
+  <si>
+    <t>59999062837</t>
+  </si>
+  <si>
+    <t>TTJQJG</t>
+  </si>
+  <si>
+    <t>59999984168</t>
+  </si>
+  <si>
+    <t>UKQEJK</t>
+  </si>
+  <si>
+    <t>59999225329</t>
+  </si>
+  <si>
+    <t>TRMLNJ</t>
+  </si>
+  <si>
+    <t>59999874087</t>
+  </si>
+  <si>
+    <t>CSLFFU</t>
+  </si>
+  <si>
+    <t>59999621522</t>
+  </si>
+  <si>
+    <t>LFKUCR</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6791914617</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>KrishnaDash81042@example.net</t>
+  </si>
+  <si>
+    <t>1973-11-13</t>
+  </si>
+  <si>
+    <t>902137443252910</t>
+  </si>
+  <si>
+    <t>5ee96bf8a9e15fbd</t>
+  </si>
+  <si>
+    <t>759222165832646</t>
+  </si>
+  <si>
+    <t>335577016791914617</t>
+  </si>
+  <si>
+    <t>ICIC89934575810</t>
+  </si>
+  <si>
+    <t>7821746848</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>AjinkyaGhosh68994@example.net</t>
+  </si>
+  <si>
+    <t>1988-10-31</t>
+  </si>
+  <si>
+    <t>447444364203167</t>
+  </si>
+  <si>
+    <t>430fa74ed7549c56</t>
+  </si>
+  <si>
+    <t>728171367210705</t>
+  </si>
+  <si>
+    <t>335577017821746848</t>
+  </si>
+  <si>
+    <t>ICIC83744485638</t>
+  </si>
+  <si>
+    <t>9171133660</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>KabeerPillai52320@example.net</t>
+  </si>
+  <si>
+    <t>1975-01-30</t>
+  </si>
+  <si>
+    <t>796453889728381</t>
+  </si>
+  <si>
+    <t>7bab6dcd3cfe7edf</t>
+  </si>
+  <si>
+    <t>065418941708972</t>
+  </si>
+  <si>
+    <t>IDEP371688814388PVB3</t>
+  </si>
+  <si>
+    <t>4215622.0</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>59999794493</t>
+  </si>
+  <si>
+    <t>MJCCBG</t>
+  </si>
+  <si>
+    <t>BNPL6371885671476187</t>
+  </si>
+  <si>
+    <t>59999440384</t>
+  </si>
+  <si>
+    <t>KJPCUN</t>
+  </si>
+  <si>
+    <t>59999868850</t>
+  </si>
+  <si>
+    <t>GHFDPU</t>
+  </si>
+  <si>
+    <t>59999583580</t>
+  </si>
+  <si>
+    <t>LDENEA</t>
+  </si>
+  <si>
+    <t>59999647772</t>
+  </si>
+  <si>
+    <t>HHLKBP</t>
+  </si>
+  <si>
+    <t>59999034918</t>
+  </si>
+  <si>
+    <t>UUKDLR</t>
+  </si>
+  <si>
+    <t>59999228128</t>
+  </si>
+  <si>
+    <t>MEOHOE</t>
+  </si>
+  <si>
+    <t>59999660175</t>
+  </si>
+  <si>
+    <t>GFOFIO</t>
+  </si>
+  <si>
+    <t>59999055126</t>
+  </si>
+  <si>
+    <t>ILRPMG</t>
+  </si>
+  <si>
+    <t>59999351164</t>
+  </si>
+  <si>
+    <t>CQLQGR</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>9028712641</t>
+  </si>
+  <si>
+    <t>Geetanjali</t>
+  </si>
+  <si>
+    <t>MotiDeol92518@example.net</t>
+  </si>
+  <si>
+    <t>1976-01-30</t>
+  </si>
+  <si>
+    <t>497360557444831</t>
+  </si>
+  <si>
+    <t>3df9eb91fd63e377</t>
+  </si>
+  <si>
+    <t>272265681940151</t>
+  </si>
+  <si>
+    <t>335577019028712641</t>
+  </si>
+  <si>
+    <t>ICIC93339201996</t>
+  </si>
+  <si>
+    <t>9557636710</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>WafaSoni89942@example.net</t>
+  </si>
+  <si>
+    <t>1993-12-09</t>
+  </si>
+  <si>
+    <t>013258418932017</t>
+  </si>
+  <si>
+    <t>2bd182717d3d1bdb</t>
+  </si>
+  <si>
+    <t>691202385078148</t>
+  </si>
+  <si>
+    <t>335577019557636710</t>
+  </si>
+  <si>
+    <t>ICIC92860672026</t>
+  </si>
+  <si>
+    <t>6646220742</t>
+  </si>
+  <si>
+    <t>AatifChokshi83348@example.net</t>
+  </si>
+  <si>
+    <t>1994-07-20</t>
+  </si>
+  <si>
+    <t>635127838889263</t>
+  </si>
+  <si>
+    <t>7b5b0fb2d9082144</t>
+  </si>
+  <si>
+    <t>191950634970672</t>
+  </si>
+  <si>
+    <t>IDEP317684834591WUMX</t>
+  </si>
+  <si>
+    <t>4215959.0</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>59999985795</t>
+  </si>
+  <si>
+    <t>PDEOTG</t>
+  </si>
+  <si>
+    <t>BNPL7613845993999673</t>
+  </si>
+  <si>
+    <t>59999005390</t>
+  </si>
+  <si>
+    <t>QESNIL</t>
+  </si>
+  <si>
+    <t>59999422831</t>
+  </si>
+  <si>
+    <t>NMSJDN</t>
+  </si>
+  <si>
+    <t>59999180700</t>
+  </si>
+  <si>
+    <t>CAMAUU</t>
+  </si>
+  <si>
+    <t>59999988172</t>
+  </si>
+  <si>
+    <t>NOOEDT</t>
+  </si>
+  <si>
+    <t>59999942151</t>
+  </si>
+  <si>
+    <t>ENBSOA</t>
+  </si>
+  <si>
+    <t>59999554453</t>
+  </si>
+  <si>
+    <t>ESSBTD</t>
+  </si>
+  <si>
+    <t>59999744217</t>
+  </si>
+  <si>
+    <t>UJNAFB</t>
+  </si>
+  <si>
+    <t>59999892964</t>
+  </si>
+  <si>
+    <t>AKDSLT</t>
+  </si>
+  <si>
+    <t>59999479419</t>
+  </si>
+  <si>
+    <t>DOAKGE</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>7861993651</t>
+  </si>
+  <si>
+    <t>Leela</t>
+  </si>
+  <si>
+    <t>HanumanKhare62312@example.net</t>
+  </si>
+  <si>
+    <t>1976-08-12</t>
+  </si>
+  <si>
+    <t>317809778057432</t>
+  </si>
+  <si>
+    <t>ce9e68060ed221ab</t>
+  </si>
+  <si>
+    <t>270650511095775</t>
+  </si>
+  <si>
+    <t>335577017861993651</t>
+  </si>
+  <si>
+    <t>ICIC86260789245</t>
+  </si>
+  <si>
+    <t>7667034059</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>CharandeepApte75098@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-10</t>
+  </si>
+  <si>
+    <t>066788335716453</t>
+  </si>
+  <si>
+    <t>7fe0bea1d031ae57</t>
+  </si>
+  <si>
+    <t>079145500476808</t>
+  </si>
+  <si>
+    <t>335577017667034059</t>
+  </si>
+  <si>
+    <t>ICIC83078311986</t>
+  </si>
+  <si>
+    <t>8412938420</t>
+  </si>
+  <si>
+    <t>Prabha</t>
+  </si>
+  <si>
+    <t>HetanBanik23344@example.net</t>
+  </si>
+  <si>
+    <t>1971-08-27</t>
+  </si>
+  <si>
+    <t>976322918679133</t>
+  </si>
+  <si>
+    <t>aeb2716f67aea0c6</t>
+  </si>
+  <si>
+    <t>053512432796795</t>
+  </si>
+  <si>
+    <t>IDEP136751849599VPBW</t>
+  </si>
+  <si>
+    <t>4215994.0</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>59999576699</t>
+  </si>
+  <si>
+    <t>FHGBFE</t>
+  </si>
+  <si>
+    <t>BNPL7163525855246379</t>
+  </si>
+  <si>
+    <t>59999376624</t>
+  </si>
+  <si>
+    <t>HBGNBB</t>
+  </si>
+  <si>
+    <t>59999254434</t>
+  </si>
+  <si>
+    <t>DJDNEQ</t>
+  </si>
+  <si>
+    <t>59999660684</t>
+  </si>
+  <si>
+    <t>TFTLEH</t>
+  </si>
+  <si>
+    <t>59999199309</t>
+  </si>
+  <si>
+    <t>MJPDHS</t>
+  </si>
+  <si>
+    <t>59999876872</t>
+  </si>
+  <si>
+    <t>IOHKMS</t>
+  </si>
+  <si>
+    <t>59999511738</t>
+  </si>
+  <si>
+    <t>EJFUAE</t>
+  </si>
+  <si>
+    <t>59999327562</t>
+  </si>
+  <si>
+    <t>SARPGU</t>
+  </si>
+  <si>
+    <t>59999748031</t>
+  </si>
+  <si>
+    <t>ODIONM</t>
+  </si>
+  <si>
+    <t>59999711699</t>
+  </si>
+  <si>
+    <t>FFNHDA</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>7497086981</t>
+  </si>
+  <si>
+    <t>Richa</t>
+  </si>
+  <si>
+    <t>KirtiVig81523@example.net</t>
+  </si>
+  <si>
+    <t>1973-10-11</t>
+  </si>
+  <si>
+    <t>809568228406053</t>
+  </si>
+  <si>
+    <t>d4b638a2adf7e583</t>
+  </si>
+  <si>
+    <t>608723508931329</t>
+  </si>
+  <si>
+    <t>335577017497086981</t>
+  </si>
+  <si>
+    <t>ICIC82540763052</t>
+  </si>
+  <si>
+    <t>7247520142</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>AzharSane99745@example.net</t>
+  </si>
+  <si>
+    <t>1992-06-12</t>
+  </si>
+  <si>
+    <t>736371804007132</t>
+  </si>
+  <si>
+    <t>e114979d353629cf</t>
+  </si>
+  <si>
+    <t>670276100740104</t>
+  </si>
+  <si>
+    <t>335577017247520142</t>
+  </si>
+  <si>
+    <t>ICIC98918467802</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1483,22 +2209,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>474</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>495</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -1833,6 +2559,9 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>477</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -1929,16 +2658,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>511</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>512</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2041,7 +2770,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>243</v>
+        <v>504</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2053,7 +2782,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>244</v>
+        <v>505</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2061,8 +2790,8 @@
       <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="J2">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>132.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2154,13 +2883,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>507</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>251</v>
+        <v>508</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>252</v>
+        <v>509</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2509,13 +3238,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>507</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>266</v>
+        <v>508</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>267</v>
+        <v>509</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2824,13 +3553,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>508</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>509</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -2924,13 +3653,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>507</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>508</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>267</v>
+        <v>509</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3239,13 +3968,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>508</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>267</v>
+        <v>509</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3364,7 +4093,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>513</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3376,7 +4105,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>246</v>
+        <v>514</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3384,8 +4113,8 @@
       <c r="I2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="J2">
-        <v>100</v>
+      <c r="J2" t="n">
+        <v>132.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3512,10 +4241,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>508</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3527,7 +4256,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -3536,10 +4265,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4215444.0</v>
+        <v>4216841.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -3565,7 +4294,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>508</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -3577,7 +4306,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -3586,10 +4315,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4215444.0</v>
+        <v>4216841.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -3649,7 +4378,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3666,7 +4395,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -3683,7 +4412,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -3700,7 +4429,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3717,7 +4446,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -3886,7 +4615,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4130,7 +4859,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>510</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4345,7 +5074,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>507</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4726,7 +5455,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -4746,7 +5475,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -4766,7 +5495,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -4786,7 +5515,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -4806,7 +5535,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -4826,7 +5555,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -4846,7 +5575,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -4905,7 +5634,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>261</v>
+        <v>474</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -4919,7 +5648,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>474</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="570">
   <si>
     <t>TestCases</t>
   </si>
@@ -1590,6 +1590,171 @@
   </si>
   <si>
     <t>ICIC98918467802</t>
+  </si>
+  <si>
+    <t>6821602447</t>
+  </si>
+  <si>
+    <t>Nagma</t>
+  </si>
+  <si>
+    <t>RupalBava95744@example.net</t>
+  </si>
+  <si>
+    <t>1980-10-11</t>
+  </si>
+  <si>
+    <t>982202667886117</t>
+  </si>
+  <si>
+    <t>fdc1165bdf0d2ab6</t>
+  </si>
+  <si>
+    <t>499175989704067</t>
+  </si>
+  <si>
+    <t>IDEP317626799865RBS7</t>
+  </si>
+  <si>
+    <t>4216841.0</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999128837</t>
+  </si>
+  <si>
+    <t>JSTEKF</t>
+  </si>
+  <si>
+    <t>BNPL6173274864156479</t>
+  </si>
+  <si>
+    <t>59999888668</t>
+  </si>
+  <si>
+    <t>DMKFEH</t>
+  </si>
+  <si>
+    <t>59999760131</t>
+  </si>
+  <si>
+    <t>SMHPFU</t>
+  </si>
+  <si>
+    <t>59999216740</t>
+  </si>
+  <si>
+    <t>NDCPUL</t>
+  </si>
+  <si>
+    <t>59999593074</t>
+  </si>
+  <si>
+    <t>CDIFDB</t>
+  </si>
+  <si>
+    <t>59999174824</t>
+  </si>
+  <si>
+    <t>MQLPAB</t>
+  </si>
+  <si>
+    <t>59999866465</t>
+  </si>
+  <si>
+    <t>UBPRHF</t>
+  </si>
+  <si>
+    <t>59999332277</t>
+  </si>
+  <si>
+    <t>TEHQNP</t>
+  </si>
+  <si>
+    <t>59999347526</t>
+  </si>
+  <si>
+    <t>TSRDIJ</t>
+  </si>
+  <si>
+    <t>59999734345</t>
+  </si>
+  <si>
+    <t>KHOHTU</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>9135961981</t>
+  </si>
+  <si>
+    <t>Nalini</t>
+  </si>
+  <si>
+    <t>DineshRaval92625@example.net</t>
+  </si>
+  <si>
+    <t>1972-09-18</t>
+  </si>
+  <si>
+    <t>638648826643146</t>
+  </si>
+  <si>
+    <t>eb7e0cc8ac25ce18</t>
+  </si>
+  <si>
+    <t>277341990135232</t>
+  </si>
+  <si>
+    <t>335577019135961981</t>
+  </si>
+  <si>
+    <t>ICIC99829458885</t>
+  </si>
+  <si>
+    <t>6462091251</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>SatishwarBhalla50247@example.net</t>
+  </si>
+  <si>
+    <t>1995-06-18</t>
+  </si>
+  <si>
+    <t>641169055425076</t>
+  </si>
+  <si>
+    <t>5b970f28907e5663</t>
+  </si>
+  <si>
+    <t>516445498573025</t>
+  </si>
+  <si>
+    <t>335577016462091251</t>
+  </si>
+  <si>
+    <t>ICIC96339087004</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2209,22 +2374,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C2" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2561,7 +2726,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2658,16 +2823,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2770,7 +2935,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2782,7 +2947,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2791,7 +2956,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>132.0</v>
+        <v>153.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2883,13 +3048,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3238,13 +3403,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3553,13 +3718,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3653,13 +3818,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="E2" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3968,13 +4133,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4093,7 +4258,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4105,7 +4270,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4114,7 +4279,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>132.0</v>
+        <v>153.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4241,10 +4406,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="E2" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4256,7 +4421,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4265,10 +4430,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4216841.0</v>
+        <v>4217291.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4294,7 +4459,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -4306,7 +4471,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -4315,10 +4480,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4216841.0</v>
+        <v>4217291.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -4378,7 +4543,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4395,7 +4560,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4412,7 +4577,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4429,7 +4594,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4446,7 +4611,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4615,7 +4780,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4859,7 +5024,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5074,7 +5239,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5455,7 +5620,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5475,7 +5640,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5495,7 +5660,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5515,7 +5680,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5535,7 +5700,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5555,7 +5720,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5575,7 +5740,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5634,7 +5799,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5648,7 +5813,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="759">
   <si>
     <t>TestCases</t>
   </si>
@@ -1755,6 +1755,573 @@
   </si>
   <si>
     <t>ICIC96339087004</t>
+  </si>
+  <si>
+    <t>7283634559</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>HetanBala12876@example.net</t>
+  </si>
+  <si>
+    <t>1982-03-13</t>
+  </si>
+  <si>
+    <t>887631217238633</t>
+  </si>
+  <si>
+    <t>8a44c4f1479b6dc6</t>
+  </si>
+  <si>
+    <t>224254462209001</t>
+  </si>
+  <si>
+    <t>IDEP716335988525IX4A</t>
+  </si>
+  <si>
+    <t>4217291.0</t>
+  </si>
+  <si>
+    <t>8382796980</t>
+  </si>
+  <si>
+    <t>Nupoor</t>
+  </si>
+  <si>
+    <t>FakaruddinChacko45586@example.net</t>
+  </si>
+  <si>
+    <t>1991-08-11</t>
+  </si>
+  <si>
+    <t>918750795379263</t>
+  </si>
+  <si>
+    <t>a8e3d5f58a2abbfa</t>
+  </si>
+  <si>
+    <t>083133804974664</t>
+  </si>
+  <si>
+    <t>IDEP673136969522R9P6</t>
+  </si>
+  <si>
+    <t>4217468.0</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>59999568340</t>
+  </si>
+  <si>
+    <t>LNTNCM</t>
+  </si>
+  <si>
+    <t>59999434650</t>
+  </si>
+  <si>
+    <t>LHDFUD</t>
+  </si>
+  <si>
+    <t>59999688953</t>
+  </si>
+  <si>
+    <t>CJSRKC</t>
+  </si>
+  <si>
+    <t>59999240308</t>
+  </si>
+  <si>
+    <t>UHSBBS</t>
+  </si>
+  <si>
+    <t>59999931953</t>
+  </si>
+  <si>
+    <t>QSSKGB</t>
+  </si>
+  <si>
+    <t>59999752587</t>
+  </si>
+  <si>
+    <t>MRHFQG</t>
+  </si>
+  <si>
+    <t>59999073681</t>
+  </si>
+  <si>
+    <t>AMALRM</t>
+  </si>
+  <si>
+    <t>59999283302</t>
+  </si>
+  <si>
+    <t>QCUSEP</t>
+  </si>
+  <si>
+    <t>59999201437</t>
+  </si>
+  <si>
+    <t>QEQRUP</t>
+  </si>
+  <si>
+    <t>59999999677</t>
+  </si>
+  <si>
+    <t>AAERHC</t>
+  </si>
+  <si>
+    <t>9435968910</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>AadishDugal58970@example.net</t>
+  </si>
+  <si>
+    <t>1995-01-20</t>
+  </si>
+  <si>
+    <t>482356631457267</t>
+  </si>
+  <si>
+    <t>74bc240fcf0b05fe</t>
+  </si>
+  <si>
+    <t>504761435315153</t>
+  </si>
+  <si>
+    <t>IDEP7163811888242XMB</t>
+  </si>
+  <si>
+    <t>4217479.0</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>59999322072</t>
+  </si>
+  <si>
+    <t>GRTUNQ</t>
+  </si>
+  <si>
+    <t>59999927645</t>
+  </si>
+  <si>
+    <t>TDRAGI</t>
+  </si>
+  <si>
+    <t>59999485376</t>
+  </si>
+  <si>
+    <t>BSJEJT</t>
+  </si>
+  <si>
+    <t>59999067992</t>
+  </si>
+  <si>
+    <t>BQHRND</t>
+  </si>
+  <si>
+    <t>59999976092</t>
+  </si>
+  <si>
+    <t>TMQNNM</t>
+  </si>
+  <si>
+    <t>59999536418</t>
+  </si>
+  <si>
+    <t>LBTFQQ</t>
+  </si>
+  <si>
+    <t>59999082585</t>
+  </si>
+  <si>
+    <t>ESDHAB</t>
+  </si>
+  <si>
+    <t>59999321723</t>
+  </si>
+  <si>
+    <t>IJNNFF</t>
+  </si>
+  <si>
+    <t>59999583077</t>
+  </si>
+  <si>
+    <t>BSPFHR</t>
+  </si>
+  <si>
+    <t>59999779579</t>
+  </si>
+  <si>
+    <t>QMQODO</t>
+  </si>
+  <si>
+    <t>8893626809</t>
+  </si>
+  <si>
+    <t>AlbertDas93315@example.net</t>
+  </si>
+  <si>
+    <t>1983-07-28</t>
+  </si>
+  <si>
+    <t>143653691079614</t>
+  </si>
+  <si>
+    <t>952461fc58d95fd7</t>
+  </si>
+  <si>
+    <t>863654550349732</t>
+  </si>
+  <si>
+    <t>IDEP716319395917TEBH</t>
+  </si>
+  <si>
+    <t>4217577.0</t>
+  </si>
+  <si>
+    <t>8731023555</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>ViratShah40022@example.net</t>
+  </si>
+  <si>
+    <t>1991-01-08</t>
+  </si>
+  <si>
+    <t>013249114538869</t>
+  </si>
+  <si>
+    <t>ca69957715eb1b1d</t>
+  </si>
+  <si>
+    <t>515999946289338</t>
+  </si>
+  <si>
+    <t>IDEP371619583378KMRL</t>
+  </si>
+  <si>
+    <t>4217802.0</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>59999395805</t>
+  </si>
+  <si>
+    <t>HENBPQ</t>
+  </si>
+  <si>
+    <t>BNPL6317281821675839</t>
+  </si>
+  <si>
+    <t>59999160960</t>
+  </si>
+  <si>
+    <t>UJGCRT</t>
+  </si>
+  <si>
+    <t>59999353921</t>
+  </si>
+  <si>
+    <t>SCKRFR</t>
+  </si>
+  <si>
+    <t>59999590555</t>
+  </si>
+  <si>
+    <t>FDPKMI</t>
+  </si>
+  <si>
+    <t>59999417823</t>
+  </si>
+  <si>
+    <t>BIRMNN</t>
+  </si>
+  <si>
+    <t>59999828732</t>
+  </si>
+  <si>
+    <t>UGTLBB</t>
+  </si>
+  <si>
+    <t>59999423088</t>
+  </si>
+  <si>
+    <t>SDOMCP</t>
+  </si>
+  <si>
+    <t>59999746919</t>
+  </si>
+  <si>
+    <t>HEPLBI</t>
+  </si>
+  <si>
+    <t>59999611380</t>
+  </si>
+  <si>
+    <t>ATHLSH</t>
+  </si>
+  <si>
+    <t>59999796206</t>
+  </si>
+  <si>
+    <t>NNMSOH</t>
+  </si>
+  <si>
+    <t>153.0</t>
+  </si>
+  <si>
+    <t>8599766242</t>
+  </si>
+  <si>
+    <t>Nishtha</t>
+  </si>
+  <si>
+    <t>RameshPandit69544@example.net</t>
+  </si>
+  <si>
+    <t>1986-08-23</t>
+  </si>
+  <si>
+    <t>973732860637587</t>
+  </si>
+  <si>
+    <t>857d30e6c29e937b</t>
+  </si>
+  <si>
+    <t>337019056351491</t>
+  </si>
+  <si>
+    <t>335577018599766242</t>
+  </si>
+  <si>
+    <t>ICIC95186016260</t>
+  </si>
+  <si>
+    <t>6104686075</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>AadilInani14264@example.net</t>
+  </si>
+  <si>
+    <t>1976-10-16</t>
+  </si>
+  <si>
+    <t>301022672818994</t>
+  </si>
+  <si>
+    <t>199fb363c0481410</t>
+  </si>
+  <si>
+    <t>357739278645215</t>
+  </si>
+  <si>
+    <t>335577016104686075</t>
+  </si>
+  <si>
+    <t>ICIC91795956156</t>
+  </si>
+  <si>
+    <t>8961164401</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>OwaisSheth24052@example.net</t>
+  </si>
+  <si>
+    <t>1993-02-14</t>
+  </si>
+  <si>
+    <t>012413385915922</t>
+  </si>
+  <si>
+    <t>06f62a421824ea47</t>
+  </si>
+  <si>
+    <t>908527648139678</t>
+  </si>
+  <si>
+    <t>IDEP316728382264WXER</t>
+  </si>
+  <si>
+    <t>4217805.0</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>59999848336</t>
+  </si>
+  <si>
+    <t>NOOKBS</t>
+  </si>
+  <si>
+    <t>BNPL1637289822727456</t>
+  </si>
+  <si>
+    <t>59999630082</t>
+  </si>
+  <si>
+    <t>SPLJQS</t>
+  </si>
+  <si>
+    <t>59999792085</t>
+  </si>
+  <si>
+    <t>QOTMBF</t>
+  </si>
+  <si>
+    <t>59999003643</t>
+  </si>
+  <si>
+    <t>BICPHG</t>
+  </si>
+  <si>
+    <t>59999767553</t>
+  </si>
+  <si>
+    <t>LUOCOC</t>
+  </si>
+  <si>
+    <t>59999112738</t>
+  </si>
+  <si>
+    <t>JRQFFU</t>
+  </si>
+  <si>
+    <t>59999896999</t>
+  </si>
+  <si>
+    <t>TQIMRE</t>
+  </si>
+  <si>
+    <t>59999747696</t>
+  </si>
+  <si>
+    <t>HBALHK</t>
+  </si>
+  <si>
+    <t>59999602240</t>
+  </si>
+  <si>
+    <t>GSQJIQ</t>
+  </si>
+  <si>
+    <t>59999033248</t>
+  </si>
+  <si>
+    <t>IUHOON</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>6687939277</t>
+  </si>
+  <si>
+    <t>Kirti</t>
+  </si>
+  <si>
+    <t>DeepHayer44976@example.net</t>
+  </si>
+  <si>
+    <t>1993-04-25</t>
+  </si>
+  <si>
+    <t>405412106742412</t>
+  </si>
+  <si>
+    <t>ed05d1338f962434</t>
+  </si>
+  <si>
+    <t>407879254508472</t>
+  </si>
+  <si>
+    <t>335577016687939277</t>
+  </si>
+  <si>
+    <t>ICIC97956898544</t>
+  </si>
+  <si>
+    <t>8211006567</t>
+  </si>
+  <si>
+    <t>Chameli</t>
+  </si>
+  <si>
+    <t>PreetNair44134@example.net</t>
+  </si>
+  <si>
+    <t>1984-07-20</t>
+  </si>
+  <si>
+    <t>922386852520103</t>
+  </si>
+  <si>
+    <t>860034244a9c3a14</t>
+  </si>
+  <si>
+    <t>899133322741102</t>
+  </si>
+  <si>
+    <t>335577018211006567</t>
+  </si>
+  <si>
+    <t>ICIC87911855551</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2821,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2374,22 +2941,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>718</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>549</v>
+        <v>738</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>550</v>
+        <v>739</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2726,7 +3293,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>721</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2823,16 +3390,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>566</v>
+        <v>755</v>
       </c>
       <c r="C2" t="s">
-        <v>567</v>
+        <v>756</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>754</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2935,7 +3502,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>559</v>
+        <v>748</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2947,7 +3514,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>560</v>
+        <v>749</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2956,7 +3523,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>153.0</v>
+        <v>160.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3048,13 +3615,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>751</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>563</v>
+        <v>752</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>564</v>
+        <v>753</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3403,13 +3970,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3718,13 +4285,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3818,13 +4385,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="E2" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4133,13 +4700,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>564</v>
+        <v>646</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4258,7 +4825,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>568</v>
+        <v>757</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4270,7 +4837,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>569</v>
+        <v>758</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4279,7 +4846,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>153.0</v>
+        <v>160.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4406,10 +4973,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
       <c r="E2" t="s">
-        <v>563</v>
+        <v>752</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4421,7 +4988,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>565</v>
+        <v>754</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4430,10 +4997,10 @@
         <v>68</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4217291.0</v>
+        <v>4217892.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4459,7 +5026,7 @@
         <v>9892189981</v>
       </c>
       <c r="E3" t="s">
-        <v>563</v>
+        <v>645</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>64</v>
@@ -4471,7 +5038,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>565</v>
+        <v>647</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>67</v>
@@ -4480,10 +5047,10 @@
         <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4217291.0</v>
+        <v>4217892.0</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>69</v>
@@ -4543,7 +5110,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4560,7 +5127,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4577,7 +5144,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4594,7 +5161,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4611,7 +5178,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>561</v>
+        <v>750</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4780,7 +5347,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>565</v>
+        <v>754</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5024,7 +5591,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>565</v>
+        <v>754</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5239,7 +5806,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>562</v>
+        <v>751</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5620,7 +6187,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -5640,7 +6207,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -5660,7 +6227,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -5680,7 +6247,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -5700,7 +6267,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -5720,7 +6287,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -5740,7 +6307,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>713</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -5799,7 +6366,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>718</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -5813,7 +6380,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>529</v>
+        <v>718</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072D767-E59E-4B8D-823C-49F5F7C8E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB4E2F1-3699-4B30-AD6C-86BD97587871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2428" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="422">
   <si>
     <t>TestCases</t>
   </si>
@@ -758,9 +758,6 @@
     <t>segment1_auth_200</t>
   </si>
   <si>
-    <t>segment1_registeruser_200</t>
-  </si>
-  <si>
     <t>upi://pay?pa=rpy.ipmerc@icici&amp;pn=IdeoPay Merchant&amp;cu=INR&amp;tn=Pay To IdeoPay Merchant&amp;tr=ORDER_QR</t>
   </si>
   <si>
@@ -776,18 +773,6 @@
     <t>room_number</t>
   </si>
   <si>
-    <t>335577017025042669</t>
-  </si>
-  <si>
-    <t>ICIC84482941142</t>
-  </si>
-  <si>
-    <t>335577016161535088</t>
-  </si>
-  <si>
-    <t>ICIC93202670782</t>
-  </si>
-  <si>
     <t>sunil Chatla</t>
   </si>
   <si>
@@ -797,1531 +782,535 @@
     <t>ANON161752862581NDJV</t>
   </si>
   <si>
-    <t>Chhaya</t>
-  </si>
-  <si>
-    <t>KoushtubhAcharya55708@example.net</t>
-  </si>
-  <si>
-    <t>1970-10-27</t>
-  </si>
-  <si>
-    <t>6796489035</t>
-  </si>
-  <si>
-    <t>Payal</t>
-  </si>
-  <si>
-    <t>EkbalPant67574@example.net</t>
-  </si>
-  <si>
-    <t>1979-03-05</t>
-  </si>
-  <si>
-    <t>741880661635648</t>
-  </si>
-  <si>
-    <t>66c2361e59fbfed5</t>
-  </si>
-  <si>
-    <t>273747813671126</t>
-  </si>
-  <si>
-    <t>IDEP261784217538YRK3</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>59999524741</t>
-  </si>
-  <si>
-    <t>QQUGEP</t>
-  </si>
-  <si>
-    <t>6410996992</t>
-  </si>
-  <si>
-    <t>Niyati</t>
-  </si>
-  <si>
-    <t>OmarMorar70703@example.net</t>
-  </si>
-  <si>
-    <t>1978-06-28</t>
-  </si>
-  <si>
-    <t>706669600189202</t>
-  </si>
-  <si>
-    <t>671d100ffa28fb49</t>
-  </si>
-  <si>
-    <t>195412881686812</t>
-  </si>
-  <si>
     <t>IDEP617285859149GLNE</t>
   </si>
   <si>
-    <t>4215434</t>
-  </si>
-  <si>
-    <t>6525869402</t>
-  </si>
-  <si>
-    <t>Padama</t>
-  </si>
-  <si>
-    <t>MalikSrinivas95033@example.net</t>
-  </si>
-  <si>
-    <t>1981-01-28</t>
-  </si>
-  <si>
-    <t>041885818856051</t>
-  </si>
-  <si>
-    <t>9d518e30642c853b</t>
-  </si>
-  <si>
-    <t>685168115208800</t>
-  </si>
-  <si>
-    <t>IDEP67211465211586AL</t>
-  </si>
-  <si>
-    <t>4215444.0</t>
-  </si>
-  <si>
-    <t>113</t>
+    <t>Richa</t>
+  </si>
+  <si>
+    <t>AlbertDas93315@example.net</t>
+  </si>
+  <si>
+    <t>1983-07-28</t>
+  </si>
+  <si>
+    <t>IDEP316728382264WXER</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>BNPL1637289822727456</t>
+  </si>
+  <si>
+    <t>59999033248</t>
+  </si>
+  <si>
+    <t>IUHOON</t>
+  </si>
+  <si>
+    <t>335577016687939277</t>
+  </si>
+  <si>
+    <t>ICIC97956898544</t>
+  </si>
+  <si>
+    <t>8211006567</t>
+  </si>
+  <si>
+    <t>Chameli</t>
+  </si>
+  <si>
+    <t>PreetNair44134@example.net</t>
+  </si>
+  <si>
+    <t>1984-07-20</t>
+  </si>
+  <si>
+    <t>922386852520103</t>
+  </si>
+  <si>
+    <t>860034244a9c3a14</t>
+  </si>
+  <si>
+    <t>899133322741102</t>
+  </si>
+  <si>
+    <t>335577018211006567</t>
+  </si>
+  <si>
+    <t>ICIC87911855551</t>
+  </si>
+  <si>
+    <t>8706331523</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>VivekDad62129@example.net</t>
+  </si>
+  <si>
+    <t>1991-12-27</t>
+  </si>
+  <si>
+    <t>564342343124362</t>
+  </si>
+  <si>
+    <t>0ca9eaabd8941999</t>
+  </si>
+  <si>
+    <t>796874560286292</t>
+  </si>
+  <si>
+    <t>IDEP673166648369KITU</t>
+  </si>
+  <si>
+    <t>8891175167</t>
+  </si>
+  <si>
+    <t>Lakshmi</t>
+  </si>
+  <si>
+    <t>AbhishekSubramaniam99286@example.net</t>
+  </si>
+  <si>
+    <t>1988-04-16</t>
+  </si>
+  <si>
+    <t>281932738713068</t>
+  </si>
+  <si>
+    <t>42395a9554a5e50f</t>
+  </si>
+  <si>
+    <t>598843750309743</t>
+  </si>
+  <si>
+    <t>IDEP613767213248IET1</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>59999255402</t>
+  </si>
+  <si>
+    <t>QHBIDU</t>
+  </si>
+  <si>
+    <t>59999827453</t>
+  </si>
+  <si>
+    <t>EKARRT</t>
+  </si>
+  <si>
+    <t>59999870103</t>
+  </si>
+  <si>
+    <t>FECTNR</t>
+  </si>
+  <si>
+    <t>59999071974</t>
+  </si>
+  <si>
+    <t>AKKNLC</t>
+  </si>
+  <si>
+    <t>59999783173</t>
+  </si>
+  <si>
+    <t>NNBLTQ</t>
+  </si>
+  <si>
+    <t>59999479459</t>
+  </si>
+  <si>
+    <t>MSODTE</t>
+  </si>
+  <si>
+    <t>59999328586</t>
+  </si>
+  <si>
+    <t>MQASOS</t>
+  </si>
+  <si>
+    <t>59999080136</t>
+  </si>
+  <si>
+    <t>GROLRU</t>
+  </si>
+  <si>
+    <t>59999737857</t>
+  </si>
+  <si>
+    <t>CDCNAA</t>
+  </si>
+  <si>
+    <t>59999909779</t>
+  </si>
+  <si>
+    <t>QAORCH</t>
+  </si>
+  <si>
+    <t>9741706644</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>NayanGeorge80778@example.net</t>
+  </si>
+  <si>
+    <t>1990-08-11</t>
+  </si>
+  <si>
+    <t>601903785738145</t>
+  </si>
+  <si>
+    <t>23cdf640a685a176</t>
+  </si>
+  <si>
+    <t>079028329940248</t>
+  </si>
+  <si>
+    <t>IDEP761367689843OFIK</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>119</t>
   </si>
   <si>
     <t>142</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>148</t>
+    <t>171</t>
+  </si>
+  <si>
+    <t>184</t>
   </si>
   <si>
     <t>190</t>
   </si>
   <si>
-    <t>59999724270</t>
-  </si>
-  <si>
-    <t>JFRSMC</t>
-  </si>
-  <si>
-    <t>9610924171</t>
-  </si>
-  <si>
-    <t>Laveena</t>
-  </si>
-  <si>
-    <t>BijoyBrar71712@example.net</t>
-  </si>
-  <si>
-    <t>1995-09-18</t>
-  </si>
-  <si>
-    <t>528651140984785</t>
-  </si>
-  <si>
-    <t>93be441de6ccaf18</t>
-  </si>
-  <si>
-    <t>153859432945701</t>
-  </si>
-  <si>
-    <t>IDEP271616273838F5XY</t>
-  </si>
-  <si>
-    <t>4215566.0</t>
-  </si>
-  <si>
-    <t>9151319207</t>
-  </si>
-  <si>
-    <t>Kajol</t>
-  </si>
-  <si>
-    <t>RickyGobin49722@example.net</t>
-  </si>
-  <si>
-    <t>1982-09-20</t>
-  </si>
-  <si>
-    <t>832590294941152</t>
-  </si>
-  <si>
-    <t>91b0ca1a141bb8b7</t>
-  </si>
-  <si>
-    <t>110205076321860</t>
-  </si>
-  <si>
-    <t>IDEP716217835871BAHY</t>
-  </si>
-  <si>
-    <t>4215585.0</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>59999402472</t>
-  </si>
-  <si>
-    <t>IEDISH</t>
-  </si>
-  <si>
-    <t>BNPL6217183837127845</t>
-  </si>
-  <si>
-    <t>59999551789</t>
-  </si>
-  <si>
-    <t>CBCJCR</t>
-  </si>
-  <si>
-    <t>59999835857</t>
-  </si>
-  <si>
-    <t>IJFDTU</t>
-  </si>
-  <si>
-    <t>59999711067</t>
-  </si>
-  <si>
-    <t>SRCNDK</t>
-  </si>
-  <si>
-    <t>59999034264</t>
-  </si>
-  <si>
-    <t>EGMCHG</t>
-  </si>
-  <si>
-    <t>59999062837</t>
-  </si>
-  <si>
-    <t>TTJQJG</t>
-  </si>
-  <si>
-    <t>59999984168</t>
-  </si>
-  <si>
-    <t>UKQEJK</t>
-  </si>
-  <si>
-    <t>59999225329</t>
-  </si>
-  <si>
-    <t>TRMLNJ</t>
-  </si>
-  <si>
-    <t>59999874087</t>
-  </si>
-  <si>
-    <t>CSLFFU</t>
-  </si>
-  <si>
-    <t>59999621522</t>
-  </si>
-  <si>
-    <t>LFKUCR</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>6791914617</t>
-  </si>
-  <si>
-    <t>Mona</t>
-  </si>
-  <si>
-    <t>KrishnaDash81042@example.net</t>
-  </si>
-  <si>
-    <t>1973-11-13</t>
-  </si>
-  <si>
-    <t>902137443252910</t>
-  </si>
-  <si>
-    <t>5ee96bf8a9e15fbd</t>
-  </si>
-  <si>
-    <t>759222165832646</t>
-  </si>
-  <si>
-    <t>335577016791914617</t>
-  </si>
-  <si>
-    <t>ICIC89934575810</t>
-  </si>
-  <si>
-    <t>7821746848</t>
-  </si>
-  <si>
-    <t>Indrani</t>
-  </si>
-  <si>
-    <t>AjinkyaGhosh68994@example.net</t>
-  </si>
-  <si>
-    <t>1988-10-31</t>
-  </si>
-  <si>
-    <t>447444364203167</t>
-  </si>
-  <si>
-    <t>430fa74ed7549c56</t>
-  </si>
-  <si>
-    <t>728171367210705</t>
-  </si>
-  <si>
-    <t>335577017821746848</t>
-  </si>
-  <si>
-    <t>ICIC83744485638</t>
-  </si>
-  <si>
-    <t>9171133660</t>
-  </si>
-  <si>
-    <t>Aditi</t>
-  </si>
-  <si>
-    <t>KabeerPillai52320@example.net</t>
-  </si>
-  <si>
-    <t>1975-01-30</t>
-  </si>
-  <si>
-    <t>796453889728381</t>
-  </si>
-  <si>
-    <t>7bab6dcd3cfe7edf</t>
-  </si>
-  <si>
-    <t>065418941708972</t>
-  </si>
-  <si>
-    <t>IDEP371688814388PVB3</t>
-  </si>
-  <si>
-    <t>4215622.0</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>116</t>
+    <t>59999115611</t>
+  </si>
+  <si>
+    <t>SPBCRU</t>
+  </si>
+  <si>
+    <t>59999331851</t>
+  </si>
+  <si>
+    <t>ORTQFJ</t>
+  </si>
+  <si>
+    <t>59999915161</t>
+  </si>
+  <si>
+    <t>GQMUSR</t>
+  </si>
+  <si>
+    <t>59999769363</t>
+  </si>
+  <si>
+    <t>GDJFMM</t>
+  </si>
+  <si>
+    <t>59999593941</t>
+  </si>
+  <si>
+    <t>TIEHBS</t>
+  </si>
+  <si>
+    <t>59999493294</t>
+  </si>
+  <si>
+    <t>SBTBGM</t>
+  </si>
+  <si>
+    <t>59999182506</t>
+  </si>
+  <si>
+    <t>QTAPBG</t>
+  </si>
+  <si>
+    <t>59999992488</t>
+  </si>
+  <si>
+    <t>DLCPHU</t>
+  </si>
+  <si>
+    <t>59999838402</t>
+  </si>
+  <si>
+    <t>HJILRT</t>
+  </si>
+  <si>
+    <t>59999312012</t>
+  </si>
+  <si>
+    <t>JNCIAM</t>
+  </si>
+  <si>
+    <t>9687831448</t>
+  </si>
+  <si>
+    <t>Bagwati</t>
+  </si>
+  <si>
+    <t>TanayBoase20381@example.net</t>
+  </si>
+  <si>
+    <t>1976-08-18</t>
+  </si>
+  <si>
+    <t>748161298737427</t>
+  </si>
+  <si>
+    <t>1222679e90afc857</t>
+  </si>
+  <si>
+    <t>934213246377923</t>
+  </si>
+  <si>
+    <t>IDEP631768882665I5QZ</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>59999032464</t>
+  </si>
+  <si>
+    <t>JFBARC</t>
+  </si>
+  <si>
+    <t>BNPL6137681858431879</t>
+  </si>
+  <si>
+    <t>59999947579</t>
+  </si>
+  <si>
+    <t>KQSTMU</t>
+  </si>
+  <si>
+    <t>59999397411</t>
+  </si>
+  <si>
+    <t>FKFOIL</t>
+  </si>
+  <si>
+    <t>59999549614</t>
+  </si>
+  <si>
+    <t>KFAFED</t>
+  </si>
+  <si>
+    <t>59999022853</t>
+  </si>
+  <si>
+    <t>IOCSSP</t>
+  </si>
+  <si>
+    <t>59999823369</t>
+  </si>
+  <si>
+    <t>ENNBUA</t>
+  </si>
+  <si>
+    <t>59999847926</t>
+  </si>
+  <si>
+    <t>SCKBDJ</t>
+  </si>
+  <si>
+    <t>59999592592</t>
+  </si>
+  <si>
+    <t>CGKBGK</t>
+  </si>
+  <si>
+    <t>59999402237</t>
+  </si>
+  <si>
+    <t>JJDDDE</t>
+  </si>
+  <si>
+    <t>59999110437</t>
+  </si>
+  <si>
+    <t>BLUPCA</t>
+  </si>
+  <si>
+    <t>335577019687831448</t>
+  </si>
+  <si>
+    <t>ICIC80504889366</t>
+  </si>
+  <si>
+    <t>ICIC84592123904</t>
+  </si>
+  <si>
+    <t>6387593516</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>RupeshKrish69621@example.net</t>
+  </si>
+  <si>
+    <t>1990-02-08</t>
+  </si>
+  <si>
+    <t>673813164904858</t>
+  </si>
+  <si>
+    <t>1bc4a33ddc5ebb13</t>
+  </si>
+  <si>
+    <t>310433320142688</t>
+  </si>
+  <si>
+    <t>IDEP7613683188754V21</t>
+  </si>
+  <si>
+    <t>165</t>
   </si>
   <si>
     <t>192</t>
   </si>
   <si>
-    <t>59999794493</t>
-  </si>
-  <si>
-    <t>MJCCBG</t>
-  </si>
-  <si>
-    <t>BNPL6371885671476187</t>
-  </si>
-  <si>
-    <t>59999440384</t>
-  </si>
-  <si>
-    <t>KJPCUN</t>
-  </si>
-  <si>
-    <t>59999868850</t>
-  </si>
-  <si>
-    <t>GHFDPU</t>
-  </si>
-  <si>
-    <t>59999583580</t>
-  </si>
-  <si>
-    <t>LDENEA</t>
-  </si>
-  <si>
-    <t>59999647772</t>
-  </si>
-  <si>
-    <t>HHLKBP</t>
-  </si>
-  <si>
-    <t>59999034918</t>
-  </si>
-  <si>
-    <t>UUKDLR</t>
-  </si>
-  <si>
-    <t>59999228128</t>
-  </si>
-  <si>
-    <t>MEOHOE</t>
-  </si>
-  <si>
-    <t>59999660175</t>
-  </si>
-  <si>
-    <t>GFOFIO</t>
-  </si>
-  <si>
-    <t>59999055126</t>
-  </si>
-  <si>
-    <t>ILRPMG</t>
-  </si>
-  <si>
-    <t>59999351164</t>
-  </si>
-  <si>
-    <t>CQLQGR</t>
-  </si>
-  <si>
-    <t>108.0</t>
-  </si>
-  <si>
-    <t>9028712641</t>
-  </si>
-  <si>
-    <t>Geetanjali</t>
-  </si>
-  <si>
-    <t>MotiDeol92518@example.net</t>
-  </si>
-  <si>
-    <t>1976-01-30</t>
-  </si>
-  <si>
-    <t>497360557444831</t>
-  </si>
-  <si>
-    <t>3df9eb91fd63e377</t>
-  </si>
-  <si>
-    <t>272265681940151</t>
-  </si>
-  <si>
-    <t>335577019028712641</t>
-  </si>
-  <si>
-    <t>ICIC93339201996</t>
-  </si>
-  <si>
-    <t>9557636710</t>
-  </si>
-  <si>
-    <t>Ruchi</t>
-  </si>
-  <si>
-    <t>WafaSoni89942@example.net</t>
-  </si>
-  <si>
-    <t>1993-12-09</t>
-  </si>
-  <si>
-    <t>013258418932017</t>
-  </si>
-  <si>
-    <t>2bd182717d3d1bdb</t>
-  </si>
-  <si>
-    <t>691202385078148</t>
-  </si>
-  <si>
-    <t>335577019557636710</t>
-  </si>
-  <si>
-    <t>ICIC92860672026</t>
-  </si>
-  <si>
-    <t>6646220742</t>
-  </si>
-  <si>
-    <t>AatifChokshi83348@example.net</t>
-  </si>
-  <si>
-    <t>1994-07-20</t>
-  </si>
-  <si>
-    <t>635127838889263</t>
-  </si>
-  <si>
-    <t>7b5b0fb2d9082144</t>
-  </si>
-  <si>
-    <t>191950634970672</t>
-  </si>
-  <si>
-    <t>IDEP317684834591WUMX</t>
-  </si>
-  <si>
-    <t>4215959.0</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>59999985795</t>
-  </si>
-  <si>
-    <t>PDEOTG</t>
-  </si>
-  <si>
-    <t>BNPL7613845993999673</t>
-  </si>
-  <si>
-    <t>59999005390</t>
-  </si>
-  <si>
-    <t>QESNIL</t>
-  </si>
-  <si>
-    <t>59999422831</t>
-  </si>
-  <si>
-    <t>NMSJDN</t>
-  </si>
-  <si>
-    <t>59999180700</t>
-  </si>
-  <si>
-    <t>CAMAUU</t>
-  </si>
-  <si>
-    <t>59999988172</t>
-  </si>
-  <si>
-    <t>NOOEDT</t>
-  </si>
-  <si>
-    <t>59999942151</t>
-  </si>
-  <si>
-    <t>ENBSOA</t>
-  </si>
-  <si>
-    <t>59999554453</t>
-  </si>
-  <si>
-    <t>ESSBTD</t>
-  </si>
-  <si>
-    <t>59999744217</t>
-  </si>
-  <si>
-    <t>UJNAFB</t>
-  </si>
-  <si>
-    <t>59999892964</t>
-  </si>
-  <si>
-    <t>AKDSLT</t>
-  </si>
-  <si>
-    <t>59999479419</t>
-  </si>
-  <si>
-    <t>DOAKGE</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>7861993651</t>
-  </si>
-  <si>
-    <t>Leela</t>
-  </si>
-  <si>
-    <t>HanumanKhare62312@example.net</t>
-  </si>
-  <si>
-    <t>1976-08-12</t>
-  </si>
-  <si>
-    <t>317809778057432</t>
-  </si>
-  <si>
-    <t>ce9e68060ed221ab</t>
-  </si>
-  <si>
-    <t>270650511095775</t>
-  </si>
-  <si>
-    <t>335577017861993651</t>
-  </si>
-  <si>
-    <t>ICIC86260789245</t>
-  </si>
-  <si>
-    <t>7667034059</t>
-  </si>
-  <si>
-    <t>Kunti</t>
-  </si>
-  <si>
-    <t>CharandeepApte75098@example.net</t>
-  </si>
-  <si>
-    <t>1982-12-10</t>
-  </si>
-  <si>
-    <t>066788335716453</t>
-  </si>
-  <si>
-    <t>7fe0bea1d031ae57</t>
-  </si>
-  <si>
-    <t>079145500476808</t>
-  </si>
-  <si>
-    <t>335577017667034059</t>
-  </si>
-  <si>
-    <t>ICIC83078311986</t>
-  </si>
-  <si>
-    <t>8412938420</t>
-  </si>
-  <si>
-    <t>Prabha</t>
-  </si>
-  <si>
-    <t>HetanBanik23344@example.net</t>
-  </si>
-  <si>
-    <t>1971-08-27</t>
-  </si>
-  <si>
-    <t>976322918679133</t>
-  </si>
-  <si>
-    <t>aeb2716f67aea0c6</t>
-  </si>
-  <si>
-    <t>053512432796795</t>
-  </si>
-  <si>
-    <t>IDEP136751849599VPBW</t>
-  </si>
-  <si>
-    <t>4215994.0</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>59999576699</t>
-  </si>
-  <si>
-    <t>FHGBFE</t>
-  </si>
-  <si>
-    <t>BNPL7163525855246379</t>
-  </si>
-  <si>
-    <t>59999376624</t>
-  </si>
-  <si>
-    <t>HBGNBB</t>
-  </si>
-  <si>
-    <t>59999254434</t>
-  </si>
-  <si>
-    <t>DJDNEQ</t>
-  </si>
-  <si>
-    <t>59999660684</t>
-  </si>
-  <si>
-    <t>TFTLEH</t>
-  </si>
-  <si>
-    <t>59999199309</t>
-  </si>
-  <si>
-    <t>MJPDHS</t>
-  </si>
-  <si>
-    <t>59999876872</t>
-  </si>
-  <si>
-    <t>IOHKMS</t>
-  </si>
-  <si>
-    <t>59999511738</t>
-  </si>
-  <si>
-    <t>EJFUAE</t>
-  </si>
-  <si>
-    <t>59999327562</t>
-  </si>
-  <si>
-    <t>SARPGU</t>
-  </si>
-  <si>
-    <t>59999748031</t>
-  </si>
-  <si>
-    <t>ODIONM</t>
-  </si>
-  <si>
-    <t>59999711699</t>
-  </si>
-  <si>
-    <t>FFNHDA</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>7497086981</t>
-  </si>
-  <si>
-    <t>Richa</t>
-  </si>
-  <si>
-    <t>KirtiVig81523@example.net</t>
-  </si>
-  <si>
-    <t>1973-10-11</t>
-  </si>
-  <si>
-    <t>809568228406053</t>
-  </si>
-  <si>
-    <t>d4b638a2adf7e583</t>
-  </si>
-  <si>
-    <t>608723508931329</t>
-  </si>
-  <si>
-    <t>335577017497086981</t>
-  </si>
-  <si>
-    <t>ICIC82540763052</t>
-  </si>
-  <si>
-    <t>7247520142</t>
-  </si>
-  <si>
-    <t>Nutan</t>
-  </si>
-  <si>
-    <t>AzharSane99745@example.net</t>
-  </si>
-  <si>
-    <t>1992-06-12</t>
-  </si>
-  <si>
-    <t>736371804007132</t>
-  </si>
-  <si>
-    <t>e114979d353629cf</t>
-  </si>
-  <si>
-    <t>670276100740104</t>
-  </si>
-  <si>
-    <t>335577017247520142</t>
-  </si>
-  <si>
-    <t>ICIC98918467802</t>
-  </si>
-  <si>
-    <t>6821602447</t>
-  </si>
-  <si>
-    <t>Nagma</t>
-  </si>
-  <si>
-    <t>RupalBava95744@example.net</t>
-  </si>
-  <si>
-    <t>1980-10-11</t>
-  </si>
-  <si>
-    <t>982202667886117</t>
-  </si>
-  <si>
-    <t>fdc1165bdf0d2ab6</t>
-  </si>
-  <si>
-    <t>499175989704067</t>
-  </si>
-  <si>
-    <t>IDEP317626799865RBS7</t>
-  </si>
-  <si>
-    <t>4216841.0</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>59999128837</t>
-  </si>
-  <si>
-    <t>JSTEKF</t>
-  </si>
-  <si>
-    <t>BNPL6173274864156479</t>
-  </si>
-  <si>
-    <t>59999888668</t>
-  </si>
-  <si>
-    <t>DMKFEH</t>
-  </si>
-  <si>
-    <t>59999760131</t>
-  </si>
-  <si>
-    <t>SMHPFU</t>
-  </si>
-  <si>
-    <t>59999216740</t>
-  </si>
-  <si>
-    <t>NDCPUL</t>
-  </si>
-  <si>
-    <t>59999593074</t>
-  </si>
-  <si>
-    <t>CDIFDB</t>
-  </si>
-  <si>
-    <t>59999174824</t>
-  </si>
-  <si>
-    <t>MQLPAB</t>
-  </si>
-  <si>
-    <t>59999866465</t>
-  </si>
-  <si>
-    <t>UBPRHF</t>
-  </si>
-  <si>
-    <t>59999332277</t>
-  </si>
-  <si>
-    <t>TEHQNP</t>
-  </si>
-  <si>
-    <t>59999347526</t>
-  </si>
-  <si>
-    <t>TSRDIJ</t>
-  </si>
-  <si>
-    <t>59999734345</t>
-  </si>
-  <si>
-    <t>KHOHTU</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>9135961981</t>
-  </si>
-  <si>
-    <t>Nalini</t>
-  </si>
-  <si>
-    <t>DineshRaval92625@example.net</t>
-  </si>
-  <si>
-    <t>1972-09-18</t>
-  </si>
-  <si>
-    <t>638648826643146</t>
-  </si>
-  <si>
-    <t>eb7e0cc8ac25ce18</t>
-  </si>
-  <si>
-    <t>277341990135232</t>
-  </si>
-  <si>
-    <t>335577019135961981</t>
-  </si>
-  <si>
-    <t>ICIC99829458885</t>
-  </si>
-  <si>
-    <t>6462091251</t>
-  </si>
-  <si>
-    <t>Swati</t>
-  </si>
-  <si>
-    <t>SatishwarBhalla50247@example.net</t>
-  </si>
-  <si>
-    <t>1995-06-18</t>
-  </si>
-  <si>
-    <t>641169055425076</t>
-  </si>
-  <si>
-    <t>5b970f28907e5663</t>
-  </si>
-  <si>
-    <t>516445498573025</t>
-  </si>
-  <si>
-    <t>335577016462091251</t>
-  </si>
-  <si>
-    <t>ICIC96339087004</t>
-  </si>
-  <si>
-    <t>7283634559</t>
-  </si>
-  <si>
-    <t>Nikita</t>
-  </si>
-  <si>
-    <t>HetanBala12876@example.net</t>
-  </si>
-  <si>
-    <t>1982-03-13</t>
-  </si>
-  <si>
-    <t>887631217238633</t>
-  </si>
-  <si>
-    <t>8a44c4f1479b6dc6</t>
-  </si>
-  <si>
-    <t>224254462209001</t>
-  </si>
-  <si>
-    <t>IDEP716335988525IX4A</t>
-  </si>
-  <si>
-    <t>4217291.0</t>
-  </si>
-  <si>
-    <t>8382796980</t>
-  </si>
-  <si>
-    <t>Nupoor</t>
-  </si>
-  <si>
-    <t>FakaruddinChacko45586@example.net</t>
-  </si>
-  <si>
-    <t>1991-08-11</t>
-  </si>
-  <si>
-    <t>918750795379263</t>
-  </si>
-  <si>
-    <t>a8e3d5f58a2abbfa</t>
-  </si>
-  <si>
-    <t>083133804974664</t>
-  </si>
-  <si>
-    <t>IDEP673136969522R9P6</t>
-  </si>
-  <si>
-    <t>4217468.0</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>59999568340</t>
-  </si>
-  <si>
-    <t>LNTNCM</t>
-  </si>
-  <si>
-    <t>59999434650</t>
-  </si>
-  <si>
-    <t>LHDFUD</t>
-  </si>
-  <si>
-    <t>59999688953</t>
-  </si>
-  <si>
-    <t>CJSRKC</t>
-  </si>
-  <si>
-    <t>59999240308</t>
-  </si>
-  <si>
-    <t>UHSBBS</t>
-  </si>
-  <si>
-    <t>59999931953</t>
-  </si>
-  <si>
-    <t>QSSKGB</t>
-  </si>
-  <si>
-    <t>59999752587</t>
-  </si>
-  <si>
-    <t>MRHFQG</t>
-  </si>
-  <si>
-    <t>59999073681</t>
-  </si>
-  <si>
-    <t>AMALRM</t>
-  </si>
-  <si>
-    <t>59999283302</t>
-  </si>
-  <si>
-    <t>QCUSEP</t>
-  </si>
-  <si>
-    <t>59999201437</t>
-  </si>
-  <si>
-    <t>QEQRUP</t>
-  </si>
-  <si>
-    <t>59999999677</t>
-  </si>
-  <si>
-    <t>AAERHC</t>
-  </si>
-  <si>
-    <t>9435968910</t>
-  </si>
-  <si>
-    <t>Radhika</t>
-  </si>
-  <si>
-    <t>AadishDugal58970@example.net</t>
-  </si>
-  <si>
-    <t>1995-01-20</t>
-  </si>
-  <si>
-    <t>482356631457267</t>
-  </si>
-  <si>
-    <t>74bc240fcf0b05fe</t>
-  </si>
-  <si>
-    <t>504761435315153</t>
-  </si>
-  <si>
-    <t>IDEP7163811888242XMB</t>
-  </si>
-  <si>
-    <t>4217479.0</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>59999322072</t>
-  </si>
-  <si>
-    <t>GRTUNQ</t>
-  </si>
-  <si>
-    <t>59999927645</t>
-  </si>
-  <si>
-    <t>TDRAGI</t>
-  </si>
-  <si>
-    <t>59999485376</t>
-  </si>
-  <si>
-    <t>BSJEJT</t>
-  </si>
-  <si>
-    <t>59999067992</t>
-  </si>
-  <si>
-    <t>BQHRND</t>
-  </si>
-  <si>
-    <t>59999976092</t>
-  </si>
-  <si>
-    <t>TMQNNM</t>
-  </si>
-  <si>
-    <t>59999536418</t>
-  </si>
-  <si>
-    <t>LBTFQQ</t>
-  </si>
-  <si>
-    <t>59999082585</t>
-  </si>
-  <si>
-    <t>ESDHAB</t>
-  </si>
-  <si>
-    <t>59999321723</t>
-  </si>
-  <si>
-    <t>IJNNFF</t>
-  </si>
-  <si>
-    <t>59999583077</t>
-  </si>
-  <si>
-    <t>BSPFHR</t>
-  </si>
-  <si>
-    <t>59999779579</t>
-  </si>
-  <si>
-    <t>QMQODO</t>
-  </si>
-  <si>
-    <t>8893626809</t>
-  </si>
-  <si>
-    <t>AlbertDas93315@example.net</t>
-  </si>
-  <si>
-    <t>1983-07-28</t>
-  </si>
-  <si>
-    <t>143653691079614</t>
-  </si>
-  <si>
-    <t>952461fc58d95fd7</t>
-  </si>
-  <si>
-    <t>863654550349732</t>
-  </si>
-  <si>
-    <t>IDEP716319395917TEBH</t>
-  </si>
-  <si>
-    <t>4217577.0</t>
-  </si>
-  <si>
-    <t>8731023555</t>
-  </si>
-  <si>
-    <t>Hema</t>
-  </si>
-  <si>
-    <t>ViratShah40022@example.net</t>
-  </si>
-  <si>
-    <t>1991-01-08</t>
-  </si>
-  <si>
-    <t>013249114538869</t>
-  </si>
-  <si>
-    <t>ca69957715eb1b1d</t>
-  </si>
-  <si>
-    <t>515999946289338</t>
-  </si>
-  <si>
-    <t>IDEP371619583378KMRL</t>
-  </si>
-  <si>
-    <t>4217802.0</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>59999395805</t>
-  </si>
-  <si>
-    <t>HENBPQ</t>
-  </si>
-  <si>
-    <t>BNPL6317281821675839</t>
-  </si>
-  <si>
-    <t>59999160960</t>
-  </si>
-  <si>
-    <t>UJGCRT</t>
-  </si>
-  <si>
-    <t>59999353921</t>
-  </si>
-  <si>
-    <t>SCKRFR</t>
-  </si>
-  <si>
-    <t>59999590555</t>
-  </si>
-  <si>
-    <t>FDPKMI</t>
-  </si>
-  <si>
-    <t>59999417823</t>
-  </si>
-  <si>
-    <t>BIRMNN</t>
-  </si>
-  <si>
-    <t>59999828732</t>
-  </si>
-  <si>
-    <t>UGTLBB</t>
-  </si>
-  <si>
-    <t>59999423088</t>
-  </si>
-  <si>
-    <t>SDOMCP</t>
-  </si>
-  <si>
-    <t>59999746919</t>
-  </si>
-  <si>
-    <t>HEPLBI</t>
-  </si>
-  <si>
-    <t>59999611380</t>
-  </si>
-  <si>
-    <t>ATHLSH</t>
-  </si>
-  <si>
-    <t>59999796206</t>
-  </si>
-  <si>
-    <t>NNMSOH</t>
-  </si>
-  <si>
-    <t>153.0</t>
-  </si>
-  <si>
-    <t>8599766242</t>
-  </si>
-  <si>
-    <t>Nishtha</t>
-  </si>
-  <si>
-    <t>RameshPandit69544@example.net</t>
-  </si>
-  <si>
-    <t>1986-08-23</t>
-  </si>
-  <si>
-    <t>973732860637587</t>
-  </si>
-  <si>
-    <t>857d30e6c29e937b</t>
-  </si>
-  <si>
-    <t>337019056351491</t>
-  </si>
-  <si>
-    <t>335577018599766242</t>
-  </si>
-  <si>
-    <t>ICIC95186016260</t>
-  </si>
-  <si>
-    <t>6104686075</t>
-  </si>
-  <si>
-    <t>Leelawati</t>
-  </si>
-  <si>
-    <t>AadilInani14264@example.net</t>
-  </si>
-  <si>
-    <t>1976-10-16</t>
-  </si>
-  <si>
-    <t>301022672818994</t>
-  </si>
-  <si>
-    <t>199fb363c0481410</t>
-  </si>
-  <si>
-    <t>357739278645215</t>
-  </si>
-  <si>
-    <t>335577016104686075</t>
-  </si>
-  <si>
-    <t>ICIC91795956156</t>
-  </si>
-  <si>
-    <t>8961164401</t>
-  </si>
-  <si>
-    <t>Neha</t>
-  </si>
-  <si>
-    <t>OwaisSheth24052@example.net</t>
-  </si>
-  <si>
-    <t>1993-02-14</t>
-  </si>
-  <si>
-    <t>012413385915922</t>
-  </si>
-  <si>
-    <t>06f62a421824ea47</t>
-  </si>
-  <si>
-    <t>908527648139678</t>
-  </si>
-  <si>
-    <t>IDEP316728382264WXER</t>
-  </si>
-  <si>
-    <t>4217805.0</t>
+    <t>145</t>
+  </si>
+  <si>
+    <t>144</t>
   </si>
   <si>
     <t>159</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>59999848336</t>
-  </si>
-  <si>
-    <t>NOOKBS</t>
-  </si>
-  <si>
-    <t>BNPL1637289822727456</t>
-  </si>
-  <si>
-    <t>59999630082</t>
-  </si>
-  <si>
-    <t>SPLJQS</t>
-  </si>
-  <si>
-    <t>59999792085</t>
-  </si>
-  <si>
-    <t>QOTMBF</t>
-  </si>
-  <si>
-    <t>59999003643</t>
-  </si>
-  <si>
-    <t>BICPHG</t>
-  </si>
-  <si>
-    <t>59999767553</t>
-  </si>
-  <si>
-    <t>LUOCOC</t>
-  </si>
-  <si>
-    <t>59999112738</t>
-  </si>
-  <si>
-    <t>JRQFFU</t>
-  </si>
-  <si>
-    <t>59999896999</t>
-  </si>
-  <si>
-    <t>TQIMRE</t>
-  </si>
-  <si>
-    <t>59999747696</t>
-  </si>
-  <si>
-    <t>HBALHK</t>
-  </si>
-  <si>
-    <t>59999602240</t>
-  </si>
-  <si>
-    <t>GSQJIQ</t>
-  </si>
-  <si>
-    <t>59999033248</t>
-  </si>
-  <si>
-    <t>IUHOON</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>6687939277</t>
-  </si>
-  <si>
-    <t>Kirti</t>
-  </si>
-  <si>
-    <t>DeepHayer44976@example.net</t>
-  </si>
-  <si>
-    <t>1993-04-25</t>
-  </si>
-  <si>
-    <t>405412106742412</t>
-  </si>
-  <si>
-    <t>ed05d1338f962434</t>
-  </si>
-  <si>
-    <t>407879254508472</t>
-  </si>
-  <si>
-    <t>335577016687939277</t>
-  </si>
-  <si>
-    <t>ICIC97956898544</t>
-  </si>
-  <si>
-    <t>8211006567</t>
-  </si>
-  <si>
-    <t>Chameli</t>
-  </si>
-  <si>
-    <t>PreetNair44134@example.net</t>
-  </si>
-  <si>
-    <t>1984-07-20</t>
-  </si>
-  <si>
-    <t>922386852520103</t>
-  </si>
-  <si>
-    <t>860034244a9c3a14</t>
-  </si>
-  <si>
-    <t>899133322741102</t>
-  </si>
-  <si>
-    <t>335577018211006567</t>
-  </si>
-  <si>
-    <t>ICIC87911855551</t>
+    <t>59999919637</t>
+  </si>
+  <si>
+    <t>PSKGBF</t>
+  </si>
+  <si>
+    <t>BNPL1736684888434382</t>
+  </si>
+  <si>
+    <t>59999084102</t>
+  </si>
+  <si>
+    <t>DPAQJD</t>
+  </si>
+  <si>
+    <t>59999266884</t>
+  </si>
+  <si>
+    <t>ESBERI</t>
+  </si>
+  <si>
+    <t>59999826913</t>
+  </si>
+  <si>
+    <t>LMSPKG</t>
+  </si>
+  <si>
+    <t>59999805301</t>
+  </si>
+  <si>
+    <t>QSSMUB</t>
+  </si>
+  <si>
+    <t>59999423695</t>
+  </si>
+  <si>
+    <t>GUMIPG</t>
+  </si>
+  <si>
+    <t>59999407594</t>
+  </si>
+  <si>
+    <t>JEETMT</t>
+  </si>
+  <si>
+    <t>59999591896</t>
+  </si>
+  <si>
+    <t>JULHHG</t>
+  </si>
+  <si>
+    <t>59999495564</t>
+  </si>
+  <si>
+    <t>BQDKIQ</t>
+  </si>
+  <si>
+    <t>59999273116</t>
+  </si>
+  <si>
+    <t>BPABSR</t>
+  </si>
+  <si>
+    <t>335577016387593516</t>
+  </si>
+  <si>
+    <t>ICIC80022791430</t>
+  </si>
+  <si>
+    <t>ICIC86545213049</t>
+  </si>
+  <si>
+    <t>9948501246</t>
+  </si>
+  <si>
+    <t>Zeenat</t>
+  </si>
+  <si>
+    <t>DeepRandhawa17167@example.net</t>
+  </si>
+  <si>
+    <t>1992-09-21</t>
+  </si>
+  <si>
+    <t>122556271870580</t>
+  </si>
+  <si>
+    <t>c17d0c521cbf876b</t>
+  </si>
+  <si>
+    <t>073431356874114</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +1810,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>750</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2940,23 +1929,21 @@
       <c r="A2" t="s">
         <v>129</v>
       </c>
-      <c r="B2" t="s">
-        <v>713</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
-        <v>718</v>
+        <v>317</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>738</v>
+        <v>410</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G2" t="s">
-        <v>739</v>
+        <v>411</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3293,7 +2280,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>721</v>
+        <v>393</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3390,16 +2377,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>755</v>
+        <v>420</v>
       </c>
       <c r="C2" t="s">
-        <v>756</v>
+        <v>421</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>754</v>
+        <v>419</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3502,7 +2489,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>748</v>
+        <v>412</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3514,7 +2501,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>749</v>
+        <v>413</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3523,7 +2510,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>160.0</v>
+        <v>119.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3615,13 +2602,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>751</v>
+        <v>416</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>752</v>
+        <v>417</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>753</v>
+        <v>418</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3970,13 +2957,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>246</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>645</v>
+        <v>247</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>646</v>
+        <v>248</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4285,13 +3272,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>246</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>645</v>
+        <v>247</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>646</v>
+        <v>248</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4321,7 +3308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -4385,13 +3372,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>645</v>
+        <v>247</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>646</v>
+        <v>248</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -4400,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>219</v>
@@ -4700,13 +3687,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>246</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>645</v>
+        <v>247</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>646</v>
+        <v>248</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -4715,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>219</v>
@@ -4825,7 +3812,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>757</v>
+        <v>412</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -4837,7 +3824,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>758</v>
+        <v>414</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -4846,7 +3833,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>160.0</v>
+        <v>119.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -4891,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4973,10 +3960,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>750</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>752</v>
+        <v>417</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -4988,7 +3975,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>754</v>
+        <v>419</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4996,11 +3983,9 @@
       <c r="K2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>4217892.0</v>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>4218384.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5013,54 +3998,18 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D3">
-        <v>9892189981</v>
-      </c>
-      <c r="E3" t="s">
-        <v>645</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>4217892.0</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" s="14">
-        <v>49</v>
-      </c>
-      <c r="P3" s="14">
-        <v>1210</v>
-      </c>
+      <c r="B3" s="13"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5110,7 +4059,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>750</v>
+        <v>415</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5127,7 +4076,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>750</v>
+        <v>415</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5144,7 +4093,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>750</v>
+        <v>415</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5161,7 +4110,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>750</v>
+        <v>415</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5178,7 +4127,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>750</v>
+        <v>415</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5343,11 +4292,11 @@
       <c r="C2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>754</v>
+        <v>419</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5587,11 +4536,11 @@
       <c r="E2" s="18">
         <v>72.835400000000007</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" t="s">
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>754</v>
+        <v>419</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5806,7 +4755,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>751</v>
+        <v>416</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -5860,7 +4809,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>105</v>
@@ -5889,7 +4838,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -5921,7 +4870,7 @@
         <v>202</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>110</v>
@@ -5953,7 +4902,7 @@
         <v>203</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>110</v>
@@ -5985,7 +4934,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>110</v>
@@ -6017,7 +4966,7 @@
         <v>205</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>110</v>
@@ -6049,7 +4998,7 @@
         <v>206</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>110</v>
@@ -6081,7 +5030,7 @@
         <v>207</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>110</v>
@@ -6113,7 +5062,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>110</v>
@@ -6186,9 +5135,7 @@
       <c r="A2" t="s">
         <v>214</v>
       </c>
-      <c r="B2" t="s">
-        <v>713</v>
-      </c>
+      <c r="B2"/>
       <c r="C2">
         <v>303</v>
       </c>
@@ -6196,7 +5143,7 @@
         <v>215</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
         <v>213</v>
@@ -6206,9 +5153,7 @@
       <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
-        <v>713</v>
-      </c>
+      <c r="B3"/>
       <c r="C3">
         <v>563</v>
       </c>
@@ -6216,7 +5161,7 @@
         <v>215</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
         <v>213</v>
@@ -6226,9 +5171,7 @@
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4" t="s">
-        <v>713</v>
-      </c>
+      <c r="B4"/>
       <c r="C4">
         <v>645</v>
       </c>
@@ -6236,7 +5179,7 @@
         <v>215</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
@@ -6246,9 +5189,7 @@
       <c r="A5" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
-        <v>713</v>
-      </c>
+      <c r="B5"/>
       <c r="C5">
         <v>668</v>
       </c>
@@ -6256,7 +5197,7 @@
         <v>215</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
         <v>213</v>
@@ -6266,9 +5207,7 @@
       <c r="A6" t="s">
         <v>225</v>
       </c>
-      <c r="B6" t="s">
-        <v>713</v>
-      </c>
+      <c r="B6"/>
       <c r="C6">
         <v>725</v>
       </c>
@@ -6276,7 +5215,7 @@
         <v>215</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
         <v>213</v>
@@ -6286,9 +5225,7 @@
       <c r="A7" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s">
-        <v>713</v>
-      </c>
+      <c r="B7"/>
       <c r="C7">
         <v>800</v>
       </c>
@@ -6296,7 +5233,7 @@
         <v>215</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F7" t="s">
         <v>213</v>
@@ -6306,9 +5243,7 @@
       <c r="A8" t="s">
         <v>230</v>
       </c>
-      <c r="B8" t="s">
-        <v>713</v>
-      </c>
+      <c r="B8"/>
       <c r="C8">
         <v>725</v>
       </c>
@@ -6366,10 +5301,10 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>718</v>
+        <v>317</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -6380,10 +5315,10 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>718</v>
+        <v>317</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -6397,7 +5332,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -6425,7 +5360,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -6439,7 +5374,7 @@
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="429">
   <si>
     <t>TestCases</t>
   </si>
@@ -1311,6 +1311,27 @@
   </si>
   <si>
     <t>073431356874114</t>
+  </si>
+  <si>
+    <t>6549899850</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>YaduChopra35383@example.net</t>
+  </si>
+  <si>
+    <t>1991-06-10</t>
+  </si>
+  <si>
+    <t>710606788676133</t>
+  </si>
+  <si>
+    <t>74bde91453ded42a</t>
+  </si>
+  <si>
+    <t>602742079555552</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1831,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -2377,16 +2398,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2602,13 +2623,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3960,10 +3981,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E2" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3975,7 +3996,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4059,7 +4080,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4076,7 +4097,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4093,7 +4114,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4110,7 +4131,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4127,7 +4148,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4296,7 +4317,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4540,7 +4561,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4755,7 +4776,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RingPay\RingPay_APIAutomation\modified_updated\src\main\java\com\Datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB4E2F1-3699-4B30-AD6C-86BD97587871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0072D767-E59E-4B8D-823C-49F5F7C8E291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SendOtp" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="773">
   <si>
     <t>TestCases</t>
   </si>
@@ -758,6 +758,9 @@
     <t>segment1_auth_200</t>
   </si>
   <si>
+    <t>segment1_registeruser_200</t>
+  </si>
+  <si>
     <t>upi://pay?pa=rpy.ipmerc@icici&amp;pn=IdeoPay Merchant&amp;cu=INR&amp;tn=Pay To IdeoPay Merchant&amp;tr=ORDER_QR</t>
   </si>
   <si>
@@ -773,6 +776,18 @@
     <t>room_number</t>
   </si>
   <si>
+    <t>335577017025042669</t>
+  </si>
+  <si>
+    <t>ICIC84482941142</t>
+  </si>
+  <si>
+    <t>335577016161535088</t>
+  </si>
+  <si>
+    <t>ICIC93202670782</t>
+  </si>
+  <si>
     <t>sunil Chatla</t>
   </si>
   <si>
@@ -782,33 +797,1500 @@
     <t>ANON161752862581NDJV</t>
   </si>
   <si>
+    <t>Chhaya</t>
+  </si>
+  <si>
+    <t>KoushtubhAcharya55708@example.net</t>
+  </si>
+  <si>
+    <t>1970-10-27</t>
+  </si>
+  <si>
+    <t>6796489035</t>
+  </si>
+  <si>
+    <t>Payal</t>
+  </si>
+  <si>
+    <t>EkbalPant67574@example.net</t>
+  </si>
+  <si>
+    <t>1979-03-05</t>
+  </si>
+  <si>
+    <t>741880661635648</t>
+  </si>
+  <si>
+    <t>66c2361e59fbfed5</t>
+  </si>
+  <si>
+    <t>273747813671126</t>
+  </si>
+  <si>
+    <t>IDEP261784217538YRK3</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>59999524741</t>
+  </si>
+  <si>
+    <t>QQUGEP</t>
+  </si>
+  <si>
+    <t>6410996992</t>
+  </si>
+  <si>
+    <t>Niyati</t>
+  </si>
+  <si>
+    <t>OmarMorar70703@example.net</t>
+  </si>
+  <si>
+    <t>1978-06-28</t>
+  </si>
+  <si>
+    <t>706669600189202</t>
+  </si>
+  <si>
+    <t>671d100ffa28fb49</t>
+  </si>
+  <si>
+    <t>195412881686812</t>
+  </si>
+  <si>
     <t>IDEP617285859149GLNE</t>
   </si>
   <si>
+    <t>4215434</t>
+  </si>
+  <si>
+    <t>6525869402</t>
+  </si>
+  <si>
+    <t>Padama</t>
+  </si>
+  <si>
+    <t>MalikSrinivas95033@example.net</t>
+  </si>
+  <si>
+    <t>1981-01-28</t>
+  </si>
+  <si>
+    <t>041885818856051</t>
+  </si>
+  <si>
+    <t>9d518e30642c853b</t>
+  </si>
+  <si>
+    <t>685168115208800</t>
+  </si>
+  <si>
+    <t>IDEP67211465211586AL</t>
+  </si>
+  <si>
+    <t>4215444.0</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>59999724270</t>
+  </si>
+  <si>
+    <t>JFRSMC</t>
+  </si>
+  <si>
+    <t>9610924171</t>
+  </si>
+  <si>
+    <t>Laveena</t>
+  </si>
+  <si>
+    <t>BijoyBrar71712@example.net</t>
+  </si>
+  <si>
+    <t>1995-09-18</t>
+  </si>
+  <si>
+    <t>528651140984785</t>
+  </si>
+  <si>
+    <t>93be441de6ccaf18</t>
+  </si>
+  <si>
+    <t>153859432945701</t>
+  </si>
+  <si>
+    <t>IDEP271616273838F5XY</t>
+  </si>
+  <si>
+    <t>4215566.0</t>
+  </si>
+  <si>
+    <t>9151319207</t>
+  </si>
+  <si>
+    <t>Kajol</t>
+  </si>
+  <si>
+    <t>RickyGobin49722@example.net</t>
+  </si>
+  <si>
+    <t>1982-09-20</t>
+  </si>
+  <si>
+    <t>832590294941152</t>
+  </si>
+  <si>
+    <t>91b0ca1a141bb8b7</t>
+  </si>
+  <si>
+    <t>110205076321860</t>
+  </si>
+  <si>
+    <t>IDEP716217835871BAHY</t>
+  </si>
+  <si>
+    <t>4215585.0</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>59999402472</t>
+  </si>
+  <si>
+    <t>IEDISH</t>
+  </si>
+  <si>
+    <t>BNPL6217183837127845</t>
+  </si>
+  <si>
+    <t>59999551789</t>
+  </si>
+  <si>
+    <t>CBCJCR</t>
+  </si>
+  <si>
+    <t>59999835857</t>
+  </si>
+  <si>
+    <t>IJFDTU</t>
+  </si>
+  <si>
+    <t>59999711067</t>
+  </si>
+  <si>
+    <t>SRCNDK</t>
+  </si>
+  <si>
+    <t>59999034264</t>
+  </si>
+  <si>
+    <t>EGMCHG</t>
+  </si>
+  <si>
+    <t>59999062837</t>
+  </si>
+  <si>
+    <t>TTJQJG</t>
+  </si>
+  <si>
+    <t>59999984168</t>
+  </si>
+  <si>
+    <t>UKQEJK</t>
+  </si>
+  <si>
+    <t>59999225329</t>
+  </si>
+  <si>
+    <t>TRMLNJ</t>
+  </si>
+  <si>
+    <t>59999874087</t>
+  </si>
+  <si>
+    <t>CSLFFU</t>
+  </si>
+  <si>
+    <t>59999621522</t>
+  </si>
+  <si>
+    <t>LFKUCR</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6791914617</t>
+  </si>
+  <si>
+    <t>Mona</t>
+  </si>
+  <si>
+    <t>KrishnaDash81042@example.net</t>
+  </si>
+  <si>
+    <t>1973-11-13</t>
+  </si>
+  <si>
+    <t>902137443252910</t>
+  </si>
+  <si>
+    <t>5ee96bf8a9e15fbd</t>
+  </si>
+  <si>
+    <t>759222165832646</t>
+  </si>
+  <si>
+    <t>335577016791914617</t>
+  </si>
+  <si>
+    <t>ICIC89934575810</t>
+  </si>
+  <si>
+    <t>7821746848</t>
+  </si>
+  <si>
+    <t>Indrani</t>
+  </si>
+  <si>
+    <t>AjinkyaGhosh68994@example.net</t>
+  </si>
+  <si>
+    <t>1988-10-31</t>
+  </si>
+  <si>
+    <t>447444364203167</t>
+  </si>
+  <si>
+    <t>430fa74ed7549c56</t>
+  </si>
+  <si>
+    <t>728171367210705</t>
+  </si>
+  <si>
+    <t>335577017821746848</t>
+  </si>
+  <si>
+    <t>ICIC83744485638</t>
+  </si>
+  <si>
+    <t>9171133660</t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>KabeerPillai52320@example.net</t>
+  </si>
+  <si>
+    <t>1975-01-30</t>
+  </si>
+  <si>
+    <t>796453889728381</t>
+  </si>
+  <si>
+    <t>7bab6dcd3cfe7edf</t>
+  </si>
+  <si>
+    <t>065418941708972</t>
+  </si>
+  <si>
+    <t>IDEP371688814388PVB3</t>
+  </si>
+  <si>
+    <t>4215622.0</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>59999794493</t>
+  </si>
+  <si>
+    <t>MJCCBG</t>
+  </si>
+  <si>
+    <t>BNPL6371885671476187</t>
+  </si>
+  <si>
+    <t>59999440384</t>
+  </si>
+  <si>
+    <t>KJPCUN</t>
+  </si>
+  <si>
+    <t>59999868850</t>
+  </si>
+  <si>
+    <t>GHFDPU</t>
+  </si>
+  <si>
+    <t>59999583580</t>
+  </si>
+  <si>
+    <t>LDENEA</t>
+  </si>
+  <si>
+    <t>59999647772</t>
+  </si>
+  <si>
+    <t>HHLKBP</t>
+  </si>
+  <si>
+    <t>59999034918</t>
+  </si>
+  <si>
+    <t>UUKDLR</t>
+  </si>
+  <si>
+    <t>59999228128</t>
+  </si>
+  <si>
+    <t>MEOHOE</t>
+  </si>
+  <si>
+    <t>59999660175</t>
+  </si>
+  <si>
+    <t>GFOFIO</t>
+  </si>
+  <si>
+    <t>59999055126</t>
+  </si>
+  <si>
+    <t>ILRPMG</t>
+  </si>
+  <si>
+    <t>59999351164</t>
+  </si>
+  <si>
+    <t>CQLQGR</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>9028712641</t>
+  </si>
+  <si>
+    <t>Geetanjali</t>
+  </si>
+  <si>
+    <t>MotiDeol92518@example.net</t>
+  </si>
+  <si>
+    <t>1976-01-30</t>
+  </si>
+  <si>
+    <t>497360557444831</t>
+  </si>
+  <si>
+    <t>3df9eb91fd63e377</t>
+  </si>
+  <si>
+    <t>272265681940151</t>
+  </si>
+  <si>
+    <t>335577019028712641</t>
+  </si>
+  <si>
+    <t>ICIC93339201996</t>
+  </si>
+  <si>
+    <t>9557636710</t>
+  </si>
+  <si>
+    <t>Ruchi</t>
+  </si>
+  <si>
+    <t>WafaSoni89942@example.net</t>
+  </si>
+  <si>
+    <t>1993-12-09</t>
+  </si>
+  <si>
+    <t>013258418932017</t>
+  </si>
+  <si>
+    <t>2bd182717d3d1bdb</t>
+  </si>
+  <si>
+    <t>691202385078148</t>
+  </si>
+  <si>
+    <t>335577019557636710</t>
+  </si>
+  <si>
+    <t>ICIC92860672026</t>
+  </si>
+  <si>
+    <t>6646220742</t>
+  </si>
+  <si>
+    <t>AatifChokshi83348@example.net</t>
+  </si>
+  <si>
+    <t>1994-07-20</t>
+  </si>
+  <si>
+    <t>635127838889263</t>
+  </si>
+  <si>
+    <t>7b5b0fb2d9082144</t>
+  </si>
+  <si>
+    <t>191950634970672</t>
+  </si>
+  <si>
+    <t>IDEP317684834591WUMX</t>
+  </si>
+  <si>
+    <t>4215959.0</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>59999985795</t>
+  </si>
+  <si>
+    <t>PDEOTG</t>
+  </si>
+  <si>
+    <t>BNPL7613845993999673</t>
+  </si>
+  <si>
+    <t>59999005390</t>
+  </si>
+  <si>
+    <t>QESNIL</t>
+  </si>
+  <si>
+    <t>59999422831</t>
+  </si>
+  <si>
+    <t>NMSJDN</t>
+  </si>
+  <si>
+    <t>59999180700</t>
+  </si>
+  <si>
+    <t>CAMAUU</t>
+  </si>
+  <si>
+    <t>59999988172</t>
+  </si>
+  <si>
+    <t>NOOEDT</t>
+  </si>
+  <si>
+    <t>59999942151</t>
+  </si>
+  <si>
+    <t>ENBSOA</t>
+  </si>
+  <si>
+    <t>59999554453</t>
+  </si>
+  <si>
+    <t>ESSBTD</t>
+  </si>
+  <si>
+    <t>59999744217</t>
+  </si>
+  <si>
+    <t>UJNAFB</t>
+  </si>
+  <si>
+    <t>59999892964</t>
+  </si>
+  <si>
+    <t>AKDSLT</t>
+  </si>
+  <si>
+    <t>59999479419</t>
+  </si>
+  <si>
+    <t>DOAKGE</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>7861993651</t>
+  </si>
+  <si>
+    <t>Leela</t>
+  </si>
+  <si>
+    <t>HanumanKhare62312@example.net</t>
+  </si>
+  <si>
+    <t>1976-08-12</t>
+  </si>
+  <si>
+    <t>317809778057432</t>
+  </si>
+  <si>
+    <t>ce9e68060ed221ab</t>
+  </si>
+  <si>
+    <t>270650511095775</t>
+  </si>
+  <si>
+    <t>335577017861993651</t>
+  </si>
+  <si>
+    <t>ICIC86260789245</t>
+  </si>
+  <si>
+    <t>7667034059</t>
+  </si>
+  <si>
+    <t>Kunti</t>
+  </si>
+  <si>
+    <t>CharandeepApte75098@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-10</t>
+  </si>
+  <si>
+    <t>066788335716453</t>
+  </si>
+  <si>
+    <t>7fe0bea1d031ae57</t>
+  </si>
+  <si>
+    <t>079145500476808</t>
+  </si>
+  <si>
+    <t>335577017667034059</t>
+  </si>
+  <si>
+    <t>ICIC83078311986</t>
+  </si>
+  <si>
+    <t>8412938420</t>
+  </si>
+  <si>
+    <t>Prabha</t>
+  </si>
+  <si>
+    <t>HetanBanik23344@example.net</t>
+  </si>
+  <si>
+    <t>1971-08-27</t>
+  </si>
+  <si>
+    <t>976322918679133</t>
+  </si>
+  <si>
+    <t>aeb2716f67aea0c6</t>
+  </si>
+  <si>
+    <t>053512432796795</t>
+  </si>
+  <si>
+    <t>IDEP136751849599VPBW</t>
+  </si>
+  <si>
+    <t>4215994.0</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>59999576699</t>
+  </si>
+  <si>
+    <t>FHGBFE</t>
+  </si>
+  <si>
+    <t>BNPL7163525855246379</t>
+  </si>
+  <si>
+    <t>59999376624</t>
+  </si>
+  <si>
+    <t>HBGNBB</t>
+  </si>
+  <si>
+    <t>59999254434</t>
+  </si>
+  <si>
+    <t>DJDNEQ</t>
+  </si>
+  <si>
+    <t>59999660684</t>
+  </si>
+  <si>
+    <t>TFTLEH</t>
+  </si>
+  <si>
+    <t>59999199309</t>
+  </si>
+  <si>
+    <t>MJPDHS</t>
+  </si>
+  <si>
+    <t>59999876872</t>
+  </si>
+  <si>
+    <t>IOHKMS</t>
+  </si>
+  <si>
+    <t>59999511738</t>
+  </si>
+  <si>
+    <t>EJFUAE</t>
+  </si>
+  <si>
+    <t>59999327562</t>
+  </si>
+  <si>
+    <t>SARPGU</t>
+  </si>
+  <si>
+    <t>59999748031</t>
+  </si>
+  <si>
+    <t>ODIONM</t>
+  </si>
+  <si>
+    <t>59999711699</t>
+  </si>
+  <si>
+    <t>FFNHDA</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>7497086981</t>
+  </si>
+  <si>
     <t>Richa</t>
   </si>
   <si>
+    <t>KirtiVig81523@example.net</t>
+  </si>
+  <si>
+    <t>1973-10-11</t>
+  </si>
+  <si>
+    <t>809568228406053</t>
+  </si>
+  <si>
+    <t>d4b638a2adf7e583</t>
+  </si>
+  <si>
+    <t>608723508931329</t>
+  </si>
+  <si>
+    <t>335577017497086981</t>
+  </si>
+  <si>
+    <t>ICIC82540763052</t>
+  </si>
+  <si>
+    <t>7247520142</t>
+  </si>
+  <si>
+    <t>Nutan</t>
+  </si>
+  <si>
+    <t>AzharSane99745@example.net</t>
+  </si>
+  <si>
+    <t>1992-06-12</t>
+  </si>
+  <si>
+    <t>736371804007132</t>
+  </si>
+  <si>
+    <t>e114979d353629cf</t>
+  </si>
+  <si>
+    <t>670276100740104</t>
+  </si>
+  <si>
+    <t>335577017247520142</t>
+  </si>
+  <si>
+    <t>ICIC98918467802</t>
+  </si>
+  <si>
+    <t>6821602447</t>
+  </si>
+  <si>
+    <t>Nagma</t>
+  </si>
+  <si>
+    <t>RupalBava95744@example.net</t>
+  </si>
+  <si>
+    <t>1980-10-11</t>
+  </si>
+  <si>
+    <t>982202667886117</t>
+  </si>
+  <si>
+    <t>fdc1165bdf0d2ab6</t>
+  </si>
+  <si>
+    <t>499175989704067</t>
+  </si>
+  <si>
+    <t>IDEP317626799865RBS7</t>
+  </si>
+  <si>
+    <t>4216841.0</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>59999128837</t>
+  </si>
+  <si>
+    <t>JSTEKF</t>
+  </si>
+  <si>
+    <t>BNPL6173274864156479</t>
+  </si>
+  <si>
+    <t>59999888668</t>
+  </si>
+  <si>
+    <t>DMKFEH</t>
+  </si>
+  <si>
+    <t>59999760131</t>
+  </si>
+  <si>
+    <t>SMHPFU</t>
+  </si>
+  <si>
+    <t>59999216740</t>
+  </si>
+  <si>
+    <t>NDCPUL</t>
+  </si>
+  <si>
+    <t>59999593074</t>
+  </si>
+  <si>
+    <t>CDIFDB</t>
+  </si>
+  <si>
+    <t>59999174824</t>
+  </si>
+  <si>
+    <t>MQLPAB</t>
+  </si>
+  <si>
+    <t>59999866465</t>
+  </si>
+  <si>
+    <t>UBPRHF</t>
+  </si>
+  <si>
+    <t>59999332277</t>
+  </si>
+  <si>
+    <t>TEHQNP</t>
+  </si>
+  <si>
+    <t>59999347526</t>
+  </si>
+  <si>
+    <t>TSRDIJ</t>
+  </si>
+  <si>
+    <t>59999734345</t>
+  </si>
+  <si>
+    <t>KHOHTU</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>9135961981</t>
+  </si>
+  <si>
+    <t>Nalini</t>
+  </si>
+  <si>
+    <t>DineshRaval92625@example.net</t>
+  </si>
+  <si>
+    <t>1972-09-18</t>
+  </si>
+  <si>
+    <t>638648826643146</t>
+  </si>
+  <si>
+    <t>eb7e0cc8ac25ce18</t>
+  </si>
+  <si>
+    <t>277341990135232</t>
+  </si>
+  <si>
+    <t>335577019135961981</t>
+  </si>
+  <si>
+    <t>ICIC99829458885</t>
+  </si>
+  <si>
+    <t>6462091251</t>
+  </si>
+  <si>
+    <t>Swati</t>
+  </si>
+  <si>
+    <t>SatishwarBhalla50247@example.net</t>
+  </si>
+  <si>
+    <t>1995-06-18</t>
+  </si>
+  <si>
+    <t>641169055425076</t>
+  </si>
+  <si>
+    <t>5b970f28907e5663</t>
+  </si>
+  <si>
+    <t>516445498573025</t>
+  </si>
+  <si>
+    <t>335577016462091251</t>
+  </si>
+  <si>
+    <t>ICIC96339087004</t>
+  </si>
+  <si>
+    <t>7283634559</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>HetanBala12876@example.net</t>
+  </si>
+  <si>
+    <t>1982-03-13</t>
+  </si>
+  <si>
+    <t>887631217238633</t>
+  </si>
+  <si>
+    <t>8a44c4f1479b6dc6</t>
+  </si>
+  <si>
+    <t>224254462209001</t>
+  </si>
+  <si>
+    <t>IDEP716335988525IX4A</t>
+  </si>
+  <si>
+    <t>4217291.0</t>
+  </si>
+  <si>
+    <t>8382796980</t>
+  </si>
+  <si>
+    <t>Nupoor</t>
+  </si>
+  <si>
+    <t>FakaruddinChacko45586@example.net</t>
+  </si>
+  <si>
+    <t>1991-08-11</t>
+  </si>
+  <si>
+    <t>918750795379263</t>
+  </si>
+  <si>
+    <t>a8e3d5f58a2abbfa</t>
+  </si>
+  <si>
+    <t>083133804974664</t>
+  </si>
+  <si>
+    <t>IDEP673136969522R9P6</t>
+  </si>
+  <si>
+    <t>4217468.0</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>59999568340</t>
+  </si>
+  <si>
+    <t>LNTNCM</t>
+  </si>
+  <si>
+    <t>59999434650</t>
+  </si>
+  <si>
+    <t>LHDFUD</t>
+  </si>
+  <si>
+    <t>59999688953</t>
+  </si>
+  <si>
+    <t>CJSRKC</t>
+  </si>
+  <si>
+    <t>59999240308</t>
+  </si>
+  <si>
+    <t>UHSBBS</t>
+  </si>
+  <si>
+    <t>59999931953</t>
+  </si>
+  <si>
+    <t>QSSKGB</t>
+  </si>
+  <si>
+    <t>59999752587</t>
+  </si>
+  <si>
+    <t>MRHFQG</t>
+  </si>
+  <si>
+    <t>59999073681</t>
+  </si>
+  <si>
+    <t>AMALRM</t>
+  </si>
+  <si>
+    <t>59999283302</t>
+  </si>
+  <si>
+    <t>QCUSEP</t>
+  </si>
+  <si>
+    <t>59999201437</t>
+  </si>
+  <si>
+    <t>QEQRUP</t>
+  </si>
+  <si>
+    <t>59999999677</t>
+  </si>
+  <si>
+    <t>AAERHC</t>
+  </si>
+  <si>
+    <t>9435968910</t>
+  </si>
+  <si>
+    <t>Radhika</t>
+  </si>
+  <si>
+    <t>AadishDugal58970@example.net</t>
+  </si>
+  <si>
+    <t>1995-01-20</t>
+  </si>
+  <si>
+    <t>482356631457267</t>
+  </si>
+  <si>
+    <t>74bc240fcf0b05fe</t>
+  </si>
+  <si>
+    <t>504761435315153</t>
+  </si>
+  <si>
+    <t>IDEP7163811888242XMB</t>
+  </si>
+  <si>
+    <t>4217479.0</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>59999322072</t>
+  </si>
+  <si>
+    <t>GRTUNQ</t>
+  </si>
+  <si>
+    <t>59999927645</t>
+  </si>
+  <si>
+    <t>TDRAGI</t>
+  </si>
+  <si>
+    <t>59999485376</t>
+  </si>
+  <si>
+    <t>BSJEJT</t>
+  </si>
+  <si>
+    <t>59999067992</t>
+  </si>
+  <si>
+    <t>BQHRND</t>
+  </si>
+  <si>
+    <t>59999976092</t>
+  </si>
+  <si>
+    <t>TMQNNM</t>
+  </si>
+  <si>
+    <t>59999536418</t>
+  </si>
+  <si>
+    <t>LBTFQQ</t>
+  </si>
+  <si>
+    <t>59999082585</t>
+  </si>
+  <si>
+    <t>ESDHAB</t>
+  </si>
+  <si>
+    <t>59999321723</t>
+  </si>
+  <si>
+    <t>IJNNFF</t>
+  </si>
+  <si>
+    <t>59999583077</t>
+  </si>
+  <si>
+    <t>BSPFHR</t>
+  </si>
+  <si>
+    <t>59999779579</t>
+  </si>
+  <si>
+    <t>QMQODO</t>
+  </si>
+  <si>
+    <t>8893626809</t>
+  </si>
+  <si>
     <t>AlbertDas93315@example.net</t>
   </si>
   <si>
     <t>1983-07-28</t>
   </si>
   <si>
+    <t>143653691079614</t>
+  </si>
+  <si>
+    <t>952461fc58d95fd7</t>
+  </si>
+  <si>
+    <t>863654550349732</t>
+  </si>
+  <si>
+    <t>IDEP716319395917TEBH</t>
+  </si>
+  <si>
+    <t>4217577.0</t>
+  </si>
+  <si>
+    <t>8731023555</t>
+  </si>
+  <si>
+    <t>Hema</t>
+  </si>
+  <si>
+    <t>ViratShah40022@example.net</t>
+  </si>
+  <si>
+    <t>1991-01-08</t>
+  </si>
+  <si>
+    <t>013249114538869</t>
+  </si>
+  <si>
+    <t>ca69957715eb1b1d</t>
+  </si>
+  <si>
+    <t>515999946289338</t>
+  </si>
+  <si>
+    <t>IDEP371619583378KMRL</t>
+  </si>
+  <si>
+    <t>4217802.0</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>59999395805</t>
+  </si>
+  <si>
+    <t>HENBPQ</t>
+  </si>
+  <si>
+    <t>BNPL6317281821675839</t>
+  </si>
+  <si>
+    <t>59999160960</t>
+  </si>
+  <si>
+    <t>UJGCRT</t>
+  </si>
+  <si>
+    <t>59999353921</t>
+  </si>
+  <si>
+    <t>SCKRFR</t>
+  </si>
+  <si>
+    <t>59999590555</t>
+  </si>
+  <si>
+    <t>FDPKMI</t>
+  </si>
+  <si>
+    <t>59999417823</t>
+  </si>
+  <si>
+    <t>BIRMNN</t>
+  </si>
+  <si>
+    <t>59999828732</t>
+  </si>
+  <si>
+    <t>UGTLBB</t>
+  </si>
+  <si>
+    <t>59999423088</t>
+  </si>
+  <si>
+    <t>SDOMCP</t>
+  </si>
+  <si>
+    <t>59999746919</t>
+  </si>
+  <si>
+    <t>HEPLBI</t>
+  </si>
+  <si>
+    <t>59999611380</t>
+  </si>
+  <si>
+    <t>ATHLSH</t>
+  </si>
+  <si>
+    <t>59999796206</t>
+  </si>
+  <si>
+    <t>NNMSOH</t>
+  </si>
+  <si>
+    <t>153.0</t>
+  </si>
+  <si>
+    <t>8599766242</t>
+  </si>
+  <si>
+    <t>Nishtha</t>
+  </si>
+  <si>
+    <t>RameshPandit69544@example.net</t>
+  </si>
+  <si>
+    <t>1986-08-23</t>
+  </si>
+  <si>
+    <t>973732860637587</t>
+  </si>
+  <si>
+    <t>857d30e6c29e937b</t>
+  </si>
+  <si>
+    <t>337019056351491</t>
+  </si>
+  <si>
+    <t>335577018599766242</t>
+  </si>
+  <si>
+    <t>ICIC95186016260</t>
+  </si>
+  <si>
+    <t>6104686075</t>
+  </si>
+  <si>
+    <t>Leelawati</t>
+  </si>
+  <si>
+    <t>AadilInani14264@example.net</t>
+  </si>
+  <si>
+    <t>1976-10-16</t>
+  </si>
+  <si>
+    <t>301022672818994</t>
+  </si>
+  <si>
+    <t>199fb363c0481410</t>
+  </si>
+  <si>
+    <t>357739278645215</t>
+  </si>
+  <si>
+    <t>335577016104686075</t>
+  </si>
+  <si>
+    <t>ICIC91795956156</t>
+  </si>
+  <si>
+    <t>8961164401</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>OwaisSheth24052@example.net</t>
+  </si>
+  <si>
+    <t>1993-02-14</t>
+  </si>
+  <si>
+    <t>012413385915922</t>
+  </si>
+  <si>
+    <t>06f62a421824ea47</t>
+  </si>
+  <si>
+    <t>908527648139678</t>
+  </si>
+  <si>
     <t>IDEP316728382264WXER</t>
   </si>
   <si>
+    <t>4217805.0</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
     <t>160</t>
   </si>
   <si>
+    <t>59999848336</t>
+  </si>
+  <si>
+    <t>NOOKBS</t>
+  </si>
+  <si>
     <t>BNPL1637289822727456</t>
   </si>
   <si>
+    <t>59999630082</t>
+  </si>
+  <si>
+    <t>SPLJQS</t>
+  </si>
+  <si>
+    <t>59999792085</t>
+  </si>
+  <si>
+    <t>QOTMBF</t>
+  </si>
+  <si>
+    <t>59999003643</t>
+  </si>
+  <si>
+    <t>BICPHG</t>
+  </si>
+  <si>
+    <t>59999767553</t>
+  </si>
+  <si>
+    <t>LUOCOC</t>
+  </si>
+  <si>
+    <t>59999112738</t>
+  </si>
+  <si>
+    <t>JRQFFU</t>
+  </si>
+  <si>
+    <t>59999896999</t>
+  </si>
+  <si>
+    <t>TQIMRE</t>
+  </si>
+  <si>
+    <t>59999747696</t>
+  </si>
+  <si>
+    <t>HBALHK</t>
+  </si>
+  <si>
+    <t>59999602240</t>
+  </si>
+  <si>
+    <t>GSQJIQ</t>
+  </si>
+  <si>
     <t>59999033248</t>
   </si>
   <si>
     <t>IUHOON</t>
   </si>
   <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>6687939277</t>
+  </si>
+  <si>
+    <t>Kirti</t>
+  </si>
+  <si>
+    <t>DeepHayer44976@example.net</t>
+  </si>
+  <si>
+    <t>1993-04-25</t>
+  </si>
+  <si>
+    <t>405412106742412</t>
+  </si>
+  <si>
+    <t>ed05d1338f962434</t>
+  </si>
+  <si>
+    <t>407879254508472</t>
+  </si>
+  <si>
     <t>335577016687939277</t>
   </si>
   <si>
@@ -842,496 +2324,46 @@
     <t>ICIC87911855551</t>
   </si>
   <si>
-    <t>8706331523</t>
-  </si>
-  <si>
-    <t>Usha</t>
-  </si>
-  <si>
-    <t>VivekDad62129@example.net</t>
-  </si>
-  <si>
-    <t>1991-12-27</t>
-  </si>
-  <si>
-    <t>564342343124362</t>
-  </si>
-  <si>
-    <t>0ca9eaabd8941999</t>
-  </si>
-  <si>
-    <t>796874560286292</t>
-  </si>
-  <si>
-    <t>IDEP673166648369KITU</t>
-  </si>
-  <si>
-    <t>8891175167</t>
-  </si>
-  <si>
-    <t>Lakshmi</t>
-  </si>
-  <si>
-    <t>AbhishekSubramaniam99286@example.net</t>
-  </si>
-  <si>
-    <t>1988-04-16</t>
-  </si>
-  <si>
-    <t>281932738713068</t>
-  </si>
-  <si>
-    <t>42395a9554a5e50f</t>
-  </si>
-  <si>
-    <t>598843750309743</t>
-  </si>
-  <si>
-    <t>IDEP613767213248IET1</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>59999255402</t>
-  </si>
-  <si>
-    <t>QHBIDU</t>
-  </si>
-  <si>
-    <t>59999827453</t>
-  </si>
-  <si>
-    <t>EKARRT</t>
-  </si>
-  <si>
-    <t>59999870103</t>
-  </si>
-  <si>
-    <t>FECTNR</t>
-  </si>
-  <si>
-    <t>59999071974</t>
-  </si>
-  <si>
-    <t>AKKNLC</t>
-  </si>
-  <si>
-    <t>59999783173</t>
-  </si>
-  <si>
-    <t>NNBLTQ</t>
-  </si>
-  <si>
-    <t>59999479459</t>
-  </si>
-  <si>
-    <t>MSODTE</t>
-  </si>
-  <si>
-    <t>59999328586</t>
-  </si>
-  <si>
-    <t>MQASOS</t>
-  </si>
-  <si>
-    <t>59999080136</t>
-  </si>
-  <si>
-    <t>GROLRU</t>
-  </si>
-  <si>
-    <t>59999737857</t>
-  </si>
-  <si>
-    <t>CDCNAA</t>
-  </si>
-  <si>
-    <t>59999909779</t>
-  </si>
-  <si>
-    <t>QAORCH</t>
-  </si>
-  <si>
-    <t>9741706644</t>
-  </si>
-  <si>
-    <t>Aayushi</t>
-  </si>
-  <si>
-    <t>NayanGeorge80778@example.net</t>
-  </si>
-  <si>
-    <t>1990-08-11</t>
-  </si>
-  <si>
-    <t>601903785738145</t>
-  </si>
-  <si>
-    <t>23cdf640a685a176</t>
-  </si>
-  <si>
-    <t>079028329940248</t>
-  </si>
-  <si>
-    <t>IDEP761367689843OFIK</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>59999115611</t>
-  </si>
-  <si>
-    <t>SPBCRU</t>
-  </si>
-  <si>
-    <t>59999331851</t>
-  </si>
-  <si>
-    <t>ORTQFJ</t>
-  </si>
-  <si>
-    <t>59999915161</t>
-  </si>
-  <si>
-    <t>GQMUSR</t>
-  </si>
-  <si>
-    <t>59999769363</t>
-  </si>
-  <si>
-    <t>GDJFMM</t>
-  </si>
-  <si>
-    <t>59999593941</t>
-  </si>
-  <si>
-    <t>TIEHBS</t>
-  </si>
-  <si>
-    <t>59999493294</t>
-  </si>
-  <si>
-    <t>SBTBGM</t>
-  </si>
-  <si>
-    <t>59999182506</t>
-  </si>
-  <si>
-    <t>QTAPBG</t>
-  </si>
-  <si>
-    <t>59999992488</t>
-  </si>
-  <si>
-    <t>DLCPHU</t>
-  </si>
-  <si>
-    <t>59999838402</t>
-  </si>
-  <si>
-    <t>HJILRT</t>
-  </si>
-  <si>
-    <t>59999312012</t>
-  </si>
-  <si>
-    <t>JNCIAM</t>
-  </si>
-  <si>
-    <t>9687831448</t>
-  </si>
-  <si>
-    <t>Bagwati</t>
-  </si>
-  <si>
-    <t>TanayBoase20381@example.net</t>
-  </si>
-  <si>
-    <t>1976-08-18</t>
-  </si>
-  <si>
-    <t>748161298737427</t>
-  </si>
-  <si>
-    <t>1222679e90afc857</t>
-  </si>
-  <si>
-    <t>934213246377923</t>
-  </si>
-  <si>
-    <t>IDEP631768882665I5QZ</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>59999032464</t>
-  </si>
-  <si>
-    <t>JFBARC</t>
-  </si>
-  <si>
-    <t>BNPL6137681858431879</t>
-  </si>
-  <si>
-    <t>59999947579</t>
-  </si>
-  <si>
-    <t>KQSTMU</t>
-  </si>
-  <si>
-    <t>59999397411</t>
-  </si>
-  <si>
-    <t>FKFOIL</t>
-  </si>
-  <si>
-    <t>59999549614</t>
-  </si>
-  <si>
-    <t>KFAFED</t>
-  </si>
-  <si>
-    <t>59999022853</t>
-  </si>
-  <si>
-    <t>IOCSSP</t>
-  </si>
-  <si>
-    <t>59999823369</t>
-  </si>
-  <si>
-    <t>ENNBUA</t>
-  </si>
-  <si>
-    <t>59999847926</t>
-  </si>
-  <si>
-    <t>SCKBDJ</t>
-  </si>
-  <si>
-    <t>59999592592</t>
-  </si>
-  <si>
-    <t>CGKBGK</t>
-  </si>
-  <si>
-    <t>59999402237</t>
-  </si>
-  <si>
-    <t>JJDDDE</t>
-  </si>
-  <si>
-    <t>59999110437</t>
-  </si>
-  <si>
-    <t>BLUPCA</t>
-  </si>
-  <si>
-    <t>335577019687831448</t>
-  </si>
-  <si>
-    <t>ICIC80504889366</t>
-  </si>
-  <si>
-    <t>ICIC84592123904</t>
-  </si>
-  <si>
-    <t>6387593516</t>
-  </si>
-  <si>
-    <t>Leelawati</t>
-  </si>
-  <si>
-    <t>RupeshKrish69621@example.net</t>
-  </si>
-  <si>
-    <t>1990-02-08</t>
-  </si>
-  <si>
-    <t>673813164904858</t>
-  </si>
-  <si>
-    <t>1bc4a33ddc5ebb13</t>
-  </si>
-  <si>
-    <t>310433320142688</t>
-  </si>
-  <si>
-    <t>IDEP7613683188754V21</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>59999919637</t>
-  </si>
-  <si>
-    <t>PSKGBF</t>
-  </si>
-  <si>
-    <t>BNPL1736684888434382</t>
-  </si>
-  <si>
-    <t>59999084102</t>
-  </si>
-  <si>
-    <t>DPAQJD</t>
-  </si>
-  <si>
-    <t>59999266884</t>
-  </si>
-  <si>
-    <t>ESBERI</t>
-  </si>
-  <si>
-    <t>59999826913</t>
-  </si>
-  <si>
-    <t>LMSPKG</t>
-  </si>
-  <si>
-    <t>59999805301</t>
-  </si>
-  <si>
-    <t>QSSMUB</t>
-  </si>
-  <si>
-    <t>59999423695</t>
-  </si>
-  <si>
-    <t>GUMIPG</t>
-  </si>
-  <si>
-    <t>59999407594</t>
-  </si>
-  <si>
-    <t>JEETMT</t>
-  </si>
-  <si>
-    <t>59999591896</t>
-  </si>
-  <si>
-    <t>JULHHG</t>
-  </si>
-  <si>
-    <t>59999495564</t>
-  </si>
-  <si>
-    <t>BQDKIQ</t>
-  </si>
-  <si>
-    <t>59999273116</t>
-  </si>
-  <si>
-    <t>BPABSR</t>
-  </si>
-  <si>
-    <t>335577016387593516</t>
-  </si>
-  <si>
-    <t>ICIC80022791430</t>
-  </si>
-  <si>
-    <t>ICIC86545213049</t>
-  </si>
-  <si>
-    <t>9948501246</t>
-  </si>
-  <si>
-    <t>Zeenat</t>
-  </si>
-  <si>
-    <t>DeepRandhawa17167@example.net</t>
-  </si>
-  <si>
-    <t>1992-09-21</t>
-  </si>
-  <si>
-    <t>122556271870580</t>
-  </si>
-  <si>
-    <t>c17d0c521cbf876b</t>
-  </si>
-  <si>
-    <t>073431356874114</t>
-  </si>
-  <si>
-    <t>6549899850</t>
-  </si>
-  <si>
-    <t>Neha</t>
-  </si>
-  <si>
-    <t>YaduChopra35383@example.net</t>
-  </si>
-  <si>
-    <t>1991-06-10</t>
-  </si>
-  <si>
-    <t>710606788676133</t>
-  </si>
-  <si>
-    <t>74bde91453ded42a</t>
-  </si>
-  <si>
-    <t>602742079555552</t>
+    <t>8930256604</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>SahilGara28634@example.net</t>
+  </si>
+  <si>
+    <t>1983-04-24</t>
+  </si>
+  <si>
+    <t>320818214686147</t>
+  </si>
+  <si>
+    <t>2009a109bb740d7a</t>
+  </si>
+  <si>
+    <t>667920902708307</t>
+  </si>
+  <si>
+    <t>6159004942</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>MarloDhawan66855@example.net</t>
+  </si>
+  <si>
+    <t>1971-01-31</t>
+  </si>
+  <si>
+    <t>898065644519033</t>
+  </si>
+  <si>
+    <t>7d3c7e9f14c12a1f</t>
+  </si>
+  <si>
+    <t>659871362619353</t>
   </si>
 </sst>
 </file>
@@ -1831,7 +2863,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1952,19 +2984,19 @@
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>718</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>410</v>
+        <v>738</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>411</v>
+        <v>739</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -2301,7 +3333,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>721</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -2398,16 +3430,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>771</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>772</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>426</v>
+        <v>770</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -2510,7 +3542,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>748</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -2522,7 +3554,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>413</v>
+        <v>749</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -2531,7 +3563,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>119.0</v>
+        <v>160.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -2623,13 +3655,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>423</v>
+        <v>767</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>424</v>
+        <v>768</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>425</v>
+        <v>769</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -2978,13 +4010,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>498</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>247</v>
+        <v>645</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>248</v>
+        <v>646</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3293,13 +4325,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>645</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>248</v>
+        <v>646</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3329,7 +4361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -3393,13 +4425,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>498</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>645</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>248</v>
+        <v>646</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -3408,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>219</v>
@@ -3708,13 +4740,13 @@
         <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>498</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>645</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>248</v>
+        <v>646</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>220</v>
@@ -3723,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>219</v>
@@ -3833,7 +4865,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>757</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3845,7 +4877,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>414</v>
+        <v>758</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3854,7 +4886,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>119.0</v>
+        <v>160.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -3899,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17C12E-5343-49E4-B7DD-0A55D5EDDF2C}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3981,10 +5013,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="E2" t="s">
-        <v>424</v>
+        <v>768</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -3996,7 +5028,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>426</v>
+        <v>770</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -4005,8 +5037,8 @@
         <v>68</v>
       </c>
       <c r="L2"/>
-      <c r="M2" t="n">
-        <v>4218384.0</v>
+      <c r="M2" s="2" t="n">
+        <v>4217892.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -4019,18 +5051,54 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B3" s="13"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3">
+        <v>9892189981</v>
+      </c>
+      <c r="E3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>4217892.0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="14">
+        <v>49</v>
+      </c>
+      <c r="P3" s="14">
+        <v>1210</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4080,7 +5148,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4097,7 +5165,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -4114,7 +5182,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -4131,7 +5199,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -4148,7 +5216,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>422</v>
+        <v>766</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -4313,11 +5381,11 @@
       <c r="C2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="17" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>426</v>
+        <v>770</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -4557,11 +5625,11 @@
       <c r="E2" s="18">
         <v>72.835400000000007</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="18" t="s">
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>426</v>
+        <v>770</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -4776,7 +5844,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>423</v>
+        <v>767</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -4830,7 +5898,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>105</v>
@@ -4859,7 +5927,7 @@
         <v>118</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>110</v>
@@ -4891,7 +5959,7 @@
         <v>202</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>110</v>
@@ -4923,7 +5991,7 @@
         <v>203</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>110</v>
@@ -4955,7 +6023,7 @@
         <v>204</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>110</v>
@@ -4987,7 +6055,7 @@
         <v>205</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>110</v>
@@ -5019,7 +6087,7 @@
         <v>206</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>110</v>
@@ -5051,7 +6119,7 @@
         <v>207</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>110</v>
@@ -5083,7 +6151,7 @@
         <v>209</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>110</v>
@@ -5164,7 +6232,7 @@
         <v>215</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
         <v>213</v>
@@ -5182,7 +6250,7 @@
         <v>215</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F3" t="s">
         <v>213</v>
@@ -5200,7 +6268,7 @@
         <v>215</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
         <v>213</v>
@@ -5218,7 +6286,7 @@
         <v>215</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
         <v>213</v>
@@ -5236,7 +6304,7 @@
         <v>215</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
         <v>213</v>
@@ -5254,7 +6322,7 @@
         <v>215</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F7" t="s">
         <v>213</v>
@@ -5322,10 +6390,10 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>718</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -5336,10 +6404,10 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>718</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -5353,7 +6421,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -5381,7 +6449,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -5395,7 +6463,7 @@
         <v>67</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="808">
   <si>
     <t>TestCases</t>
   </si>
@@ -2364,6 +2364,111 @@
   </si>
   <si>
     <t>659871362619353</t>
+  </si>
+  <si>
+    <t>7178813881</t>
+  </si>
+  <si>
+    <t>Rosey</t>
+  </si>
+  <si>
+    <t>AmirKalita15942@example.net</t>
+  </si>
+  <si>
+    <t>1983-04-09</t>
+  </si>
+  <si>
+    <t>247262860883221</t>
+  </si>
+  <si>
+    <t>60e61bfff6256c8c</t>
+  </si>
+  <si>
+    <t>704282613735359</t>
+  </si>
+  <si>
+    <t>7161039127</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>PradeepDayal43651@example.net</t>
+  </si>
+  <si>
+    <t>1992-04-04</t>
+  </si>
+  <si>
+    <t>033877701936009</t>
+  </si>
+  <si>
+    <t>320382a5e1aa4f13</t>
+  </si>
+  <si>
+    <t>268713486902070</t>
+  </si>
+  <si>
+    <t>8002890074</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>HimeshPanchal51013@example.net</t>
+  </si>
+  <si>
+    <t>1976-05-21</t>
+  </si>
+  <si>
+    <t>638282783938891</t>
+  </si>
+  <si>
+    <t>08befb2d734bfd16</t>
+  </si>
+  <si>
+    <t>581580681683445</t>
+  </si>
+  <si>
+    <t>7186394122</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>SaurabhPatil15814@example.net</t>
+  </si>
+  <si>
+    <t>1977-02-08</t>
+  </si>
+  <si>
+    <t>401920741835171</t>
+  </si>
+  <si>
+    <t>8346412d6926d5d4</t>
+  </si>
+  <si>
+    <t>426005949666635</t>
+  </si>
+  <si>
+    <t>9782515139</t>
+  </si>
+  <si>
+    <t>Meghana</t>
+  </si>
+  <si>
+    <t>KarimPrashad39732@example.net</t>
+  </si>
+  <si>
+    <t>1982-12-03</t>
+  </si>
+  <si>
+    <t>606073416063886</t>
+  </si>
+  <si>
+    <t>3481f4a44fc41f53</t>
+  </si>
+  <si>
+    <t>742442300060719</t>
   </si>
 </sst>
 </file>
@@ -2863,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3430,16 +3535,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="C2" t="s">
-        <v>772</v>
+        <v>807</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3655,13 +3760,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5013,10 +5118,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="E2" t="s">
-        <v>768</v>
+        <v>803</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5028,7 +5133,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5148,7 +5253,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5165,7 +5270,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5182,7 +5287,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5199,7 +5304,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5216,7 +5321,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>766</v>
+        <v>801</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5385,7 +5490,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5629,7 +5734,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>770</v>
+        <v>805</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5844,7 +5949,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>767</v>
+        <v>802</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="828">
   <si>
     <t>TestCases</t>
   </si>
@@ -2469,6 +2469,66 @@
   </si>
   <si>
     <t>742442300060719</t>
+  </si>
+  <si>
+    <t>6933662182</t>
+  </si>
+  <si>
+    <t>Ananya</t>
+  </si>
+  <si>
+    <t>MalikDada32211@example.net</t>
+  </si>
+  <si>
+    <t>1985-01-09</t>
+  </si>
+  <si>
+    <t>082004263201587</t>
+  </si>
+  <si>
+    <t>b693b7a05769f0e1</t>
+  </si>
+  <si>
+    <t>746385837731367</t>
+  </si>
+  <si>
+    <t>8734277280</t>
+  </si>
+  <si>
+    <t>DevendraSani58235@example.net</t>
+  </si>
+  <si>
+    <t>1976-01-22</t>
+  </si>
+  <si>
+    <t>836542541003712</t>
+  </si>
+  <si>
+    <t>f77f52f42539c5b8</t>
+  </si>
+  <si>
+    <t>473355180155513</t>
+  </si>
+  <si>
+    <t>8092639727</t>
+  </si>
+  <si>
+    <t>Vineeta</t>
+  </si>
+  <si>
+    <t>ArpitKalita18441@example.net</t>
+  </si>
+  <si>
+    <t>1986-06-20</t>
+  </si>
+  <si>
+    <t>391038636879600</t>
+  </si>
+  <si>
+    <t>a618e0ed3c2d8655</t>
+  </si>
+  <si>
+    <t>886824869928970</t>
   </si>
 </sst>
 </file>
@@ -2968,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3535,16 +3595,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="C2" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3760,13 +3820,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5118,10 +5178,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="E2" t="s">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5133,7 +5193,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5253,7 +5313,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5270,7 +5330,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5287,7 +5347,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5304,7 +5364,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5321,7 +5381,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5490,7 +5550,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5734,7 +5794,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -5949,7 +6009,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="1352">
   <si>
     <t>TestCases</t>
   </si>
@@ -2529,6 +2529,1578 @@
   </si>
   <si>
     <t>886824869928970</t>
+  </si>
+  <si>
+    <t>6566689713</t>
+  </si>
+  <si>
+    <t>Bhairavi</t>
+  </si>
+  <si>
+    <t>NakulJha46490@example.net</t>
+  </si>
+  <si>
+    <t>1971-03-16</t>
+  </si>
+  <si>
+    <t>251889163983846</t>
+  </si>
+  <si>
+    <t>3e45a84bd9f53c0d</t>
+  </si>
+  <si>
+    <t>703229402726249</t>
+  </si>
+  <si>
+    <t>7499075008</t>
+  </si>
+  <si>
+    <t>Gunjan</t>
+  </si>
+  <si>
+    <t>NawabPingle55273@example.net</t>
+  </si>
+  <si>
+    <t>1974-07-17</t>
+  </si>
+  <si>
+    <t>942069583048026</t>
+  </si>
+  <si>
+    <t>ac78bb7898f0f7aa</t>
+  </si>
+  <si>
+    <t>600787944417274</t>
+  </si>
+  <si>
+    <t>7310569887</t>
+  </si>
+  <si>
+    <t>Vaishali</t>
+  </si>
+  <si>
+    <t>HassanMurthy20991@example.net</t>
+  </si>
+  <si>
+    <t>1991-06-23</t>
+  </si>
+  <si>
+    <t>151078974795430</t>
+  </si>
+  <si>
+    <t>52cc80054b93c36e</t>
+  </si>
+  <si>
+    <t>792229535525627</t>
+  </si>
+  <si>
+    <t>IDEP6741316474417K9Y</t>
+  </si>
+  <si>
+    <t>9373601185</t>
+  </si>
+  <si>
+    <t>Bhaagyasree</t>
+  </si>
+  <si>
+    <t>FarazBorra94753@example.net</t>
+  </si>
+  <si>
+    <t>1977-07-25</t>
+  </si>
+  <si>
+    <t>954495190932341</t>
+  </si>
+  <si>
+    <t>a24947c27fb43ea8</t>
+  </si>
+  <si>
+    <t>763002310632453</t>
+  </si>
+  <si>
+    <t>IDEP6741321623865STD</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>59999715102</t>
+  </si>
+  <si>
+    <t>PHRBQS</t>
+  </si>
+  <si>
+    <t>BNPL1764323445466847</t>
+  </si>
+  <si>
+    <t>59999402022</t>
+  </si>
+  <si>
+    <t>HKFTOC</t>
+  </si>
+  <si>
+    <t>59999903146</t>
+  </si>
+  <si>
+    <t>UNKRAM</t>
+  </si>
+  <si>
+    <t>59999826041</t>
+  </si>
+  <si>
+    <t>LEFODJ</t>
+  </si>
+  <si>
+    <t>59999437858</t>
+  </si>
+  <si>
+    <t>MBLGTE</t>
+  </si>
+  <si>
+    <t>59999291343</t>
+  </si>
+  <si>
+    <t>SQPPCR</t>
+  </si>
+  <si>
+    <t>59999531562</t>
+  </si>
+  <si>
+    <t>DJRIBI</t>
+  </si>
+  <si>
+    <t>59999943151</t>
+  </si>
+  <si>
+    <t>ENGUPG</t>
+  </si>
+  <si>
+    <t>59999098131</t>
+  </si>
+  <si>
+    <t>HNHEBP</t>
+  </si>
+  <si>
+    <t>59999973830</t>
+  </si>
+  <si>
+    <t>NOOQQH</t>
+  </si>
+  <si>
+    <t>335577019373601185</t>
+  </si>
+  <si>
+    <t>ICIC91431835800</t>
+  </si>
+  <si>
+    <t>ICIC89177070080</t>
+  </si>
+  <si>
+    <t>6003710608</t>
+  </si>
+  <si>
+    <t>Nishita</t>
+  </si>
+  <si>
+    <t>AlexGour16012@example.net</t>
+  </si>
+  <si>
+    <t>1983-11-04</t>
+  </si>
+  <si>
+    <t>263237205701881</t>
+  </si>
+  <si>
+    <t>dc9df7ab5267846c</t>
+  </si>
+  <si>
+    <t>038206832489917</t>
+  </si>
+  <si>
+    <t>7587061303</t>
+  </si>
+  <si>
+    <t>Parminder</t>
+  </si>
+  <si>
+    <t>AjayJayaraman79120@example.net</t>
+  </si>
+  <si>
+    <t>1980-12-08</t>
+  </si>
+  <si>
+    <t>189509956448412</t>
+  </si>
+  <si>
+    <t>2f2191c49b329641</t>
+  </si>
+  <si>
+    <t>527008652722593</t>
+  </si>
+  <si>
+    <t>IDEP614733833234P1SU</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>59999422768</t>
+  </si>
+  <si>
+    <t>TNLMAD</t>
+  </si>
+  <si>
+    <t>BNPL1674332134777613</t>
+  </si>
+  <si>
+    <t>59999740888</t>
+  </si>
+  <si>
+    <t>OHDSGL</t>
+  </si>
+  <si>
+    <t>59999866265</t>
+  </si>
+  <si>
+    <t>NFAAOR</t>
+  </si>
+  <si>
+    <t>59999720121</t>
+  </si>
+  <si>
+    <t>EDBBBK</t>
+  </si>
+  <si>
+    <t>59999164557</t>
+  </si>
+  <si>
+    <t>PPCCDP</t>
+  </si>
+  <si>
+    <t>59999855201</t>
+  </si>
+  <si>
+    <t>RGIRQA</t>
+  </si>
+  <si>
+    <t>59999264551</t>
+  </si>
+  <si>
+    <t>SOELKB</t>
+  </si>
+  <si>
+    <t>59999225225</t>
+  </si>
+  <si>
+    <t>ANPOAR</t>
+  </si>
+  <si>
+    <t>59999955410</t>
+  </si>
+  <si>
+    <t>NLOQKO</t>
+  </si>
+  <si>
+    <t>59999259607</t>
+  </si>
+  <si>
+    <t>DEMGRL</t>
+  </si>
+  <si>
+    <t>335577017587061303</t>
+  </si>
+  <si>
+    <t>ICIC99033972208</t>
+  </si>
+  <si>
+    <t>ICIC89202370653</t>
+  </si>
+  <si>
+    <t>9939443894</t>
+  </si>
+  <si>
+    <t>Naina</t>
+  </si>
+  <si>
+    <t>FaisalBarman21709@example.net</t>
+  </si>
+  <si>
+    <t>1984-12-08</t>
+  </si>
+  <si>
+    <t>403152234904060</t>
+  </si>
+  <si>
+    <t>a941c26a391f5f5c</t>
+  </si>
+  <si>
+    <t>201666977197412</t>
+  </si>
+  <si>
+    <t>IDEP176437888411KJES</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>59999450613</t>
+  </si>
+  <si>
+    <t>AKKJNQ</t>
+  </si>
+  <si>
+    <t>BNPL4761388582695842</t>
+  </si>
+  <si>
+    <t>59999388409</t>
+  </si>
+  <si>
+    <t>IATFJD</t>
+  </si>
+  <si>
+    <t>59999211752</t>
+  </si>
+  <si>
+    <t>UGCRFC</t>
+  </si>
+  <si>
+    <t>59999181613</t>
+  </si>
+  <si>
+    <t>SQEPLS</t>
+  </si>
+  <si>
+    <t>59999835990</t>
+  </si>
+  <si>
+    <t>SMGFBM</t>
+  </si>
+  <si>
+    <t>59999449636</t>
+  </si>
+  <si>
+    <t>HTHDKT</t>
+  </si>
+  <si>
+    <t>59999443174</t>
+  </si>
+  <si>
+    <t>EKSMAS</t>
+  </si>
+  <si>
+    <t>59999105575</t>
+  </si>
+  <si>
+    <t>QFCISR</t>
+  </si>
+  <si>
+    <t>59999260571</t>
+  </si>
+  <si>
+    <t>LOCQPJ</t>
+  </si>
+  <si>
+    <t>59999304663</t>
+  </si>
+  <si>
+    <t>AHMHHA</t>
+  </si>
+  <si>
+    <t>335577019939443894</t>
+  </si>
+  <si>
+    <t>ICIC90885753089</t>
+  </si>
+  <si>
+    <t>ICIC87888145946</t>
+  </si>
+  <si>
+    <t>6029249852</t>
+  </si>
+  <si>
+    <t>GhanshyamNatarajan65827@example.net</t>
+  </si>
+  <si>
+    <t>1985-08-26</t>
+  </si>
+  <si>
+    <t>864999789912498</t>
+  </si>
+  <si>
+    <t>5645009fcef5cc0d</t>
+  </si>
+  <si>
+    <t>748158950702202</t>
+  </si>
+  <si>
+    <t>IDEP4176438179563QLD</t>
+  </si>
+  <si>
+    <t>6844483761</t>
+  </si>
+  <si>
+    <t>Heena</t>
+  </si>
+  <si>
+    <t>QadimDube27994@example.net</t>
+  </si>
+  <si>
+    <t>1991-03-26</t>
+  </si>
+  <si>
+    <t>517456620600049</t>
+  </si>
+  <si>
+    <t>61c7ee6c918f3a35</t>
+  </si>
+  <si>
+    <t>180406958069560</t>
+  </si>
+  <si>
+    <t>IDEP741643164717FQCS</t>
+  </si>
+  <si>
+    <t>8405977423</t>
+  </si>
+  <si>
+    <t>Aisha</t>
+  </si>
+  <si>
+    <t>RameshMahajan15596@example.net</t>
+  </si>
+  <si>
+    <t>1977-06-06</t>
+  </si>
+  <si>
+    <t>098351015822083</t>
+  </si>
+  <si>
+    <t>2e9bbb25924ca8fe</t>
+  </si>
+  <si>
+    <t>480576273955722</t>
+  </si>
+  <si>
+    <t>IDEP764143323226EXA9</t>
+  </si>
+  <si>
+    <t>8383931025</t>
+  </si>
+  <si>
+    <t>Sameedha</t>
+  </si>
+  <si>
+    <t>NayanNarayan46372@example.net</t>
+  </si>
+  <si>
+    <t>1983-10-20</t>
+  </si>
+  <si>
+    <t>705687891212633</t>
+  </si>
+  <si>
+    <t>2f509c890050fbbf</t>
+  </si>
+  <si>
+    <t>406123154826200</t>
+  </si>
+  <si>
+    <t>IDEP467143482298A7OV</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>59999393936</t>
+  </si>
+  <si>
+    <t>QKEJPJ</t>
+  </si>
+  <si>
+    <t>BNPL6417435814122193</t>
+  </si>
+  <si>
+    <t>59999550432</t>
+  </si>
+  <si>
+    <t>PDNEKL</t>
+  </si>
+  <si>
+    <t>59999730095</t>
+  </si>
+  <si>
+    <t>BKMMAB</t>
+  </si>
+  <si>
+    <t>59999799282</t>
+  </si>
+  <si>
+    <t>ABMTBJ</t>
+  </si>
+  <si>
+    <t>59999129139</t>
+  </si>
+  <si>
+    <t>PBJEJE</t>
+  </si>
+  <si>
+    <t>59999353954</t>
+  </si>
+  <si>
+    <t>HDMEUB</t>
+  </si>
+  <si>
+    <t>59999231145</t>
+  </si>
+  <si>
+    <t>UQEKGO</t>
+  </si>
+  <si>
+    <t>59999087253</t>
+  </si>
+  <si>
+    <t>FSQLSA</t>
+  </si>
+  <si>
+    <t>59999804465</t>
+  </si>
+  <si>
+    <t>KLALBE</t>
+  </si>
+  <si>
+    <t>6103963991</t>
+  </si>
+  <si>
+    <t>Amolika</t>
+  </si>
+  <si>
+    <t>AjeetDas18674@example.net</t>
+  </si>
+  <si>
+    <t>1975-08-26</t>
+  </si>
+  <si>
+    <t>318210764211688</t>
+  </si>
+  <si>
+    <t>ee50819ae20704af</t>
+  </si>
+  <si>
+    <t>285631741316838</t>
+  </si>
+  <si>
+    <t>IDEP476143538286UMOD</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>59999606719</t>
+  </si>
+  <si>
+    <t>JDOEJI</t>
+  </si>
+  <si>
+    <t>BNPL7461435889639236</t>
+  </si>
+  <si>
+    <t>59999356817</t>
+  </si>
+  <si>
+    <t>ROBERS</t>
+  </si>
+  <si>
+    <t>59999848755</t>
+  </si>
+  <si>
+    <t>BPHJAA</t>
+  </si>
+  <si>
+    <t>59999506329</t>
+  </si>
+  <si>
+    <t>GIASUE</t>
+  </si>
+  <si>
+    <t>59999877559</t>
+  </si>
+  <si>
+    <t>COCCLU</t>
+  </si>
+  <si>
+    <t>59999335834</t>
+  </si>
+  <si>
+    <t>OEHMPC</t>
+  </si>
+  <si>
+    <t>59999960946</t>
+  </si>
+  <si>
+    <t>IKRUOH</t>
+  </si>
+  <si>
+    <t>59999966217</t>
+  </si>
+  <si>
+    <t>OKLDQO</t>
+  </si>
+  <si>
+    <t>59999423647</t>
+  </si>
+  <si>
+    <t>DOPFJB</t>
+  </si>
+  <si>
+    <t>59999608282</t>
+  </si>
+  <si>
+    <t>MGLTSS</t>
+  </si>
+  <si>
+    <t>335577018383931025</t>
+  </si>
+  <si>
+    <t>ICIC94612694049</t>
+  </si>
+  <si>
+    <t>ICIC80583406881</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>59999022632</t>
+  </si>
+  <si>
+    <t>QEEGUO</t>
+  </si>
+  <si>
+    <t>BNPL7164437233834853</t>
+  </si>
+  <si>
+    <t>7631216060</t>
+  </si>
+  <si>
+    <t>Jiya</t>
+  </si>
+  <si>
+    <t>ManishDyal10476@example.net</t>
+  </si>
+  <si>
+    <t>1983-05-31</t>
+  </si>
+  <si>
+    <t>394079488759497</t>
+  </si>
+  <si>
+    <t>53e5cfc21d0d92d9</t>
+  </si>
+  <si>
+    <t>009945604675709</t>
+  </si>
+  <si>
+    <t>IDEP1674438922855UXZ</t>
+  </si>
+  <si>
+    <t>7209488810</t>
+  </si>
+  <si>
+    <t>RamWadhwa18482@example.net</t>
+  </si>
+  <si>
+    <t>1980-07-25</t>
+  </si>
+  <si>
+    <t>257562151109377</t>
+  </si>
+  <si>
+    <t>ace001680dcdf513</t>
+  </si>
+  <si>
+    <t>214371838474291</t>
+  </si>
+  <si>
+    <t>IDEP641744123444P7Z4</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>59999148704</t>
+  </si>
+  <si>
+    <t>JJPNQP</t>
+  </si>
+  <si>
+    <t>BNPL4167443118347195</t>
+  </si>
+  <si>
+    <t>59999001346</t>
+  </si>
+  <si>
+    <t>SBDKRO</t>
+  </si>
+  <si>
+    <t>59999760417</t>
+  </si>
+  <si>
+    <t>RNDHUU</t>
+  </si>
+  <si>
+    <t>59999320518</t>
+  </si>
+  <si>
+    <t>JRQBUK</t>
+  </si>
+  <si>
+    <t>59999094232</t>
+  </si>
+  <si>
+    <t>DFHMJK</t>
+  </si>
+  <si>
+    <t>59999581906</t>
+  </si>
+  <si>
+    <t>RUTOPD</t>
+  </si>
+  <si>
+    <t>59999955559</t>
+  </si>
+  <si>
+    <t>DLOBRF</t>
+  </si>
+  <si>
+    <t>59999289132</t>
+  </si>
+  <si>
+    <t>PREGCR</t>
+  </si>
+  <si>
+    <t>59999678006</t>
+  </si>
+  <si>
+    <t>GAPOIF</t>
+  </si>
+  <si>
+    <t>59999110318</t>
+  </si>
+  <si>
+    <t>KHPACD</t>
+  </si>
+  <si>
+    <t>335577017209488810</t>
+  </si>
+  <si>
+    <t>ICIC82859191077</t>
+  </si>
+  <si>
+    <t>ICIC93421603571</t>
+  </si>
+  <si>
+    <t>6915152394</t>
+  </si>
+  <si>
+    <t>Bimla</t>
+  </si>
+  <si>
+    <t>EmranIyer38571@example.net</t>
+  </si>
+  <si>
+    <t>1986-07-22</t>
+  </si>
+  <si>
+    <t>840541604815438</t>
+  </si>
+  <si>
+    <t>011053d9fa141617</t>
+  </si>
+  <si>
+    <t>633753963383483</t>
+  </si>
+  <si>
+    <t>IDEP614744522774816Z</t>
+  </si>
+  <si>
+    <t>9401022212</t>
+  </si>
+  <si>
+    <t>GajendraDyal62537@example.net</t>
+  </si>
+  <si>
+    <t>1992-06-26</t>
+  </si>
+  <si>
+    <t>431672280811014</t>
+  </si>
+  <si>
+    <t>6c4398b749fa0052</t>
+  </si>
+  <si>
+    <t>143088316804411</t>
+  </si>
+  <si>
+    <t>IDEP147644647846ZL83</t>
+  </si>
+  <si>
+    <t>6179742879</t>
+  </si>
+  <si>
+    <t>Sameera</t>
+  </si>
+  <si>
+    <t>KalyanNatt64109@example.net</t>
+  </si>
+  <si>
+    <t>1994-10-25</t>
+  </si>
+  <si>
+    <t>467551524990510</t>
+  </si>
+  <si>
+    <t>8a711b01c714bb18</t>
+  </si>
+  <si>
+    <t>655050097205978</t>
+  </si>
+  <si>
+    <t>IDEP467144877914LX7F</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>59999182122</t>
+  </si>
+  <si>
+    <t>BETMPP</t>
+  </si>
+  <si>
+    <t>BNPL6147458591294571</t>
+  </si>
+  <si>
+    <t>59999309428</t>
+  </si>
+  <si>
+    <t>UIFCDT</t>
+  </si>
+  <si>
+    <t>59999012153</t>
+  </si>
+  <si>
+    <t>TTUBKI</t>
+  </si>
+  <si>
+    <t>59999888209</t>
+  </si>
+  <si>
+    <t>RNCMNK</t>
+  </si>
+  <si>
+    <t>59999948631</t>
+  </si>
+  <si>
+    <t>TRBQGA</t>
+  </si>
+  <si>
+    <t>59999937256</t>
+  </si>
+  <si>
+    <t>BDCJAQ</t>
+  </si>
+  <si>
+    <t>59999312372</t>
+  </si>
+  <si>
+    <t>JHDTHQ</t>
+  </si>
+  <si>
+    <t>59999574766</t>
+  </si>
+  <si>
+    <t>GGHCIO</t>
+  </si>
+  <si>
+    <t>59999126304</t>
+  </si>
+  <si>
+    <t>HRPALM</t>
+  </si>
+  <si>
+    <t>59999911282</t>
+  </si>
+  <si>
+    <t>BQNGMM</t>
+  </si>
+  <si>
+    <t>335577016179742879</t>
+  </si>
+  <si>
+    <t>ICIC98379031302</t>
+  </si>
+  <si>
+    <t>ICIC84230042289</t>
+  </si>
+  <si>
+    <t>8776374390</t>
+  </si>
+  <si>
+    <t>Namita</t>
+  </si>
+  <si>
+    <t>DineshSastry70310@example.net</t>
+  </si>
+  <si>
+    <t>1994-09-13</t>
+  </si>
+  <si>
+    <t>515824326611770</t>
+  </si>
+  <si>
+    <t>be996c45a7114d4f</t>
+  </si>
+  <si>
+    <t>080078091159151</t>
+  </si>
+  <si>
+    <t>IDEP6471465311246GB8</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>59999747434</t>
+  </si>
+  <si>
+    <t>LJOHTJ</t>
+  </si>
+  <si>
+    <t>59999870080</t>
+  </si>
+  <si>
+    <t>EFDFOM</t>
+  </si>
+  <si>
+    <t>59999222150</t>
+  </si>
+  <si>
+    <t>KRIFFJ</t>
+  </si>
+  <si>
+    <t>59999417397</t>
+  </si>
+  <si>
+    <t>CRABUF</t>
+  </si>
+  <si>
+    <t>59999936580</t>
+  </si>
+  <si>
+    <t>PSATBM</t>
+  </si>
+  <si>
+    <t>59999514095</t>
+  </si>
+  <si>
+    <t>UDUSHP</t>
+  </si>
+  <si>
+    <t>59999363059</t>
+  </si>
+  <si>
+    <t>LTABHR</t>
+  </si>
+  <si>
+    <t>59999832963</t>
+  </si>
+  <si>
+    <t>RLTPFU</t>
+  </si>
+  <si>
+    <t>59999401772</t>
+  </si>
+  <si>
+    <t>QOIAEK</t>
+  </si>
+  <si>
+    <t>59999883968</t>
+  </si>
+  <si>
+    <t>ELFTRT</t>
+  </si>
+  <si>
+    <t>7580247558</t>
+  </si>
+  <si>
+    <t>Kanika</t>
+  </si>
+  <si>
+    <t>GauravTank68501@example.net</t>
+  </si>
+  <si>
+    <t>1990-12-14</t>
+  </si>
+  <si>
+    <t>313325880239010</t>
+  </si>
+  <si>
+    <t>6027e16229909234</t>
+  </si>
+  <si>
+    <t>351711754423678</t>
+  </si>
+  <si>
+    <t>6245161631</t>
+  </si>
+  <si>
+    <t>Upasana</t>
+  </si>
+  <si>
+    <t>FerozGuha26130@example.net</t>
+  </si>
+  <si>
+    <t>1972-07-26</t>
+  </si>
+  <si>
+    <t>132711870317065</t>
+  </si>
+  <si>
+    <t>19bcb7f459f2b90a</t>
+  </si>
+  <si>
+    <t>236339600740557</t>
+  </si>
+  <si>
+    <t>IDEP174646869887RLDE</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>59999043755</t>
+  </si>
+  <si>
+    <t>PBHSCE</t>
+  </si>
+  <si>
+    <t>59999644577</t>
+  </si>
+  <si>
+    <t>OJLPBN</t>
+  </si>
+  <si>
+    <t>59999927261</t>
+  </si>
+  <si>
+    <t>HNOLOO</t>
+  </si>
+  <si>
+    <t>59999036963</t>
+  </si>
+  <si>
+    <t>GCPNON</t>
+  </si>
+  <si>
+    <t>59999088495</t>
+  </si>
+  <si>
+    <t>SPRRBL</t>
+  </si>
+  <si>
+    <t>59999731144</t>
+  </si>
+  <si>
+    <t>RQKRAC</t>
+  </si>
+  <si>
+    <t>59999761130</t>
+  </si>
+  <si>
+    <t>OJUOEF</t>
+  </si>
+  <si>
+    <t>59999465190</t>
+  </si>
+  <si>
+    <t>PNRMFC</t>
+  </si>
+  <si>
+    <t>59999908029</t>
+  </si>
+  <si>
+    <t>APKPCR</t>
+  </si>
+  <si>
+    <t>59999145256</t>
+  </si>
+  <si>
+    <t>ONIUCM</t>
+  </si>
+  <si>
+    <t>6015120885</t>
+  </si>
+  <si>
+    <t>Hina</t>
+  </si>
+  <si>
+    <t>KailashSandhu18732@example.net</t>
+  </si>
+  <si>
+    <t>1976-04-26</t>
+  </si>
+  <si>
+    <t>102513034765288</t>
+  </si>
+  <si>
+    <t>9a83b24b2b32268d</t>
+  </si>
+  <si>
+    <t>559361419244729</t>
+  </si>
+  <si>
+    <t>7050937836</t>
+  </si>
+  <si>
+    <t>Aruna</t>
+  </si>
+  <si>
+    <t>RameshBhattacharyya30336@example.net</t>
+  </si>
+  <si>
+    <t>1994-08-06</t>
+  </si>
+  <si>
+    <t>459460420763700</t>
+  </si>
+  <si>
+    <t>8425ed5f8bc55dea</t>
+  </si>
+  <si>
+    <t>737127143311802</t>
+  </si>
+  <si>
+    <t>IDEP4176497659886W2E</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>59999724868</t>
+  </si>
+  <si>
+    <t>ADIQJT</t>
+  </si>
+  <si>
+    <t>BNPL1674499416331395</t>
+  </si>
+  <si>
+    <t>59999899413</t>
+  </si>
+  <si>
+    <t>SKEHSH</t>
+  </si>
+  <si>
+    <t>59999266285</t>
+  </si>
+  <si>
+    <t>QLORFH</t>
+  </si>
+  <si>
+    <t>59999167070</t>
+  </si>
+  <si>
+    <t>NUMKHH</t>
+  </si>
+  <si>
+    <t>59999676864</t>
+  </si>
+  <si>
+    <t>IDSEEO</t>
+  </si>
+  <si>
+    <t>59999262224</t>
+  </si>
+  <si>
+    <t>ATAHTF</t>
+  </si>
+  <si>
+    <t>59999206939</t>
+  </si>
+  <si>
+    <t>QPTAAT</t>
+  </si>
+  <si>
+    <t>59999516484</t>
+  </si>
+  <si>
+    <t>IFNLBF</t>
+  </si>
+  <si>
+    <t>59999841357</t>
+  </si>
+  <si>
+    <t>FRCFFQ</t>
+  </si>
+  <si>
+    <t>59999531650</t>
+  </si>
+  <si>
+    <t>CIDNMO</t>
+  </si>
+  <si>
+    <t>335577017050937836</t>
+  </si>
+  <si>
+    <t>ICIC84324470397</t>
+  </si>
+  <si>
+    <t>ICIC82729398855</t>
+  </si>
+  <si>
+    <t>8175242062</t>
+  </si>
+  <si>
+    <t>AbbasSathe89590@example.net</t>
+  </si>
+  <si>
+    <t>1974-12-18</t>
+  </si>
+  <si>
+    <t>964211724813818</t>
+  </si>
+  <si>
+    <t>e8bd0272bb1339db</t>
+  </si>
+  <si>
+    <t>920654717682547</t>
+  </si>
+  <si>
+    <t>IDEP741617712454PXZ3</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>59999278051</t>
+  </si>
+  <si>
+    <t>PDCSGD</t>
+  </si>
+  <si>
+    <t>BNPL6741179898993472</t>
+  </si>
+  <si>
+    <t>59999898037</t>
+  </si>
+  <si>
+    <t>TQIQMI</t>
+  </si>
+  <si>
+    <t>59999285040</t>
+  </si>
+  <si>
+    <t>IRIFPH</t>
+  </si>
+  <si>
+    <t>59999064360</t>
+  </si>
+  <si>
+    <t>KNREKR</t>
+  </si>
+  <si>
+    <t>59999947288</t>
+  </si>
+  <si>
+    <t>FMDSNQ</t>
+  </si>
+  <si>
+    <t>59999715075</t>
+  </si>
+  <si>
+    <t>ISKRNO</t>
+  </si>
+  <si>
+    <t>59999139438</t>
+  </si>
+  <si>
+    <t>GITELT</t>
+  </si>
+  <si>
+    <t>59999894718</t>
+  </si>
+  <si>
+    <t>DKDSIE</t>
+  </si>
+  <si>
+    <t>59999893613</t>
+  </si>
+  <si>
+    <t>QEARIL</t>
+  </si>
+  <si>
+    <t>59999796608</t>
+  </si>
+  <si>
+    <t>TNRURF</t>
+  </si>
+  <si>
+    <t>335577018175242062</t>
+  </si>
+  <si>
+    <t>ICIC81181432480</t>
+  </si>
+  <si>
+    <t>ICIC94010238094</t>
+  </si>
+  <si>
+    <t>8304917027</t>
+  </si>
+  <si>
+    <t>Sukriti</t>
+  </si>
+  <si>
+    <t>SahilKala73848@example.net</t>
+  </si>
+  <si>
+    <t>1993-03-09</t>
+  </si>
+  <si>
+    <t>961926792357116</t>
+  </si>
+  <si>
+    <t>fcf5403d575ad10f</t>
+  </si>
+  <si>
+    <t>396632441460302</t>
+  </si>
+  <si>
+    <t>IDEP176421884955YF15</t>
+  </si>
+  <si>
+    <t>59999698256</t>
+  </si>
+  <si>
+    <t>GMABCU</t>
+  </si>
+  <si>
+    <t>BNPL6471228186387859</t>
+  </si>
+  <si>
+    <t>59999759813</t>
+  </si>
+  <si>
+    <t>ITBBSG</t>
+  </si>
+  <si>
+    <t>59999835681</t>
+  </si>
+  <si>
+    <t>KEGUDL</t>
+  </si>
+  <si>
+    <t>59999204983</t>
+  </si>
+  <si>
+    <t>PPMQHR</t>
+  </si>
+  <si>
+    <t>59999924961</t>
+  </si>
+  <si>
+    <t>GUDEBA</t>
+  </si>
+  <si>
+    <t>59999231369</t>
+  </si>
+  <si>
+    <t>DHKCAG</t>
+  </si>
+  <si>
+    <t>59999573219</t>
+  </si>
+  <si>
+    <t>EUFSKD</t>
+  </si>
+  <si>
+    <t>59999097650</t>
+  </si>
+  <si>
+    <t>NMJEEQ</t>
+  </si>
+  <si>
+    <t>59999299521</t>
+  </si>
+  <si>
+    <t>JLMHOR</t>
+  </si>
+  <si>
+    <t>59999939958</t>
+  </si>
+  <si>
+    <t>HDUOKN</t>
+  </si>
+  <si>
+    <t>335577018304917027</t>
+  </si>
+  <si>
+    <t>ICIC90849395467</t>
+  </si>
+  <si>
+    <t>ICIC87499406020</t>
+  </si>
+  <si>
+    <t>7021615615</t>
+  </si>
+  <si>
+    <t>Rimi</t>
+  </si>
+  <si>
+    <t>UmarSarraf30825@example.net</t>
+  </si>
+  <si>
+    <t>1995-04-24</t>
+  </si>
+  <si>
+    <t>603520567029028</t>
+  </si>
+  <si>
+    <t>77af9f34cbabce69</t>
+  </si>
+  <si>
+    <t>015843664870637</t>
+  </si>
+  <si>
+    <t>IDEP715664315165RNTU</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>59999133306</t>
+  </si>
+  <si>
+    <t>BTJCQC</t>
+  </si>
+  <si>
+    <t>BNPL1567644823624527</t>
+  </si>
+  <si>
+    <t>59999201384</t>
+  </si>
+  <si>
+    <t>QKEDMF</t>
+  </si>
+  <si>
+    <t>59999812924</t>
+  </si>
+  <si>
+    <t>MNHEFE</t>
+  </si>
+  <si>
+    <t>59999951938</t>
+  </si>
+  <si>
+    <t>CCSEON</t>
+  </si>
+  <si>
+    <t>59999591987</t>
+  </si>
+  <si>
+    <t>SDIJJI</t>
+  </si>
+  <si>
+    <t>59999239271</t>
+  </si>
+  <si>
+    <t>TPMEJG</t>
+  </si>
+  <si>
+    <t>59999530628</t>
+  </si>
+  <si>
+    <t>JMPNFQ</t>
+  </si>
+  <si>
+    <t>59999676933</t>
+  </si>
+  <si>
+    <t>NPNMFP</t>
+  </si>
+  <si>
+    <t>59999079353</t>
+  </si>
+  <si>
+    <t>MNQJBK</t>
+  </si>
+  <si>
+    <t>59999185248</t>
+  </si>
+  <si>
+    <t>ETGOOR</t>
+  </si>
+  <si>
+    <t>335577017021615615</t>
+  </si>
+  <si>
+    <t>ICIC94775078241</t>
+  </si>
+  <si>
+    <t>ICIC87486047693</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +4600,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>821</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3147,21 +4719,23 @@
       <c r="A2" t="s">
         <v>129</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1324</v>
+      </c>
       <c r="C2" t="s">
-        <v>718</v>
+        <v>1327</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>738</v>
+        <v>1347</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>739</v>
+        <v>1348</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -3498,7 +5072,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>721</v>
+        <v>1330</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -3595,16 +5169,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>826</v>
+        <v>1322</v>
       </c>
       <c r="C2" t="s">
-        <v>827</v>
+        <v>1323</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>825</v>
+        <v>1321</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -3707,7 +5281,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>748</v>
+        <v>1349</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -3719,7 +5293,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>749</v>
+        <v>1350</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -3728,7 +5302,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>160.0</v>
+        <v>130.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -3820,13 +5394,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>822</v>
+        <v>1318</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>823</v>
+        <v>1319</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>824</v>
+        <v>1320</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -5030,7 +6604,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>757</v>
+        <v>1349</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -5042,7 +6616,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>758</v>
+        <v>1351</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5051,7 +6625,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>160.0</v>
+        <v>130.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -5178,10 +6752,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>821</v>
+        <v>1317</v>
       </c>
       <c r="E2" t="s">
-        <v>823</v>
+        <v>1319</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -5193,7 +6767,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>825</v>
+        <v>1321</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -5201,9 +6775,11 @@
       <c r="K2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2"/>
-      <c r="M2" s="2" t="n">
-        <v>4217892.0</v>
+      <c r="L2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4224444.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -5313,7 +6889,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>821</v>
+        <v>1317</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -5330,7 +6906,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>821</v>
+        <v>1317</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -5347,7 +6923,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>821</v>
+        <v>1317</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -5364,7 +6940,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>821</v>
+        <v>1317</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -5381,7 +6957,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>821</v>
+        <v>1317</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -5546,11 +7122,11 @@
       <c r="C2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>825</v>
+        <v>1321</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -5790,11 +7366,11 @@
       <c r="E2" s="18">
         <v>72.835400000000007</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" t="s">
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>825</v>
+        <v>1321</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -6009,7 +7585,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>822</v>
+        <v>1318</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -6389,7 +7965,9 @@
       <c r="A2" t="s">
         <v>214</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1324</v>
+      </c>
       <c r="C2">
         <v>303</v>
       </c>
@@ -6407,7 +7985,9 @@
       <c r="A3" t="s">
         <v>216</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>1324</v>
+      </c>
       <c r="C3">
         <v>563</v>
       </c>
@@ -6425,7 +8005,9 @@
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4"/>
+      <c r="B4" t="s">
+        <v>1324</v>
+      </c>
       <c r="C4">
         <v>645</v>
       </c>
@@ -6443,7 +8025,9 @@
       <c r="A5" t="s">
         <v>224</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="s">
+        <v>1324</v>
+      </c>
       <c r="C5">
         <v>668</v>
       </c>
@@ -6461,7 +8045,9 @@
       <c r="A6" t="s">
         <v>225</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="s">
+        <v>1324</v>
+      </c>
       <c r="C6">
         <v>725</v>
       </c>
@@ -6479,7 +8065,9 @@
       <c r="A7" t="s">
         <v>226</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>1324</v>
+      </c>
       <c r="C7">
         <v>800</v>
       </c>
@@ -6497,7 +8085,9 @@
       <c r="A8" t="s">
         <v>230</v>
       </c>
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>1324</v>
+      </c>
       <c r="C8">
         <v>725</v>
       </c>
@@ -6555,7 +8145,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>718</v>
+        <v>1327</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -6569,7 +8159,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>718</v>
+        <v>1327</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="1367">
   <si>
     <t>TestCases</t>
   </si>
@@ -4101,6 +4101,51 @@
   </si>
   <si>
     <t>ICIC87486047693</t>
+  </si>
+  <si>
+    <t>7226415438</t>
+  </si>
+  <si>
+    <t>Astha</t>
+  </si>
+  <si>
+    <t>TarunRay96790@example.net</t>
+  </si>
+  <si>
+    <t>1987-08-13</t>
+  </si>
+  <si>
+    <t>007130220075343</t>
+  </si>
+  <si>
+    <t>a6c02416d63e0341</t>
+  </si>
+  <si>
+    <t>356592443923897</t>
+  </si>
+  <si>
+    <t>6338787259</t>
+  </si>
+  <si>
+    <t>Ambika</t>
+  </si>
+  <si>
+    <t>GiaanLall20462@example.net</t>
+  </si>
+  <si>
+    <t>1970-01-23</t>
+  </si>
+  <si>
+    <t>400940373988834</t>
+  </si>
+  <si>
+    <t>96d376d7f09eb82e</t>
+  </si>
+  <si>
+    <t>950288960202878</t>
+  </si>
+  <si>
+    <t>IDEP761577981288TXPK</t>
   </si>
 </sst>
 </file>
@@ -4600,7 +4645,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4720,7 +4765,7 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="C2" t="s">
         <v>1327</v>
@@ -5169,16 +5214,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1322</v>
+        <v>1364</v>
       </c>
       <c r="C2" t="s">
-        <v>1323</v>
+        <v>1365</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1321</v>
+        <v>1363</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5394,13 +5439,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1318</v>
+        <v>1360</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1319</v>
+        <v>1361</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1320</v>
+        <v>1362</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6752,10 +6797,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
       <c r="E2" t="s">
-        <v>1319</v>
+        <v>1361</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -6767,7 +6812,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1321</v>
+        <v>1363</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -6776,10 +6821,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="M2" t="n">
-        <v>4224444.0</v>
+        <v>4224660.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -6889,7 +6934,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6906,7 +6951,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6923,7 +6968,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6940,7 +6985,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -6957,7 +7002,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -7126,7 +7171,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1321</v>
+        <v>1363</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -7370,7 +7415,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1321</v>
+        <v>1363</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -7585,7 +7630,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1318</v>
+        <v>1360</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -7966,7 +8011,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -7986,7 +8031,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -8006,7 +8051,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -8026,7 +8071,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -8046,7 +8091,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -8066,7 +8111,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -8086,7 +8131,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1324</v>
+        <v>1366</v>
       </c>
       <c r="C8">
         <v>725</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="1403">
   <si>
     <t>TestCases</t>
   </si>
@@ -4146,6 +4146,114 @@
   </si>
   <si>
     <t>IDEP761577981288TXPK</t>
+  </si>
+  <si>
+    <t>7826254521</t>
+  </si>
+  <si>
+    <t>Jagruti</t>
+  </si>
+  <si>
+    <t>AbbasChana79985@example.net</t>
+  </si>
+  <si>
+    <t>1987-02-20</t>
+  </si>
+  <si>
+    <t>751969863009038</t>
+  </si>
+  <si>
+    <t>cc43ae337d208f10</t>
+  </si>
+  <si>
+    <t>631496565528749</t>
+  </si>
+  <si>
+    <t>IDEP756198113938768W</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>59999320012</t>
+  </si>
+  <si>
+    <t>MJSTIN</t>
+  </si>
+  <si>
+    <t>59999128220</t>
+  </si>
+  <si>
+    <t>HUTNUH</t>
+  </si>
+  <si>
+    <t>59999305150</t>
+  </si>
+  <si>
+    <t>GSQONQ</t>
+  </si>
+  <si>
+    <t>59999806361</t>
+  </si>
+  <si>
+    <t>KECRDD</t>
+  </si>
+  <si>
+    <t>59999014404</t>
+  </si>
+  <si>
+    <t>DSFLDR</t>
+  </si>
+  <si>
+    <t>59999129799</t>
+  </si>
+  <si>
+    <t>BHPJOP</t>
+  </si>
+  <si>
+    <t>59999233813</t>
+  </si>
+  <si>
+    <t>LUGFBN</t>
+  </si>
+  <si>
+    <t>59999092781</t>
+  </si>
+  <si>
+    <t>MTQHDK</t>
+  </si>
+  <si>
+    <t>59999973759</t>
+  </si>
+  <si>
+    <t>DABMBA</t>
+  </si>
+  <si>
+    <t>59999731544</t>
+  </si>
+  <si>
+    <t>DNHKOR</t>
+  </si>
+  <si>
+    <t>8253626016</t>
+  </si>
+  <si>
+    <t>RajNadig33298@example.net</t>
+  </si>
+  <si>
+    <t>1983-01-26</t>
+  </si>
+  <si>
+    <t>190926548272695</t>
+  </si>
+  <si>
+    <t>ddd501e782cad709</t>
+  </si>
+  <si>
+    <t>147373268722514</t>
   </si>
 </sst>
 </file>
@@ -4645,7 +4753,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1359</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4765,22 +4873,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="C2" t="s">
-        <v>1327</v>
+        <v>1376</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1347</v>
+        <v>1395</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>1348</v>
+        <v>1396</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4788,9 +4896,7 @@
       <c r="I2" s="2">
         <v>72.860399999999998</v>
       </c>
-      <c r="J2" t="s">
-        <v>77</v>
-      </c>
+      <c r="J2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -5116,9 +5222,7 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" t="s">
-        <v>1330</v>
-      </c>
+      <c r="B2"/>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -5214,16 +5318,14 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1364</v>
+        <v>1401</v>
       </c>
       <c r="C2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
+        <v>1402</v>
+      </c>
+      <c r="D2"/>
       <c r="E2" t="s">
-        <v>1363</v>
+        <v>1400</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5439,13 +5541,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1360</v>
+        <v>767</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1361</v>
+        <v>1398</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1362</v>
+        <v>1399</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6797,10 +6899,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1359</v>
+        <v>1397</v>
       </c>
       <c r="E2" t="s">
-        <v>1361</v>
+        <v>1398</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -6812,7 +6914,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1363</v>
+        <v>1400</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -6821,10 +6923,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="M2" t="n">
-        <v>4224660.0</v>
+        <v>4224870.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -6934,7 +7036,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1359</v>
+        <v>1397</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -6951,7 +7053,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1359</v>
+        <v>1397</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -6968,7 +7070,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1359</v>
+        <v>1397</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -6985,7 +7087,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1359</v>
+        <v>1397</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -7002,7 +7104,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1359</v>
+        <v>1397</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -7167,11 +7269,9 @@
       <c r="C2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D2" t="s">
-        <v>77</v>
-      </c>
+      <c r="D2"/>
       <c r="E2" s="17" t="s">
-        <v>1363</v>
+        <v>1400</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -7411,11 +7511,9 @@
       <c r="E2" s="18">
         <v>72.835400000000007</v>
       </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
+      <c r="F2"/>
       <c r="G2" t="s">
-        <v>1363</v>
+        <v>1400</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -7630,7 +7728,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1360</v>
+        <v>767</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -8011,7 +8109,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -8031,7 +8129,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -8051,7 +8149,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -8071,7 +8169,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -8091,7 +8189,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -8111,7 +8209,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -8131,7 +8229,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -8190,7 +8288,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>1327</v>
+        <v>1376</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -8204,7 +8302,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>1327</v>
+        <v>1376</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4144" uniqueCount="1403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1453">
   <si>
     <t>TestCases</t>
   </si>
@@ -4254,6 +4254,156 @@
   </si>
   <si>
     <t>147373268722514</t>
+  </si>
+  <si>
+    <t>8604905926</t>
+  </si>
+  <si>
+    <t>Shanti</t>
+  </si>
+  <si>
+    <t>SushantBhattacharyya15028@example.net</t>
+  </si>
+  <si>
+    <t>1976-03-11</t>
+  </si>
+  <si>
+    <t>842709633418551</t>
+  </si>
+  <si>
+    <t>3c8da72c8d6871d7</t>
+  </si>
+  <si>
+    <t>230215446305134</t>
+  </si>
+  <si>
+    <t>8853188220</t>
+  </si>
+  <si>
+    <t>DhirajSahota54351@example.net</t>
+  </si>
+  <si>
+    <t>1976-12-05</t>
+  </si>
+  <si>
+    <t>855742702181986</t>
+  </si>
+  <si>
+    <t>82b43b8abd753b72</t>
+  </si>
+  <si>
+    <t>210794259248171</t>
+  </si>
+  <si>
+    <t>8256357440</t>
+  </si>
+  <si>
+    <t>Sheetal</t>
+  </si>
+  <si>
+    <t>CharandeepChakrabarti61231@example.net</t>
+  </si>
+  <si>
+    <t>1991-09-16</t>
+  </si>
+  <si>
+    <t>599402585104636</t>
+  </si>
+  <si>
+    <t>335f92d515b63f15</t>
+  </si>
+  <si>
+    <t>873209987875755</t>
+  </si>
+  <si>
+    <t>IDEP761542988498ZDIJ</t>
+  </si>
+  <si>
+    <t>7792034493</t>
+  </si>
+  <si>
+    <t>Lata</t>
+  </si>
+  <si>
+    <t>SatishwarLachman66696@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-22</t>
+  </si>
+  <si>
+    <t>420317929431476</t>
+  </si>
+  <si>
+    <t>f318a6a59d8596f4</t>
+  </si>
+  <si>
+    <t>680470570633398</t>
+  </si>
+  <si>
+    <t>IDEP716543225986O4ND</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>59999888166</t>
+  </si>
+  <si>
+    <t>TGPTUR</t>
+  </si>
+  <si>
+    <t>59999571090</t>
+  </si>
+  <si>
+    <t>LHTDMK</t>
+  </si>
+  <si>
+    <t>59999333204</t>
+  </si>
+  <si>
+    <t>MJNCJN</t>
+  </si>
+  <si>
+    <t>59999586534</t>
+  </si>
+  <si>
+    <t>QBPFAQ</t>
+  </si>
+  <si>
+    <t>59999748647</t>
+  </si>
+  <si>
+    <t>BKTUFP</t>
+  </si>
+  <si>
+    <t>59999516270</t>
+  </si>
+  <si>
+    <t>AKKLAU</t>
+  </si>
+  <si>
+    <t>59999835886</t>
+  </si>
+  <si>
+    <t>KMONTN</t>
+  </si>
+  <si>
+    <t>59999994477</t>
+  </si>
+  <si>
+    <t>FMGIIG</t>
+  </si>
+  <si>
+    <t>59999151132</t>
+  </si>
+  <si>
+    <t>GDTLPJ</t>
+  </si>
+  <si>
+    <t>59999502649</t>
+  </si>
+  <si>
+    <t>BBQTIT</t>
   </si>
 </sst>
 </file>
@@ -4753,7 +4903,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -4873,22 +5023,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C2" t="s">
-        <v>1376</v>
+        <v>1432</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1395</v>
+        <v>1451</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>1396</v>
+        <v>1452</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -4896,7 +5046,9 @@
       <c r="I2" s="2">
         <v>72.860399999999998</v>
       </c>
-      <c r="J2"/>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -5318,14 +5470,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1401</v>
+        <v>1429</v>
       </c>
       <c r="C2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D2"/>
+        <v>1430</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
       <c r="E2" t="s">
-        <v>1400</v>
+        <v>1428</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5541,13 +5695,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>767</v>
+        <v>1425</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1398</v>
+        <v>1426</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1399</v>
+        <v>1427</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6899,10 +7053,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
       <c r="E2" t="s">
-        <v>1398</v>
+        <v>1426</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -6914,7 +7068,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1400</v>
+        <v>1428</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -6923,10 +7077,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="M2" t="n">
-        <v>4224870.0</v>
+        <v>4225051.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -7036,7 +7190,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7053,7 +7207,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -7070,7 +7224,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -7087,7 +7241,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -7104,7 +7258,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1397</v>
+        <v>1424</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -7269,9 +7423,11 @@
       <c r="C2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
       <c r="E2" s="17" t="s">
-        <v>1400</v>
+        <v>1428</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -7511,9 +7667,11 @@
       <c r="E2" s="18">
         <v>72.835400000000007</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
       <c r="G2" t="s">
-        <v>1400</v>
+        <v>1428</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -7728,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>767</v>
+        <v>1425</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -8109,7 +8267,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -8129,7 +8287,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -8149,7 +8307,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -8169,7 +8327,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -8189,7 +8347,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -8209,7 +8367,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -8229,7 +8387,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1374</v>
+        <v>1431</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -8288,7 +8446,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>1376</v>
+        <v>1432</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -8302,7 +8460,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>1376</v>
+        <v>1432</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="1551">
   <si>
     <t>TestCases</t>
   </si>
@@ -4404,6 +4404,300 @@
   </si>
   <si>
     <t>BBQTIT</t>
+  </si>
+  <si>
+    <t>9283227825</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>RatanGarde88738@example.net</t>
+  </si>
+  <si>
+    <t>1979-06-03</t>
+  </si>
+  <si>
+    <t>731646242946396</t>
+  </si>
+  <si>
+    <t>2274d0a44acd4107</t>
+  </si>
+  <si>
+    <t>761243052395626</t>
+  </si>
+  <si>
+    <t>IDEP156746432341DPGH</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>59999007352</t>
+  </si>
+  <si>
+    <t>NFICSJ</t>
+  </si>
+  <si>
+    <t>59999620858</t>
+  </si>
+  <si>
+    <t>FUPTBG</t>
+  </si>
+  <si>
+    <t>59999964470</t>
+  </si>
+  <si>
+    <t>HILRKL</t>
+  </si>
+  <si>
+    <t>59999948743</t>
+  </si>
+  <si>
+    <t>GASQER</t>
+  </si>
+  <si>
+    <t>59999869706</t>
+  </si>
+  <si>
+    <t>TIDPEJ</t>
+  </si>
+  <si>
+    <t>59999749968</t>
+  </si>
+  <si>
+    <t>ESBIOJ</t>
+  </si>
+  <si>
+    <t>59999567039</t>
+  </si>
+  <si>
+    <t>ITECSO</t>
+  </si>
+  <si>
+    <t>59999503365</t>
+  </si>
+  <si>
+    <t>QKMSGU</t>
+  </si>
+  <si>
+    <t>59999728972</t>
+  </si>
+  <si>
+    <t>BNQBPR</t>
+  </si>
+  <si>
+    <t>59999447221</t>
+  </si>
+  <si>
+    <t>PPLCIO</t>
+  </si>
+  <si>
+    <t>9818532345</t>
+  </si>
+  <si>
+    <t>ManojSing66486@example.net</t>
+  </si>
+  <si>
+    <t>1987-04-14</t>
+  </si>
+  <si>
+    <t>945370256673729</t>
+  </si>
+  <si>
+    <t>a623e7578b798f24</t>
+  </si>
+  <si>
+    <t>206346403138869</t>
+  </si>
+  <si>
+    <t>IDEP576147491324U516</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>59999573988</t>
+  </si>
+  <si>
+    <t>KRAMLU</t>
+  </si>
+  <si>
+    <t>BNPL7516476716889732</t>
+  </si>
+  <si>
+    <t>59999225653</t>
+  </si>
+  <si>
+    <t>IHSLRR</t>
+  </si>
+  <si>
+    <t>59999543263</t>
+  </si>
+  <si>
+    <t>NITRRF</t>
+  </si>
+  <si>
+    <t>59999548817</t>
+  </si>
+  <si>
+    <t>IAHLAM</t>
+  </si>
+  <si>
+    <t>59999030667</t>
+  </si>
+  <si>
+    <t>IJOSAK</t>
+  </si>
+  <si>
+    <t>59999632980</t>
+  </si>
+  <si>
+    <t>EKEGRO</t>
+  </si>
+  <si>
+    <t>59999629251</t>
+  </si>
+  <si>
+    <t>GSJDFK</t>
+  </si>
+  <si>
+    <t>59999234396</t>
+  </si>
+  <si>
+    <t>STJTLD</t>
+  </si>
+  <si>
+    <t>59999911230</t>
+  </si>
+  <si>
+    <t>TMDCTL</t>
+  </si>
+  <si>
+    <t>59999158501</t>
+  </si>
+  <si>
+    <t>BPNBRK</t>
+  </si>
+  <si>
+    <t>335577019818532345</t>
+  </si>
+  <si>
+    <t>ICIC85845800472</t>
+  </si>
+  <si>
+    <t>ICIC98261856850</t>
+  </si>
+  <si>
+    <t>9222504241</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>DhanushBalasubramanian31901@example.net</t>
+  </si>
+  <si>
+    <t>1971-05-07</t>
+  </si>
+  <si>
+    <t>075110395439380</t>
+  </si>
+  <si>
+    <t>22a8090c478377ba</t>
+  </si>
+  <si>
+    <t>727097795302189</t>
+  </si>
+  <si>
+    <t>IDEP671548332894UE1H</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>59999050448</t>
+  </si>
+  <si>
+    <t>HOJGHC</t>
+  </si>
+  <si>
+    <t>BNPL1657485238471296</t>
+  </si>
+  <si>
+    <t>59999796737</t>
+  </si>
+  <si>
+    <t>MFMGRE</t>
+  </si>
+  <si>
+    <t>59999060884</t>
+  </si>
+  <si>
+    <t>JMDSFJ</t>
+  </si>
+  <si>
+    <t>59999416429</t>
+  </si>
+  <si>
+    <t>GAAOKN</t>
+  </si>
+  <si>
+    <t>59999739483</t>
+  </si>
+  <si>
+    <t>OUECDA</t>
+  </si>
+  <si>
+    <t>59999335496</t>
+  </si>
+  <si>
+    <t>AIHTHS</t>
+  </si>
+  <si>
+    <t>59999465896</t>
+  </si>
+  <si>
+    <t>FDFFHG</t>
+  </si>
+  <si>
+    <t>59999530124</t>
+  </si>
+  <si>
+    <t>JLTUFP</t>
+  </si>
+  <si>
+    <t>59999140275</t>
+  </si>
+  <si>
+    <t>HPPTAQ</t>
+  </si>
+  <si>
+    <t>59999539580</t>
+  </si>
+  <si>
+    <t>UMANKE</t>
+  </si>
+  <si>
+    <t>9769165529</t>
+  </si>
+  <si>
+    <t>Kasturba</t>
+  </si>
+  <si>
+    <t>JagatKrishnamurthy68308@example.net</t>
+  </si>
+  <si>
+    <t>1980-04-09</t>
+  </si>
+  <si>
+    <t>755691115200118</t>
+  </si>
+  <si>
+    <t>32316e264bdad959</t>
+  </si>
+  <si>
+    <t>639567313963206</t>
   </si>
 </sst>
 </file>
@@ -4903,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1424</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -5023,22 +5317,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="C2" t="s">
-        <v>1432</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1451</v>
+        <v>1542</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>1452</v>
+        <v>1543</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -5374,7 +5668,9 @@
       <c r="A2" t="s">
         <v>153</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>1525</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
       </c>
@@ -5470,16 +5766,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1429</v>
+        <v>1549</v>
       </c>
       <c r="C2" t="s">
-        <v>1430</v>
+        <v>1550</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1428</v>
+        <v>1548</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5582,7 +5878,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1349</v>
+        <v>1511</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -5594,7 +5890,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>1350</v>
+        <v>1512</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5603,7 +5899,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>130.0</v>
+        <v>191.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5695,13 +5991,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1425</v>
+        <v>1545</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1426</v>
+        <v>1546</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1427</v>
+        <v>1547</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -6905,7 +7201,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1349</v>
+        <v>1511</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -6917,7 +7213,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>1351</v>
+        <v>1513</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -6926,7 +7222,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>130.0</v>
+        <v>191.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -7053,10 +7349,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1424</v>
+        <v>1544</v>
       </c>
       <c r="E2" t="s">
-        <v>1426</v>
+        <v>1546</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -7068,7 +7364,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1428</v>
+        <v>1548</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -7077,10 +7373,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="M2" t="n">
-        <v>4225051.0</v>
+        <v>4225172.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -7190,7 +7486,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1424</v>
+        <v>1544</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7207,7 +7503,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1424</v>
+        <v>1544</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -7224,7 +7520,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1424</v>
+        <v>1544</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -7241,7 +7537,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1424</v>
+        <v>1544</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -7258,7 +7554,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1424</v>
+        <v>1544</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -7427,7 +7723,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1428</v>
+        <v>1548</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -7671,7 +7967,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1428</v>
+        <v>1548</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -7886,7 +8182,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1425</v>
+        <v>1545</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -8267,7 +8563,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -8287,7 +8583,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -8307,7 +8603,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -8327,7 +8623,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -8347,7 +8643,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -8367,7 +8663,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -8387,7 +8683,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1431</v>
+        <v>1521</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -8446,7 +8742,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>1432</v>
+        <v>529</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -8460,7 +8756,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>1432</v>
+        <v>529</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4539" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="1688">
   <si>
     <t>TestCases</t>
   </si>
@@ -4698,6 +4698,417 @@
   </si>
   <si>
     <t>639567313963206</t>
+  </si>
+  <si>
+    <t>7097701663</t>
+  </si>
+  <si>
+    <t>Afreen</t>
+  </si>
+  <si>
+    <t>MohanPanchal79737@example.net</t>
+  </si>
+  <si>
+    <t>1972-09-03</t>
+  </si>
+  <si>
+    <t>646141074755408</t>
+  </si>
+  <si>
+    <t>8396139e6472b40c</t>
+  </si>
+  <si>
+    <t>975557290364207</t>
+  </si>
+  <si>
+    <t>IDEP761568368736IPAN</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>59999152345</t>
+  </si>
+  <si>
+    <t>QKJOEJ</t>
+  </si>
+  <si>
+    <t>59999294115</t>
+  </si>
+  <si>
+    <t>RDAOAM</t>
+  </si>
+  <si>
+    <t>59999900101</t>
+  </si>
+  <si>
+    <t>FSLJHI</t>
+  </si>
+  <si>
+    <t>59999338642</t>
+  </si>
+  <si>
+    <t>STARKI</t>
+  </si>
+  <si>
+    <t>59999002786</t>
+  </si>
+  <si>
+    <t>SMCLTS</t>
+  </si>
+  <si>
+    <t>59999214149</t>
+  </si>
+  <si>
+    <t>SAGNOH</t>
+  </si>
+  <si>
+    <t>59999065977</t>
+  </si>
+  <si>
+    <t>GLCPEB</t>
+  </si>
+  <si>
+    <t>59999687377</t>
+  </si>
+  <si>
+    <t>MLPLEG</t>
+  </si>
+  <si>
+    <t>59999901453</t>
+  </si>
+  <si>
+    <t>UQAGPN</t>
+  </si>
+  <si>
+    <t>59999056111</t>
+  </si>
+  <si>
+    <t>KTRJKN</t>
+  </si>
+  <si>
+    <t>7248743452</t>
+  </si>
+  <si>
+    <t>Anshu</t>
+  </si>
+  <si>
+    <t>WahidKhanna43578@example.net</t>
+  </si>
+  <si>
+    <t>1974-11-18</t>
+  </si>
+  <si>
+    <t>751373336960606</t>
+  </si>
+  <si>
+    <t>0debc18292cd0274</t>
+  </si>
+  <si>
+    <t>286605079467065</t>
+  </si>
+  <si>
+    <t>IDEP6517618857979O13</t>
+  </si>
+  <si>
+    <t>59999852500</t>
+  </si>
+  <si>
+    <t>OLFTKK</t>
+  </si>
+  <si>
+    <t>BNPL5617628828274316</t>
+  </si>
+  <si>
+    <t>59999670697</t>
+  </si>
+  <si>
+    <t>JSDHFB</t>
+  </si>
+  <si>
+    <t>59999093553</t>
+  </si>
+  <si>
+    <t>LQPNDJ</t>
+  </si>
+  <si>
+    <t>59999008336</t>
+  </si>
+  <si>
+    <t>DODNSD</t>
+  </si>
+  <si>
+    <t>59999110044</t>
+  </si>
+  <si>
+    <t>ILLDGL</t>
+  </si>
+  <si>
+    <t>59999399946</t>
+  </si>
+  <si>
+    <t>PTRJGR</t>
+  </si>
+  <si>
+    <t>59999077386</t>
+  </si>
+  <si>
+    <t>AKFILL</t>
+  </si>
+  <si>
+    <t>59999957886</t>
+  </si>
+  <si>
+    <t>ODHFAF</t>
+  </si>
+  <si>
+    <t>59999698565</t>
+  </si>
+  <si>
+    <t>EJQNFL</t>
+  </si>
+  <si>
+    <t>59999506956</t>
+  </si>
+  <si>
+    <t>IMLQCS</t>
+  </si>
+  <si>
+    <t>335577017248743452</t>
+  </si>
+  <si>
+    <t>ICIC84305003185</t>
+  </si>
+  <si>
+    <t>ICIC85717216409</t>
+  </si>
+  <si>
+    <t>8155905946</t>
+  </si>
+  <si>
+    <t>Madhu</t>
+  </si>
+  <si>
+    <t>VenkatDyal44166@example.net</t>
+  </si>
+  <si>
+    <t>1993-11-17</t>
+  </si>
+  <si>
+    <t>637961883648275</t>
+  </si>
+  <si>
+    <t>25a54a2ecb380fc8</t>
+  </si>
+  <si>
+    <t>356483849505415</t>
+  </si>
+  <si>
+    <t>IDEP156762665987IF94</t>
+  </si>
+  <si>
+    <t>7639014618</t>
+  </si>
+  <si>
+    <t>Alpa</t>
+  </si>
+  <si>
+    <t>AkshaySehgal38003@example.net</t>
+  </si>
+  <si>
+    <t>1973-08-13</t>
+  </si>
+  <si>
+    <t>236818939868601</t>
+  </si>
+  <si>
+    <t>f0d9e0dcdff94183</t>
+  </si>
+  <si>
+    <t>412389178870274</t>
+  </si>
+  <si>
+    <t>IDEP176562747831EU3Q</t>
+  </si>
+  <si>
+    <t>8199530600</t>
+  </si>
+  <si>
+    <t>TarunBera98006@example.net</t>
+  </si>
+  <si>
+    <t>1984-06-02</t>
+  </si>
+  <si>
+    <t>240678812578428</t>
+  </si>
+  <si>
+    <t>f4985803be447d54</t>
+  </si>
+  <si>
+    <t>897464239203247</t>
+  </si>
+  <si>
+    <t>IDEP671563888884AP16</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>59999165365</t>
+  </si>
+  <si>
+    <t>SQROLJ</t>
+  </si>
+  <si>
+    <t>BNPL1756632784696482</t>
+  </si>
+  <si>
+    <t>59999640633</t>
+  </si>
+  <si>
+    <t>SSKOLI</t>
+  </si>
+  <si>
+    <t>59999732288</t>
+  </si>
+  <si>
+    <t>OKIUJF</t>
+  </si>
+  <si>
+    <t>59999490226</t>
+  </si>
+  <si>
+    <t>TACEPE</t>
+  </si>
+  <si>
+    <t>59999733316</t>
+  </si>
+  <si>
+    <t>CLNJIO</t>
+  </si>
+  <si>
+    <t>59999720409</t>
+  </si>
+  <si>
+    <t>EHLPPT</t>
+  </si>
+  <si>
+    <t>59999161265</t>
+  </si>
+  <si>
+    <t>OILFMD</t>
+  </si>
+  <si>
+    <t>59999898344</t>
+  </si>
+  <si>
+    <t>GIOFLS</t>
+  </si>
+  <si>
+    <t>59999239004</t>
+  </si>
+  <si>
+    <t>STEDUK</t>
+  </si>
+  <si>
+    <t>59999875984</t>
+  </si>
+  <si>
+    <t>AESKMC</t>
+  </si>
+  <si>
+    <t>8649850907</t>
+  </si>
+  <si>
+    <t>KartikNaruka93044@example.net</t>
+  </si>
+  <si>
+    <t>1978-02-24</t>
+  </si>
+  <si>
+    <t>971057003427361</t>
+  </si>
+  <si>
+    <t>39706df6f89a5a46</t>
+  </si>
+  <si>
+    <t>492546672534812</t>
+  </si>
+  <si>
+    <t>IDEP1765642628533R6I</t>
+  </si>
+  <si>
+    <t>59999393292</t>
+  </si>
+  <si>
+    <t>BTQIMP</t>
+  </si>
+  <si>
+    <t>BNPL6571644423289852</t>
+  </si>
+  <si>
+    <t>59999110124</t>
+  </si>
+  <si>
+    <t>IEQRAC</t>
+  </si>
+  <si>
+    <t>59999768111</t>
+  </si>
+  <si>
+    <t>QHPMRD</t>
+  </si>
+  <si>
+    <t>59999988867</t>
+  </si>
+  <si>
+    <t>FNDFOF</t>
+  </si>
+  <si>
+    <t>59999929447</t>
+  </si>
+  <si>
+    <t>MRNJBQ</t>
+  </si>
+  <si>
+    <t>59999404204</t>
+  </si>
+  <si>
+    <t>UCBASL</t>
+  </si>
+  <si>
+    <t>59999984497</t>
+  </si>
+  <si>
+    <t>KMJRFN</t>
+  </si>
+  <si>
+    <t>59999365445</t>
+  </si>
+  <si>
+    <t>GOSLIJ</t>
+  </si>
+  <si>
+    <t>59999908204</t>
+  </si>
+  <si>
+    <t>FUGJFP</t>
+  </si>
+  <si>
+    <t>59999373975</t>
+  </si>
+  <si>
+    <t>IOOSKH</t>
+  </si>
+  <si>
+    <t>335577018649850907</t>
+  </si>
+  <si>
+    <t>ICIC89495967692</t>
+  </si>
+  <si>
+    <t>ICIC82829672166</t>
   </si>
 </sst>
 </file>
@@ -5197,7 +5608,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1544</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -5317,22 +5728,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>1022</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1542</v>
+        <v>1683</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>1543</v>
+        <v>1684</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -5669,7 +6080,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>1525</v>
+        <v>1666</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -5766,16 +6177,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1549</v>
+        <v>1661</v>
       </c>
       <c r="C2" t="s">
-        <v>1550</v>
+        <v>1662</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1548</v>
+        <v>1660</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -5878,7 +6289,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1511</v>
+        <v>1685</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -5890,7 +6301,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>1512</v>
+        <v>1686</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -5899,7 +6310,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>191.0</v>
+        <v>124.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -5991,13 +6402,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1545</v>
+        <v>464</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1546</v>
+        <v>1658</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1547</v>
+        <v>1659</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -7201,7 +7612,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1511</v>
+        <v>1685</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -7213,7 +7624,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>1513</v>
+        <v>1687</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -7222,7 +7633,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>191.0</v>
+        <v>124.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -7349,10 +7760,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1544</v>
+        <v>1657</v>
       </c>
       <c r="E2" t="s">
-        <v>1546</v>
+        <v>1658</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -7364,7 +7775,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1548</v>
+        <v>1660</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -7373,10 +7784,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="M2" t="n">
-        <v>4225172.0</v>
+        <v>4225414.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -7486,7 +7897,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1544</v>
+        <v>1657</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7503,7 +7914,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1544</v>
+        <v>1657</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -7520,7 +7931,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1544</v>
+        <v>1657</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -7537,7 +7948,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1544</v>
+        <v>1657</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -7554,7 +7965,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1544</v>
+        <v>1657</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -7723,7 +8134,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1548</v>
+        <v>1660</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -7967,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1548</v>
+        <v>1660</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -8182,7 +8593,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1545</v>
+        <v>464</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -8563,7 +8974,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -8583,7 +8994,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -8603,7 +9014,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -8623,7 +9034,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -8643,7 +9054,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -8663,7 +9074,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -8683,7 +9094,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1521</v>
+        <v>1663</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -8742,7 +9153,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>1022</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -8756,7 +9167,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>529</v>
+        <v>1022</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="1688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5647" uniqueCount="1967">
   <si>
     <t>TestCases</t>
   </si>
@@ -5109,6 +5109,843 @@
   </si>
   <si>
     <t>ICIC82829672166</t>
+  </si>
+  <si>
+    <t>6179714038</t>
+  </si>
+  <si>
+    <t>Mridula</t>
+  </si>
+  <si>
+    <t>HanumanAmin53446@example.net</t>
+  </si>
+  <si>
+    <t>1973-09-26</t>
+  </si>
+  <si>
+    <t>245762151356474</t>
+  </si>
+  <si>
+    <t>c63afd7b161b33dc</t>
+  </si>
+  <si>
+    <t>332061185349603</t>
+  </si>
+  <si>
+    <t>9020777799</t>
+  </si>
+  <si>
+    <t>Sweta</t>
+  </si>
+  <si>
+    <t>GhalibPau31405@example.net</t>
+  </si>
+  <si>
+    <t>1987-05-13</t>
+  </si>
+  <si>
+    <t>131630194639700</t>
+  </si>
+  <si>
+    <t>044fc48eeac629c6</t>
+  </si>
+  <si>
+    <t>182121809551512</t>
+  </si>
+  <si>
+    <t>7262136979</t>
+  </si>
+  <si>
+    <t>GiaanWagle31019@example.net</t>
+  </si>
+  <si>
+    <t>1975-12-06</t>
+  </si>
+  <si>
+    <t>224373502776959</t>
+  </si>
+  <si>
+    <t>fe6d0c0000e29133</t>
+  </si>
+  <si>
+    <t>256282155333599</t>
+  </si>
+  <si>
+    <t>7124131763</t>
+  </si>
+  <si>
+    <t>Nandini</t>
+  </si>
+  <si>
+    <t>NareshDesai77457@example.net</t>
+  </si>
+  <si>
+    <t>1981-07-24</t>
+  </si>
+  <si>
+    <t>632863340606265</t>
+  </si>
+  <si>
+    <t>d3a46579c640c733</t>
+  </si>
+  <si>
+    <t>836891441322148</t>
+  </si>
+  <si>
+    <t>7787404457</t>
+  </si>
+  <si>
+    <t>KirtiYogi95041@example.net</t>
+  </si>
+  <si>
+    <t>1986-10-24</t>
+  </si>
+  <si>
+    <t>892061847495796</t>
+  </si>
+  <si>
+    <t>14b3f54bf4395ba5</t>
+  </si>
+  <si>
+    <t>871788712429287</t>
+  </si>
+  <si>
+    <t>8068160510</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>AnilGobin56468@example.net</t>
+  </si>
+  <si>
+    <t>1994-11-30</t>
+  </si>
+  <si>
+    <t>255989904317332</t>
+  </si>
+  <si>
+    <t>4e25415fb09a2ae0</t>
+  </si>
+  <si>
+    <t>602692193877517</t>
+  </si>
+  <si>
+    <t>7220896095</t>
+  </si>
+  <si>
+    <t>FakaruddinSem24948@example.net</t>
+  </si>
+  <si>
+    <t>1994-02-11</t>
+  </si>
+  <si>
+    <t>270254926865292</t>
+  </si>
+  <si>
+    <t>9de2750ba066303a</t>
+  </si>
+  <si>
+    <t>139733078150364</t>
+  </si>
+  <si>
+    <t>IDEP615758581685RB6F</t>
+  </si>
+  <si>
+    <t>7865694209</t>
+  </si>
+  <si>
+    <t>Mukti</t>
+  </si>
+  <si>
+    <t>KartikBedi34362@example.net</t>
+  </si>
+  <si>
+    <t>1980-01-05</t>
+  </si>
+  <si>
+    <t>047833205184905</t>
+  </si>
+  <si>
+    <t>7d7ea4e39877b17e</t>
+  </si>
+  <si>
+    <t>522765475331770</t>
+  </si>
+  <si>
+    <t>IDEP7516585988319DKL</t>
+  </si>
+  <si>
+    <t>59999800336</t>
+  </si>
+  <si>
+    <t>OCQTLG</t>
+  </si>
+  <si>
+    <t>59999082483</t>
+  </si>
+  <si>
+    <t>TBDTHE</t>
+  </si>
+  <si>
+    <t>59999597392</t>
+  </si>
+  <si>
+    <t>RGGRBJ</t>
+  </si>
+  <si>
+    <t>59999037598</t>
+  </si>
+  <si>
+    <t>STTHJL</t>
+  </si>
+  <si>
+    <t>59999986322</t>
+  </si>
+  <si>
+    <t>BACTBJ</t>
+  </si>
+  <si>
+    <t>59999837716</t>
+  </si>
+  <si>
+    <t>JANQMS</t>
+  </si>
+  <si>
+    <t>59999218839</t>
+  </si>
+  <si>
+    <t>QLDIUB</t>
+  </si>
+  <si>
+    <t>59999212891</t>
+  </si>
+  <si>
+    <t>IAUOKF</t>
+  </si>
+  <si>
+    <t>59999166439</t>
+  </si>
+  <si>
+    <t>CBFIGE</t>
+  </si>
+  <si>
+    <t>59999799496</t>
+  </si>
+  <si>
+    <t>HUTTLN</t>
+  </si>
+  <si>
+    <t>7312215062</t>
+  </si>
+  <si>
+    <t>Smriti</t>
+  </si>
+  <si>
+    <t>KamleshRaghavan10038@example.net</t>
+  </si>
+  <si>
+    <t>1979-01-04</t>
+  </si>
+  <si>
+    <t>105774918620786</t>
+  </si>
+  <si>
+    <t>98c272e97afc9f63</t>
+  </si>
+  <si>
+    <t>845861836609226</t>
+  </si>
+  <si>
+    <t>IDEP165751888138HEKN</t>
+  </si>
+  <si>
+    <t>59999004039</t>
+  </si>
+  <si>
+    <t>KQROAG</t>
+  </si>
+  <si>
+    <t>BNPL5671513552884139</t>
+  </si>
+  <si>
+    <t>59999571043</t>
+  </si>
+  <si>
+    <t>LREGTC</t>
+  </si>
+  <si>
+    <t>59999775034</t>
+  </si>
+  <si>
+    <t>FSENAO</t>
+  </si>
+  <si>
+    <t>59999065308</t>
+  </si>
+  <si>
+    <t>UPLDCA</t>
+  </si>
+  <si>
+    <t>59999534533</t>
+  </si>
+  <si>
+    <t>SLUOCU</t>
+  </si>
+  <si>
+    <t>59999696699</t>
+  </si>
+  <si>
+    <t>HJDIBT</t>
+  </si>
+  <si>
+    <t>59999345110</t>
+  </si>
+  <si>
+    <t>QSSLCD</t>
+  </si>
+  <si>
+    <t>59999371513</t>
+  </si>
+  <si>
+    <t>BNLIRB</t>
+  </si>
+  <si>
+    <t>59999423556</t>
+  </si>
+  <si>
+    <t>LHKPMF</t>
+  </si>
+  <si>
+    <t>59999206880</t>
+  </si>
+  <si>
+    <t>NBLSPP</t>
+  </si>
+  <si>
+    <t>335577017312215062</t>
+  </si>
+  <si>
+    <t>ICIC89340726597</t>
+  </si>
+  <si>
+    <t>ICIC91999270126</t>
+  </si>
+  <si>
+    <t>6743408657</t>
+  </si>
+  <si>
+    <t>Hira</t>
+  </si>
+  <si>
+    <t>GulzarMukhopadhyay35062@example.net</t>
+  </si>
+  <si>
+    <t>1990-04-25</t>
+  </si>
+  <si>
+    <t>636700935708849</t>
+  </si>
+  <si>
+    <t>077a816fab014db2</t>
+  </si>
+  <si>
+    <t>392850781494442</t>
+  </si>
+  <si>
+    <t>IDEP761551735876UFW7</t>
+  </si>
+  <si>
+    <t>8913271482</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>AarifSinghal75261@example.net</t>
+  </si>
+  <si>
+    <t>1975-01-02</t>
+  </si>
+  <si>
+    <t>341370031642072</t>
+  </si>
+  <si>
+    <t>d42b9f826aaf5ae4</t>
+  </si>
+  <si>
+    <t>648341070200783</t>
+  </si>
+  <si>
+    <t>IDEP761516585588UQLT</t>
+  </si>
+  <si>
+    <t>59999546027</t>
+  </si>
+  <si>
+    <t>UTPPPE</t>
+  </si>
+  <si>
+    <t>BNPL6751166869994298</t>
+  </si>
+  <si>
+    <t>59999142515</t>
+  </si>
+  <si>
+    <t>JRSOLN</t>
+  </si>
+  <si>
+    <t>59999295327</t>
+  </si>
+  <si>
+    <t>KAAEMQ</t>
+  </si>
+  <si>
+    <t>59999031505</t>
+  </si>
+  <si>
+    <t>SCJSBB</t>
+  </si>
+  <si>
+    <t>59999496122</t>
+  </si>
+  <si>
+    <t>ACMIKF</t>
+  </si>
+  <si>
+    <t>59999856527</t>
+  </si>
+  <si>
+    <t>MRGCJT</t>
+  </si>
+  <si>
+    <t>59999768722</t>
+  </si>
+  <si>
+    <t>HAADOD</t>
+  </si>
+  <si>
+    <t>59999657092</t>
+  </si>
+  <si>
+    <t>PARATN</t>
+  </si>
+  <si>
+    <t>59999395786</t>
+  </si>
+  <si>
+    <t>UCDKKJ</t>
+  </si>
+  <si>
+    <t>59999310862</t>
+  </si>
+  <si>
+    <t>BNDITG</t>
+  </si>
+  <si>
+    <t>335577018913271482</t>
+  </si>
+  <si>
+    <t>ICIC91264977789</t>
+  </si>
+  <si>
+    <t>ICIC82552721385</t>
+  </si>
+  <si>
+    <t>8973403782</t>
+  </si>
+  <si>
+    <t>Usha</t>
+  </si>
+  <si>
+    <t>SatishwarKeer75519@example.net</t>
+  </si>
+  <si>
+    <t>1971-09-20</t>
+  </si>
+  <si>
+    <t>556924238242340</t>
+  </si>
+  <si>
+    <t>e83f49d9ffc0e280</t>
+  </si>
+  <si>
+    <t>653906210108310</t>
+  </si>
+  <si>
+    <t>IDEP5671188454386VOZ</t>
+  </si>
+  <si>
+    <t>59999371378</t>
+  </si>
+  <si>
+    <t>IMSJCN</t>
+  </si>
+  <si>
+    <t>BNPL6517182419783285</t>
+  </si>
+  <si>
+    <t>59999422404</t>
+  </si>
+  <si>
+    <t>HTOGIG</t>
+  </si>
+  <si>
+    <t>59999785872</t>
+  </si>
+  <si>
+    <t>LIMLMO</t>
+  </si>
+  <si>
+    <t>59999619416</t>
+  </si>
+  <si>
+    <t>HLJHQJ</t>
+  </si>
+  <si>
+    <t>59999630410</t>
+  </si>
+  <si>
+    <t>IHASAP</t>
+  </si>
+  <si>
+    <t>59999189825</t>
+  </si>
+  <si>
+    <t>JSFDPQ</t>
+  </si>
+  <si>
+    <t>59999425445</t>
+  </si>
+  <si>
+    <t>NDRQHH</t>
+  </si>
+  <si>
+    <t>59999943988</t>
+  </si>
+  <si>
+    <t>EOLMSU</t>
+  </si>
+  <si>
+    <t>59999572318</t>
+  </si>
+  <si>
+    <t>PMIAMA</t>
+  </si>
+  <si>
+    <t>59999077098</t>
+  </si>
+  <si>
+    <t>RHPJDE</t>
+  </si>
+  <si>
+    <t>335577018973403782</t>
+  </si>
+  <si>
+    <t>ICIC83776583664</t>
+  </si>
+  <si>
+    <t>ICIC91971974952</t>
+  </si>
+  <si>
+    <t>7187917345</t>
+  </si>
+  <si>
+    <t>Kasturi</t>
+  </si>
+  <si>
+    <t>JackTandon62215@example.net</t>
+  </si>
+  <si>
+    <t>1986-09-13</t>
+  </si>
+  <si>
+    <t>419698692634427</t>
+  </si>
+  <si>
+    <t>2b5001439a9ee942</t>
+  </si>
+  <si>
+    <t>815006185180249</t>
+  </si>
+  <si>
+    <t>IDEP67151988475175KO</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>59999388162</t>
+  </si>
+  <si>
+    <t>IQINTF</t>
+  </si>
+  <si>
+    <t>BNPL6517191935545198</t>
+  </si>
+  <si>
+    <t>59999102671</t>
+  </si>
+  <si>
+    <t>EOJQGN</t>
+  </si>
+  <si>
+    <t>59999678082</t>
+  </si>
+  <si>
+    <t>GJELJK</t>
+  </si>
+  <si>
+    <t>59999162937</t>
+  </si>
+  <si>
+    <t>SHSFKL</t>
+  </si>
+  <si>
+    <t>59999653770</t>
+  </si>
+  <si>
+    <t>QSOAPM</t>
+  </si>
+  <si>
+    <t>59999599917</t>
+  </si>
+  <si>
+    <t>SUOIHE</t>
+  </si>
+  <si>
+    <t>59999414617</t>
+  </si>
+  <si>
+    <t>SGIQFU</t>
+  </si>
+  <si>
+    <t>59999858530</t>
+  </si>
+  <si>
+    <t>PLOOBS</t>
+  </si>
+  <si>
+    <t>59999728353</t>
+  </si>
+  <si>
+    <t>SJQMGS</t>
+  </si>
+  <si>
+    <t>59999605108</t>
+  </si>
+  <si>
+    <t>OOBTET</t>
+  </si>
+  <si>
+    <t>335577017187917345</t>
+  </si>
+  <si>
+    <t>ICIC84846579415</t>
+  </si>
+  <si>
+    <t>ICIC90823588656</t>
+  </si>
+  <si>
+    <t>9246058101</t>
+  </si>
+  <si>
+    <t>Trishana</t>
+  </si>
+  <si>
+    <t>PrabhatSeshadri77896@example.net</t>
+  </si>
+  <si>
+    <t>1984-09-23</t>
+  </si>
+  <si>
+    <t>226215623270990</t>
+  </si>
+  <si>
+    <t>a6f897497c98731b</t>
+  </si>
+  <si>
+    <t>179712597398366</t>
+  </si>
+  <si>
+    <t>IDEP156738945975ELMN</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>59999287797</t>
+  </si>
+  <si>
+    <t>BTDELO</t>
+  </si>
+  <si>
+    <t>BNPL7516311395437598</t>
+  </si>
+  <si>
+    <t>59999252290</t>
+  </si>
+  <si>
+    <t>SKIUOQ</t>
+  </si>
+  <si>
+    <t>59999062250</t>
+  </si>
+  <si>
+    <t>DISEFH</t>
+  </si>
+  <si>
+    <t>59999272279</t>
+  </si>
+  <si>
+    <t>FDKHHT</t>
+  </si>
+  <si>
+    <t>59999947993</t>
+  </si>
+  <si>
+    <t>FJSKCU</t>
+  </si>
+  <si>
+    <t>59999793775</t>
+  </si>
+  <si>
+    <t>JKCEGG</t>
+  </si>
+  <si>
+    <t>59999208201</t>
+  </si>
+  <si>
+    <t>UNNJNP</t>
+  </si>
+  <si>
+    <t>59999761818</t>
+  </si>
+  <si>
+    <t>UHIPTG</t>
+  </si>
+  <si>
+    <t>59999610988</t>
+  </si>
+  <si>
+    <t>FLUUUQ</t>
+  </si>
+  <si>
+    <t>59999985177</t>
+  </si>
+  <si>
+    <t>SMGBNP</t>
+  </si>
+  <si>
+    <t>335577019246058101</t>
+  </si>
+  <si>
+    <t>ICIC97221043203</t>
+  </si>
+  <si>
+    <t>ICIC82717312612</t>
+  </si>
+  <si>
+    <t>8959074056</t>
+  </si>
+  <si>
+    <t>Nilima</t>
+  </si>
+  <si>
+    <t>MohanManne26225@example.net</t>
+  </si>
+  <si>
+    <t>1972-06-25</t>
+  </si>
+  <si>
+    <t>027650736964488</t>
+  </si>
+  <si>
+    <t>bfec9eb39a52e315</t>
+  </si>
+  <si>
+    <t>929258759341359</t>
+  </si>
+  <si>
+    <t>IDEP1657333816685T72</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>59999906548</t>
+  </si>
+  <si>
+    <t>LKIFRI</t>
+  </si>
+  <si>
+    <t>BNPL1765335615924375</t>
+  </si>
+  <si>
+    <t>59999688271</t>
+  </si>
+  <si>
+    <t>UNESRB</t>
+  </si>
+  <si>
+    <t>59999622961</t>
+  </si>
+  <si>
+    <t>IKUCKB</t>
+  </si>
+  <si>
+    <t>59999816092</t>
+  </si>
+  <si>
+    <t>BJGUSQ</t>
+  </si>
+  <si>
+    <t>59999402118</t>
+  </si>
+  <si>
+    <t>GFUNHU</t>
+  </si>
+  <si>
+    <t>59999917038</t>
+  </si>
+  <si>
+    <t>MNPCBI</t>
+  </si>
+  <si>
+    <t>59999009076</t>
+  </si>
+  <si>
+    <t>BJEQTM</t>
+  </si>
+  <si>
+    <t>59999583134</t>
+  </si>
+  <si>
+    <t>BSJAGQ</t>
+  </si>
+  <si>
+    <t>59999588807</t>
+  </si>
+  <si>
+    <t>BATOHQ</t>
+  </si>
+  <si>
+    <t>59999715328</t>
+  </si>
+  <si>
+    <t>OLFIHC</t>
+  </si>
+  <si>
+    <t>335577018959074056</t>
+  </si>
+  <si>
+    <t>ICIC82955815428</t>
+  </si>
+  <si>
+    <t>ICIC94353614745</t>
   </si>
 </sst>
 </file>
@@ -5608,7 +6445,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1657</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -5728,22 +6565,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="C2" t="s">
-        <v>1022</v>
+        <v>1432</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1683</v>
+        <v>1962</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>1684</v>
+        <v>1963</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -6080,7 +6917,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>1666</v>
+        <v>1945</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -6177,16 +7014,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1661</v>
+        <v>1939</v>
       </c>
       <c r="C2" t="s">
-        <v>1662</v>
+        <v>1940</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1660</v>
+        <v>1938</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -6289,7 +7126,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1685</v>
+        <v>1964</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -6301,7 +7138,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>1686</v>
+        <v>1965</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -6310,7 +7147,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>124.0</v>
+        <v>101.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -6402,13 +7239,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>464</v>
+        <v>1935</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1658</v>
+        <v>1936</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1659</v>
+        <v>1937</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -7612,7 +8449,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1685</v>
+        <v>1964</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -7624,7 +8461,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>1687</v>
+        <v>1966</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -7633,7 +8470,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>124.0</v>
+        <v>101.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -7760,10 +8597,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1657</v>
+        <v>1934</v>
       </c>
       <c r="E2" t="s">
-        <v>1658</v>
+        <v>1936</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -7775,7 +8612,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1660</v>
+        <v>1938</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -7784,10 +8621,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="M2" t="n">
-        <v>4225414.0</v>
+        <v>4233491.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -7897,7 +8734,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1657</v>
+        <v>1934</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -7914,7 +8751,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1657</v>
+        <v>1934</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -7931,7 +8768,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1657</v>
+        <v>1934</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -7948,7 +8785,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1657</v>
+        <v>1934</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -7965,7 +8802,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1657</v>
+        <v>1934</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -8134,7 +8971,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1660</v>
+        <v>1938</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -8378,7 +9215,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1660</v>
+        <v>1938</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -8593,7 +9430,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>464</v>
+        <v>1935</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -8974,7 +9811,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -8994,7 +9831,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -9014,7 +9851,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -9034,7 +9871,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -9054,7 +9891,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -9074,7 +9911,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -9094,7 +9931,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1663</v>
+        <v>1941</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -9153,7 +9990,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>1022</v>
+        <v>1432</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -9167,7 +10004,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>1022</v>
+        <v>1432</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>

--- a/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
+++ b/src/main/java/com/Datasheet/RingPayAPI_TestData_PlayStore_stage.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5647" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="2420">
   <si>
     <t>TestCases</t>
   </si>
@@ -5946,6 +5946,1365 @@
   </si>
   <si>
     <t>ICIC94353614745</t>
+  </si>
+  <si>
+    <t>9227579833</t>
+  </si>
+  <si>
+    <t>SuryaBajwa84832@example.net</t>
+  </si>
+  <si>
+    <t>1983-07-10</t>
+  </si>
+  <si>
+    <t>441612771649521</t>
+  </si>
+  <si>
+    <t>84e97a4fa0b0827f</t>
+  </si>
+  <si>
+    <t>121387111751579</t>
+  </si>
+  <si>
+    <t>8693425681</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>MohitHalder46310@example.net</t>
+  </si>
+  <si>
+    <t>1980-01-08</t>
+  </si>
+  <si>
+    <t>750596664511101</t>
+  </si>
+  <si>
+    <t>a08e0ad28080f750</t>
+  </si>
+  <si>
+    <t>529046017210969</t>
+  </si>
+  <si>
+    <t>9053262477</t>
+  </si>
+  <si>
+    <t>Pinky</t>
+  </si>
+  <si>
+    <t>TanayRana76273@example.net</t>
+  </si>
+  <si>
+    <t>1995-06-25</t>
+  </si>
+  <si>
+    <t>278143488680417</t>
+  </si>
+  <si>
+    <t>70633b9fa82f9fc3</t>
+  </si>
+  <si>
+    <t>221084915377359</t>
+  </si>
+  <si>
+    <t>IDEP165783727674J7FB</t>
+  </si>
+  <si>
+    <t>7284944339</t>
+  </si>
+  <si>
+    <t>BahadurDesai84976@example.net</t>
+  </si>
+  <si>
+    <t>1984-07-10</t>
+  </si>
+  <si>
+    <t>521417613598057</t>
+  </si>
+  <si>
+    <t>bad4c16197812ba9</t>
+  </si>
+  <si>
+    <t>274305867824544</t>
+  </si>
+  <si>
+    <t>IDEP561784812858W1LK</t>
+  </si>
+  <si>
+    <t>59999857660</t>
+  </si>
+  <si>
+    <t>UJHFNB</t>
+  </si>
+  <si>
+    <t>59999792551</t>
+  </si>
+  <si>
+    <t>ESAAIE</t>
+  </si>
+  <si>
+    <t>59999581289</t>
+  </si>
+  <si>
+    <t>BHTFQM</t>
+  </si>
+  <si>
+    <t>59999885660</t>
+  </si>
+  <si>
+    <t>CHIPHE</t>
+  </si>
+  <si>
+    <t>59999648584</t>
+  </si>
+  <si>
+    <t>USRBAQ</t>
+  </si>
+  <si>
+    <t>59999998002</t>
+  </si>
+  <si>
+    <t>CEUGBT</t>
+  </si>
+  <si>
+    <t>59999360793</t>
+  </si>
+  <si>
+    <t>RAFLCC</t>
+  </si>
+  <si>
+    <t>59999855746</t>
+  </si>
+  <si>
+    <t>UAEHCJ</t>
+  </si>
+  <si>
+    <t>59999116689</t>
+  </si>
+  <si>
+    <t>PIJLUU</t>
+  </si>
+  <si>
+    <t>59999269625</t>
+  </si>
+  <si>
+    <t>GEHAQP</t>
+  </si>
+  <si>
+    <t>8333366706</t>
+  </si>
+  <si>
+    <t>Devika</t>
+  </si>
+  <si>
+    <t>SidBahl86696@example.net</t>
+  </si>
+  <si>
+    <t>1976-11-11</t>
+  </si>
+  <si>
+    <t>775109551126024</t>
+  </si>
+  <si>
+    <t>0229e3ce5613645e</t>
+  </si>
+  <si>
+    <t>941225477873793</t>
+  </si>
+  <si>
+    <t>IDEP615785555412FR72</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>59999967220</t>
+  </si>
+  <si>
+    <t>CGBFGH</t>
+  </si>
+  <si>
+    <t>BNPL5671857337538321</t>
+  </si>
+  <si>
+    <t>59999086772</t>
+  </si>
+  <si>
+    <t>COEJPD</t>
+  </si>
+  <si>
+    <t>59999829441</t>
+  </si>
+  <si>
+    <t>NECDPU</t>
+  </si>
+  <si>
+    <t>59999824057</t>
+  </si>
+  <si>
+    <t>OOKBLU</t>
+  </si>
+  <si>
+    <t>59999555609</t>
+  </si>
+  <si>
+    <t>FGQIIG</t>
+  </si>
+  <si>
+    <t>59999797147</t>
+  </si>
+  <si>
+    <t>GKMFME</t>
+  </si>
+  <si>
+    <t>59999017303</t>
+  </si>
+  <si>
+    <t>GFLQNJ</t>
+  </si>
+  <si>
+    <t>59999043931</t>
+  </si>
+  <si>
+    <t>DIMINF</t>
+  </si>
+  <si>
+    <t>59999828453</t>
+  </si>
+  <si>
+    <t>IRPORR</t>
+  </si>
+  <si>
+    <t>59999117592</t>
+  </si>
+  <si>
+    <t>EPBPRF</t>
+  </si>
+  <si>
+    <t>335577018333366706</t>
+  </si>
+  <si>
+    <t>ICIC93950838716</t>
+  </si>
+  <si>
+    <t>ICIC80519330700</t>
+  </si>
+  <si>
+    <t>8917929651</t>
+  </si>
+  <si>
+    <t>Aayushi</t>
+  </si>
+  <si>
+    <t>AlexDass62336@example.net</t>
+  </si>
+  <si>
+    <t>1985-02-06</t>
+  </si>
+  <si>
+    <t>188480427352024</t>
+  </si>
+  <si>
+    <t>a40c61596ffe3e26</t>
+  </si>
+  <si>
+    <t>509913862674413</t>
+  </si>
+  <si>
+    <t>IDEP617587889952YK6S</t>
+  </si>
+  <si>
+    <t>7780686214</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>PranayDeep25088@example.net</t>
+  </si>
+  <si>
+    <t>1994-02-16</t>
+  </si>
+  <si>
+    <t>809977570057234</t>
+  </si>
+  <si>
+    <t>fb56329d933be641</t>
+  </si>
+  <si>
+    <t>976741294631485</t>
+  </si>
+  <si>
+    <t>7665012330</t>
+  </si>
+  <si>
+    <t>LabeenSaran42218@example.net</t>
+  </si>
+  <si>
+    <t>1985-03-14</t>
+  </si>
+  <si>
+    <t>940243685294539</t>
+  </si>
+  <si>
+    <t>d4a9b9587c147a59</t>
+  </si>
+  <si>
+    <t>431762975319702</t>
+  </si>
+  <si>
+    <t>IDEP671587354458C7OZ</t>
+  </si>
+  <si>
+    <t>59999729061</t>
+  </si>
+  <si>
+    <t>QCQGAK</t>
+  </si>
+  <si>
+    <t>BNPL7651875297781396</t>
+  </si>
+  <si>
+    <t>59999174502</t>
+  </si>
+  <si>
+    <t>CESMKP</t>
+  </si>
+  <si>
+    <t>59999096090</t>
+  </si>
+  <si>
+    <t>PSFDRO</t>
+  </si>
+  <si>
+    <t>59999608641</t>
+  </si>
+  <si>
+    <t>DBIKMJ</t>
+  </si>
+  <si>
+    <t>59999978448</t>
+  </si>
+  <si>
+    <t>TADUMB</t>
+  </si>
+  <si>
+    <t>59999371826</t>
+  </si>
+  <si>
+    <t>GLNHTP</t>
+  </si>
+  <si>
+    <t>59999869395</t>
+  </si>
+  <si>
+    <t>UFFLRI</t>
+  </si>
+  <si>
+    <t>59999231692</t>
+  </si>
+  <si>
+    <t>HSGTLI</t>
+  </si>
+  <si>
+    <t>59999611694</t>
+  </si>
+  <si>
+    <t>LAQIUR</t>
+  </si>
+  <si>
+    <t>59999298119</t>
+  </si>
+  <si>
+    <t>KQUOJB</t>
+  </si>
+  <si>
+    <t>335577017665012330</t>
+  </si>
+  <si>
+    <t>ICIC87060567863</t>
+  </si>
+  <si>
+    <t>ICIC96959677953</t>
+  </si>
+  <si>
+    <t>6686064570</t>
+  </si>
+  <si>
+    <t>MotiRaja20307@example.net</t>
+  </si>
+  <si>
+    <t>1976-02-03</t>
+  </si>
+  <si>
+    <t>221925842489537</t>
+  </si>
+  <si>
+    <t>1976fae46d91a261</t>
+  </si>
+  <si>
+    <t>641385179078720</t>
+  </si>
+  <si>
+    <t>IDEP765188459899CL8F</t>
+  </si>
+  <si>
+    <t>59999309275</t>
+  </si>
+  <si>
+    <t>PUDBNE</t>
+  </si>
+  <si>
+    <t>BNPL6157886512128964</t>
+  </si>
+  <si>
+    <t>59999282051</t>
+  </si>
+  <si>
+    <t>DSFTEM</t>
+  </si>
+  <si>
+    <t>59999377288</t>
+  </si>
+  <si>
+    <t>BMPUGQ</t>
+  </si>
+  <si>
+    <t>59999871299</t>
+  </si>
+  <si>
+    <t>AKIGIT</t>
+  </si>
+  <si>
+    <t>59999686578</t>
+  </si>
+  <si>
+    <t>QMHHUP</t>
+  </si>
+  <si>
+    <t>59999878566</t>
+  </si>
+  <si>
+    <t>UAMJKI</t>
+  </si>
+  <si>
+    <t>59999649621</t>
+  </si>
+  <si>
+    <t>ASKGUC</t>
+  </si>
+  <si>
+    <t>59999094533</t>
+  </si>
+  <si>
+    <t>FRFHDJ</t>
+  </si>
+  <si>
+    <t>59999013460</t>
+  </si>
+  <si>
+    <t>IELLFT</t>
+  </si>
+  <si>
+    <t>59999661537</t>
+  </si>
+  <si>
+    <t>NIQTNL</t>
+  </si>
+  <si>
+    <t>335577016686064570</t>
+  </si>
+  <si>
+    <t>ICIC94622538049</t>
+  </si>
+  <si>
+    <t>ICIC89196088930</t>
+  </si>
+  <si>
+    <t>6242412542</t>
+  </si>
+  <si>
+    <t>Munni</t>
+  </si>
+  <si>
+    <t>KushalMurthy40104@example.net</t>
+  </si>
+  <si>
+    <t>1983-04-17</t>
+  </si>
+  <si>
+    <t>341364994488268</t>
+  </si>
+  <si>
+    <t>195aee61ab699175</t>
+  </si>
+  <si>
+    <t>052291938527852</t>
+  </si>
+  <si>
+    <t>IDEP56178939748424TA</t>
+  </si>
+  <si>
+    <t>59999840764</t>
+  </si>
+  <si>
+    <t>DLBGTO</t>
+  </si>
+  <si>
+    <t>BNPL6157895984499735</t>
+  </si>
+  <si>
+    <t>59999511036</t>
+  </si>
+  <si>
+    <t>UJPMUN</t>
+  </si>
+  <si>
+    <t>59999461133</t>
+  </si>
+  <si>
+    <t>LDDBAF</t>
+  </si>
+  <si>
+    <t>59999990764</t>
+  </si>
+  <si>
+    <t>KHREDU</t>
+  </si>
+  <si>
+    <t>59999679578</t>
+  </si>
+  <si>
+    <t>LOUGBE</t>
+  </si>
+  <si>
+    <t>59999602845</t>
+  </si>
+  <si>
+    <t>DMRDJM</t>
+  </si>
+  <si>
+    <t>59999499295</t>
+  </si>
+  <si>
+    <t>PEGRBR</t>
+  </si>
+  <si>
+    <t>59999821437</t>
+  </si>
+  <si>
+    <t>NPLGMK</t>
+  </si>
+  <si>
+    <t>59999326191</t>
+  </si>
+  <si>
+    <t>CHFQRB</t>
+  </si>
+  <si>
+    <t>59999080975</t>
+  </si>
+  <si>
+    <t>QUJARB</t>
+  </si>
+  <si>
+    <t>335577016242412542</t>
+  </si>
+  <si>
+    <t>ICIC93038820011</t>
+  </si>
+  <si>
+    <t>ICIC89919647352</t>
+  </si>
+  <si>
+    <t>8875886319</t>
+  </si>
+  <si>
+    <t>Veena</t>
+  </si>
+  <si>
+    <t>NirmalLad82558@example.net</t>
+  </si>
+  <si>
+    <t>1976-10-31</t>
+  </si>
+  <si>
+    <t>310680452506581</t>
+  </si>
+  <si>
+    <t>88238cb6546ea242</t>
+  </si>
+  <si>
+    <t>839163438235049</t>
+  </si>
+  <si>
+    <t>8605451254</t>
+  </si>
+  <si>
+    <t>RatanMohan15129@example.net</t>
+  </si>
+  <si>
+    <t>1990-07-11</t>
+  </si>
+  <si>
+    <t>523189909648767</t>
+  </si>
+  <si>
+    <t>2309608f8971d5b9</t>
+  </si>
+  <si>
+    <t>133086604027499</t>
+  </si>
+  <si>
+    <t>6325502067</t>
+  </si>
+  <si>
+    <t>PrabhatArora73188@example.net</t>
+  </si>
+  <si>
+    <t>1994-10-30</t>
+  </si>
+  <si>
+    <t>282489947398230</t>
+  </si>
+  <si>
+    <t>e4cadcb1506a0c8f</t>
+  </si>
+  <si>
+    <t>116450782515165</t>
+  </si>
+  <si>
+    <t>IDEP165716513391YOQM</t>
+  </si>
+  <si>
+    <t>9552292003</t>
+  </si>
+  <si>
+    <t>KabeerNagarajan95864@example.net</t>
+  </si>
+  <si>
+    <t>1981-02-25</t>
+  </si>
+  <si>
+    <t>559207218985618</t>
+  </si>
+  <si>
+    <t>3af35dcc401f7753</t>
+  </si>
+  <si>
+    <t>800136997220250</t>
+  </si>
+  <si>
+    <t>IDEP765116655833GRIA</t>
+  </si>
+  <si>
+    <t>bnpl59999010272</t>
+  </si>
+  <si>
+    <t>BLPLSG</t>
+  </si>
+  <si>
+    <t>BNPL1567167848246214</t>
+  </si>
+  <si>
+    <t>bnpl59999595712</t>
+  </si>
+  <si>
+    <t>LBDPOJ</t>
+  </si>
+  <si>
+    <t>bnpl59999575303</t>
+  </si>
+  <si>
+    <t>QDJJKQ</t>
+  </si>
+  <si>
+    <t>bnpl59999072242</t>
+  </si>
+  <si>
+    <t>DGRTEK</t>
+  </si>
+  <si>
+    <t>bnpl59999192470</t>
+  </si>
+  <si>
+    <t>CNBGNL</t>
+  </si>
+  <si>
+    <t>bnpl59999199202</t>
+  </si>
+  <si>
+    <t>OTCPKB</t>
+  </si>
+  <si>
+    <t>bnpl59999336781</t>
+  </si>
+  <si>
+    <t>COOKUH</t>
+  </si>
+  <si>
+    <t>bnpl59999403744</t>
+  </si>
+  <si>
+    <t>SPFIJF</t>
+  </si>
+  <si>
+    <t>bnpl59999867154</t>
+  </si>
+  <si>
+    <t>THNMQD</t>
+  </si>
+  <si>
+    <t>bnpl59999366509</t>
+  </si>
+  <si>
+    <t>JTCPQU</t>
+  </si>
+  <si>
+    <t>335577016325502067</t>
+  </si>
+  <si>
+    <t>ICIC87168035293</t>
+  </si>
+  <si>
+    <t>ICIC82177168428</t>
+  </si>
+  <si>
+    <t>bnpl59999037881</t>
+  </si>
+  <si>
+    <t>ONHPOP</t>
+  </si>
+  <si>
+    <t>BNPL6715168486122671</t>
+  </si>
+  <si>
+    <t>bnpl59999166941</t>
+  </si>
+  <si>
+    <t>MROMRE</t>
+  </si>
+  <si>
+    <t>bnpl59999123419</t>
+  </si>
+  <si>
+    <t>DTKSKI</t>
+  </si>
+  <si>
+    <t>bnpl59999888215</t>
+  </si>
+  <si>
+    <t>LOUFFC</t>
+  </si>
+  <si>
+    <t>bnpl59999396118</t>
+  </si>
+  <si>
+    <t>BGJCON</t>
+  </si>
+  <si>
+    <t>bnpl59999963182</t>
+  </si>
+  <si>
+    <t>BAGEGE</t>
+  </si>
+  <si>
+    <t>bnpl59999994337</t>
+  </si>
+  <si>
+    <t>HDTGLJ</t>
+  </si>
+  <si>
+    <t>bnpl59999641264</t>
+  </si>
+  <si>
+    <t>MSTUAU</t>
+  </si>
+  <si>
+    <t>bnpl59999864287</t>
+  </si>
+  <si>
+    <t>RBLGQR</t>
+  </si>
+  <si>
+    <t>bnpl59999784192</t>
+  </si>
+  <si>
+    <t>MBNORH</t>
+  </si>
+  <si>
+    <t>335577019552292003</t>
+  </si>
+  <si>
+    <t>ICIC81612230252</t>
+  </si>
+  <si>
+    <t>ICIC99680275650</t>
+  </si>
+  <si>
+    <t>6884067265</t>
+  </si>
+  <si>
+    <t>Dipti</t>
+  </si>
+  <si>
+    <t>ArunKale35727@example.net</t>
+  </si>
+  <si>
+    <t>1982-04-17</t>
+  </si>
+  <si>
+    <t>127486145283460</t>
+  </si>
+  <si>
+    <t>42059acfe48df1c3</t>
+  </si>
+  <si>
+    <t>346254610709145</t>
+  </si>
+  <si>
+    <t>IDEP176516947779E413</t>
+  </si>
+  <si>
+    <t>bnpl59999465326</t>
+  </si>
+  <si>
+    <t>KRNJGN</t>
+  </si>
+  <si>
+    <t>BNPL6517171368235849</t>
+  </si>
+  <si>
+    <t>bnpl59999572883</t>
+  </si>
+  <si>
+    <t>BCEEAR</t>
+  </si>
+  <si>
+    <t>bnpl59999348963</t>
+  </si>
+  <si>
+    <t>TOCTRG</t>
+  </si>
+  <si>
+    <t>bnpl59999357018</t>
+  </si>
+  <si>
+    <t>KNFLRE</t>
+  </si>
+  <si>
+    <t>bnpl59999923739</t>
+  </si>
+  <si>
+    <t>QOPTEL</t>
+  </si>
+  <si>
+    <t>bnpl59999226914</t>
+  </si>
+  <si>
+    <t>JUMODA</t>
+  </si>
+  <si>
+    <t>bnpl59999655458</t>
+  </si>
+  <si>
+    <t>ALHHOM</t>
+  </si>
+  <si>
+    <t>bnpl59999576760</t>
+  </si>
+  <si>
+    <t>BMLOJM</t>
+  </si>
+  <si>
+    <t>bnpl59999118621</t>
+  </si>
+  <si>
+    <t>QEESQT</t>
+  </si>
+  <si>
+    <t>bnpl59999282396</t>
+  </si>
+  <si>
+    <t>SUMOJA</t>
+  </si>
+  <si>
+    <t>335577016884067265</t>
+  </si>
+  <si>
+    <t>ICIC89224980552</t>
+  </si>
+  <si>
+    <t>ICIC87825379121</t>
+  </si>
+  <si>
+    <t>6040603420</t>
+  </si>
+  <si>
+    <t>RamGopalDutt99841@example.net</t>
+  </si>
+  <si>
+    <t>1990-03-13</t>
+  </si>
+  <si>
+    <t>440626633967633</t>
+  </si>
+  <si>
+    <t>3c4dd75eccd28392</t>
+  </si>
+  <si>
+    <t>143188248894538</t>
+  </si>
+  <si>
+    <t>IDEP571617883546S1AB</t>
+  </si>
+  <si>
+    <t>bnpl59999637016</t>
+  </si>
+  <si>
+    <t>QDNTDI</t>
+  </si>
+  <si>
+    <t>BNPL7561188843464896</t>
+  </si>
+  <si>
+    <t>bnpl59999785591</t>
+  </si>
+  <si>
+    <t>QDSGDH</t>
+  </si>
+  <si>
+    <t>bnpl59999108382</t>
+  </si>
+  <si>
+    <t>DOMATO</t>
+  </si>
+  <si>
+    <t>bnpl59999674060</t>
+  </si>
+  <si>
+    <t>UGUQDF</t>
+  </si>
+  <si>
+    <t>bnpl59999421288</t>
+  </si>
+  <si>
+    <t>QUPOIH</t>
+  </si>
+  <si>
+    <t>bnpl59999644425</t>
+  </si>
+  <si>
+    <t>UNFNIR</t>
+  </si>
+  <si>
+    <t>bnpl59999989439</t>
+  </si>
+  <si>
+    <t>FTMUDM</t>
+  </si>
+  <si>
+    <t>bnpl59999482033</t>
+  </si>
+  <si>
+    <t>DQEFUF</t>
+  </si>
+  <si>
+    <t>bnpl59999947490</t>
+  </si>
+  <si>
+    <t>GSBQTI</t>
+  </si>
+  <si>
+    <t>bnpl59999526362</t>
+  </si>
+  <si>
+    <t>QNOGBH</t>
+  </si>
+  <si>
+    <t>335577016040603420</t>
+  </si>
+  <si>
+    <t>ICIC82528007870</t>
+  </si>
+  <si>
+    <t>ICIC97855613279</t>
+  </si>
+  <si>
+    <t>8957745351</t>
+  </si>
+  <si>
+    <t>Kusum</t>
+  </si>
+  <si>
+    <t>AlexChad72629@example.net</t>
+  </si>
+  <si>
+    <t>1972-08-17</t>
+  </si>
+  <si>
+    <t>005231619754902</t>
+  </si>
+  <si>
+    <t>daca4981e7b2335c</t>
+  </si>
+  <si>
+    <t>038455777930985</t>
+  </si>
+  <si>
+    <t>IDEP561718982326ZS8K</t>
+  </si>
+  <si>
+    <t>bnpl59999734440</t>
+  </si>
+  <si>
+    <t>GMCHUS</t>
+  </si>
+  <si>
+    <t>bnpl59999839756</t>
+  </si>
+  <si>
+    <t>LDBHCD</t>
+  </si>
+  <si>
+    <t>bnpl59999918526</t>
+  </si>
+  <si>
+    <t>HJCSTP</t>
+  </si>
+  <si>
+    <t>bnpl59999448899</t>
+  </si>
+  <si>
+    <t>FULTFK</t>
+  </si>
+  <si>
+    <t>bnpl59999334192</t>
+  </si>
+  <si>
+    <t>GODHFM</t>
+  </si>
+  <si>
+    <t>bnpl59999853930</t>
+  </si>
+  <si>
+    <t>IJPHHE</t>
+  </si>
+  <si>
+    <t>bnpl59999438166</t>
+  </si>
+  <si>
+    <t>GEOGTQ</t>
+  </si>
+  <si>
+    <t>bnpl59999641412</t>
+  </si>
+  <si>
+    <t>TEPFRJ</t>
+  </si>
+  <si>
+    <t>bnpl59999132198</t>
+  </si>
+  <si>
+    <t>FSQQOS</t>
+  </si>
+  <si>
+    <t>bnpl59999100045</t>
+  </si>
+  <si>
+    <t>PBBSPJ</t>
+  </si>
+  <si>
+    <t>8214962438</t>
+  </si>
+  <si>
+    <t>Bhanupriya</t>
+  </si>
+  <si>
+    <t>RahimJhaveri80824@example.net</t>
+  </si>
+  <si>
+    <t>1995-04-17</t>
+  </si>
+  <si>
+    <t>224640835263446</t>
+  </si>
+  <si>
+    <t>494dc0b0bb91d147</t>
+  </si>
+  <si>
+    <t>970024571892377</t>
+  </si>
+  <si>
+    <t>IDEP6157285211399D3A</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>bnpl59999515808</t>
+  </si>
+  <si>
+    <t>GJUHRM</t>
+  </si>
+  <si>
+    <t>BNPL6175287177899374</t>
+  </si>
+  <si>
+    <t>bnpl59999689529</t>
+  </si>
+  <si>
+    <t>RTSTTG</t>
+  </si>
+  <si>
+    <t>bnpl59999540080</t>
+  </si>
+  <si>
+    <t>GJHKAM</t>
+  </si>
+  <si>
+    <t>bnpl59999987070</t>
+  </si>
+  <si>
+    <t>DRCOEK</t>
+  </si>
+  <si>
+    <t>bnpl59999847156</t>
+  </si>
+  <si>
+    <t>GCTRUQ</t>
+  </si>
+  <si>
+    <t>bnpl59999601262</t>
+  </si>
+  <si>
+    <t>AGNOKT</t>
+  </si>
+  <si>
+    <t>bnpl59999099500</t>
+  </si>
+  <si>
+    <t>JGEGJI</t>
+  </si>
+  <si>
+    <t>bnpl59999644224</t>
+  </si>
+  <si>
+    <t>FIURUQ</t>
+  </si>
+  <si>
+    <t>bnpl59999665644</t>
+  </si>
+  <si>
+    <t>QTPTLC</t>
+  </si>
+  <si>
+    <t>bnpl59999663934</t>
+  </si>
+  <si>
+    <t>UOEHJB</t>
+  </si>
+  <si>
+    <t>335577018214962438</t>
+  </si>
+  <si>
+    <t>ICIC86254991969</t>
+  </si>
+  <si>
+    <t>ICIC99944755866</t>
+  </si>
+  <si>
+    <t>8266361298</t>
+  </si>
+  <si>
+    <t>FerozKhosla24833@example.net</t>
+  </si>
+  <si>
+    <t>1985-05-20</t>
+  </si>
+  <si>
+    <t>462841372382372</t>
+  </si>
+  <si>
+    <t>a5f0cfbce2b9e04b</t>
+  </si>
+  <si>
+    <t>884396238930138</t>
+  </si>
+  <si>
+    <t>IDEP756121533788ZB9M</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>bnpl59999491219</t>
+  </si>
+  <si>
+    <t>NNTNMS</t>
+  </si>
+  <si>
+    <t>BNPL7615217398686157</t>
+  </si>
+  <si>
+    <t>bnpl59999956892</t>
+  </si>
+  <si>
+    <t>DIDHAC</t>
+  </si>
+  <si>
+    <t>bnpl59999050789</t>
+  </si>
+  <si>
+    <t>JALJLL</t>
+  </si>
+  <si>
+    <t>bnpl59999037231</t>
+  </si>
+  <si>
+    <t>SKDLTP</t>
+  </si>
+  <si>
+    <t>bnpl59999870700</t>
+  </si>
+  <si>
+    <t>JQHKOH</t>
+  </si>
+  <si>
+    <t>bnpl59999991462</t>
+  </si>
+  <si>
+    <t>MCKMUC</t>
+  </si>
+  <si>
+    <t>bnpl59999232655</t>
+  </si>
+  <si>
+    <t>RROQQE</t>
+  </si>
+  <si>
+    <t>bnpl59999715841</t>
+  </si>
+  <si>
+    <t>DHLGEE</t>
+  </si>
+  <si>
+    <t>bnpl59999306619</t>
+  </si>
+  <si>
+    <t>AKTTUQ</t>
+  </si>
+  <si>
+    <t>bnpl59999996067</t>
+  </si>
+  <si>
+    <t>BALALU</t>
+  </si>
+  <si>
+    <t>335577018266361298</t>
+  </si>
+  <si>
+    <t>ICIC80239951411</t>
+  </si>
+  <si>
+    <t>ICIC80695949692</t>
+  </si>
+  <si>
+    <t>7681607536</t>
+  </si>
+  <si>
+    <t>RatanSingh51638@example.net</t>
+  </si>
+  <si>
+    <t>1970-02-28</t>
+  </si>
+  <si>
+    <t>373063315578309</t>
+  </si>
+  <si>
+    <t>d610c5f5616d6793</t>
+  </si>
+  <si>
+    <t>455048472628634</t>
+  </si>
+  <si>
+    <t>IDEP165722555588B1WK</t>
+  </si>
+  <si>
+    <t>bnpl59999146287</t>
+  </si>
+  <si>
+    <t>IBQEHS</t>
+  </si>
+  <si>
+    <t>BNPL7651227492294612</t>
+  </si>
+  <si>
+    <t>bnpl59999404107</t>
+  </si>
+  <si>
+    <t>RHEPTG</t>
+  </si>
+  <si>
+    <t>bnpl59999983664</t>
+  </si>
+  <si>
+    <t>QJNBML</t>
+  </si>
+  <si>
+    <t>bnpl59999803410</t>
+  </si>
+  <si>
+    <t>QNRHCI</t>
+  </si>
+  <si>
+    <t>bnpl59999726111</t>
+  </si>
+  <si>
+    <t>SUQNIO</t>
+  </si>
+  <si>
+    <t>bnpl59999126490</t>
+  </si>
+  <si>
+    <t>CCRUEI</t>
+  </si>
+  <si>
+    <t>bnpl59999129971</t>
+  </si>
+  <si>
+    <t>MKSSCH</t>
+  </si>
+  <si>
+    <t>bnpl59999551243</t>
+  </si>
+  <si>
+    <t>HKGOSC</t>
+  </si>
+  <si>
+    <t>bnpl59999074644</t>
+  </si>
+  <si>
+    <t>SDPAFT</t>
+  </si>
+  <si>
+    <t>bnpl59999853902</t>
+  </si>
+  <si>
+    <t>UORKUK</t>
+  </si>
+  <si>
+    <t>335577017681607536</t>
+  </si>
+  <si>
+    <t>ICIC87740245128</t>
+  </si>
+  <si>
+    <t>ICIC84114676169</t>
   </si>
 </sst>
 </file>
@@ -6445,7 +7804,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>1934</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -6565,22 +7924,22 @@
         <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="C2" t="s">
-        <v>1432</v>
+        <v>1327</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>1962</v>
+        <v>2415</v>
       </c>
       <c r="F2" t="s">
         <v>249</v>
       </c>
       <c r="G2" t="s">
-        <v>1963</v>
+        <v>2416</v>
       </c>
       <c r="H2" s="2">
         <v>19.494599999999998</v>
@@ -6917,7 +8276,7 @@
         <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>1945</v>
+        <v>2398</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -7014,16 +8373,16 @@
         <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>1939</v>
+        <v>2393</v>
       </c>
       <c r="C2" t="s">
-        <v>1940</v>
+        <v>2394</v>
       </c>
       <c r="D2" t="s">
         <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>1938</v>
+        <v>2392</v>
       </c>
       <c r="F2" s="2">
         <v>19.0761</v>
@@ -7126,7 +8485,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1964</v>
+        <v>2417</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -7138,7 +8497,7 @@
         <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>1965</v>
+        <v>2418</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -7147,7 +8506,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>101.0</v>
+        <v>130.0</v>
       </c>
       <c r="K2">
         <v>2541109900110050</v>
@@ -7239,13 +8598,13 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>1935</v>
+        <v>1696</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>1936</v>
+        <v>2390</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>1937</v>
+        <v>2391</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>220</v>
@@ -8449,7 +9808,7 @@
         <v>335577</v>
       </c>
       <c r="C2" t="s">
-        <v>1964</v>
+        <v>2417</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>174</v>
@@ -8461,7 +9820,7 @@
         <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>1966</v>
+        <v>2419</v>
       </c>
       <c r="H2" s="23">
         <v>44798.630833333336</v>
@@ -8470,7 +9829,7 @@
         <v>176</v>
       </c>
       <c r="J2" t="n">
-        <v>101.0</v>
+        <v>130.0</v>
       </c>
       <c r="K2" s="2">
         <v>4191140005171</v>
@@ -8597,10 +9956,10 @@
         <v>51</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1934</v>
+        <v>2389</v>
       </c>
       <c r="E2" t="s">
-        <v>1936</v>
+        <v>2390</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>64</v>
@@ -8612,7 +9971,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1938</v>
+        <v>2392</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>67</v>
@@ -8621,10 +9980,10 @@
         <v>68</v>
       </c>
       <c r="L2" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="M2" t="n">
-        <v>4233491.0</v>
+        <v>4234170.0</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>69</v>
@@ -8734,7 +10093,7 @@
         <v>888888</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1934</v>
+        <v>2389</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -8751,7 +10110,7 @@
         <v>125111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1934</v>
+        <v>2389</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -8768,7 +10127,7 @@
         <v>555555</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1934</v>
+        <v>2389</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -8785,7 +10144,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>1934</v>
+        <v>2389</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -8802,7 +10161,7 @@
         <v>789</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1934</v>
+        <v>2389</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -8971,7 +10330,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1938</v>
+        <v>2392</v>
       </c>
       <c r="F2" s="16">
         <v>18.939800000000002</v>
@@ -9215,7 +10574,7 @@
         <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>1938</v>
+        <v>2392</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>67</v>
@@ -9430,7 +10789,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>1935</v>
+        <v>1696</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>104</v>
@@ -9811,7 +11170,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="C2">
         <v>303</v>
@@ -9831,7 +11190,7 @@
         <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="C3">
         <v>563</v>
@@ -9851,7 +11210,7 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="C4">
         <v>645</v>
@@ -9871,7 +11230,7 @@
         <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="C5">
         <v>668</v>
@@ -9891,7 +11250,7 @@
         <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -9911,7 +11270,7 @@
         <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -9931,7 +11290,7 @@
         <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>1941</v>
+        <v>2395</v>
       </c>
       <c r="C8">
         <v>725</v>
@@ -9990,7 +11349,7 @@
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>1432</v>
+        <v>1327</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>240</v>
@@ -10004,7 +11363,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>1432</v>
+        <v>1327</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>240</v>
